--- a/app/src/main/assets/热卖PC搜索.xlsx
+++ b/app/src/main/assets/热卖PC搜索.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E398"/>
+  <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,16 +399,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>小学生奖励小礼品幼儿园小礼物一年级六一儿童节61毕业奖品全班</v>
+        <v>小学生奖励小礼品文具奖品创意幼儿园实用六一儿童节小孩朋友礼物</v>
       </c>
       <c r="B2" t="str">
-        <v>¥7.90¥19.80</v>
+        <v>¥9.90¥9.90</v>
       </c>
       <c r="C2" t="str">
-        <v>雯雯奖品礼品文具批发</v>
+        <v>许世完美</v>
       </c>
       <c r="D2" t="str">
-        <v>月销 1.48万</v>
+        <v>月销 1.90万</v>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -416,16 +416,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>小学生奖励小礼品幼儿园小朋友奖品儿童伴手礼全班61六一儿童节</v>
+        <v>创意猜拳蛋抖音同款石头剪刀布儿童节礼物2元以内义乌小玩具批發</v>
       </c>
       <c r="B3" t="str">
-        <v>¥9.90¥19.80</v>
+        <v>¥0.30¥1.50</v>
       </c>
       <c r="C3" t="str">
-        <v>因礼美旗舰店</v>
+        <v>斑比文具礼品批发</v>
       </c>
       <c r="D3" t="str">
-        <v>月销 1847</v>
+        <v>月销 5480</v>
       </c>
       <c r="E3" t="str">
         <v/>
@@ -433,16 +433,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>公司活动实用大气礼品银行定制印logo回礼车行开业促销实惠小赠品</v>
+        <v>地摊儿童幼儿园学生玩具老师奖励印章开学小赠礼品活动批1元以下2</v>
       </c>
       <c r="B4" t="str">
-        <v>¥9.90¥9.90</v>
+        <v>¥0.09¥0.09</v>
       </c>
       <c r="C4" t="str">
-        <v>苏家礼品批发</v>
+        <v>小馒头玩具百货</v>
       </c>
       <c r="D4" t="str">
-        <v>月销 1</v>
+        <v>月销 127</v>
       </c>
       <c r="E4" t="str">
         <v/>
@@ -450,16 +450,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>创意厨房实用小玩意家居生活用品家用学习百货商品送人礼品杂货铺</v>
+        <v>四五六年级小学生奖励小礼品初中生六一儿童节礼物班级课堂奖品</v>
       </c>
       <c r="B5" t="str">
-        <v>¥0.10¥0.28</v>
+        <v>¥16.60¥16.80</v>
       </c>
       <c r="C5" t="str">
-        <v>柚子创意家居百货批发超市</v>
+        <v>义乌市文具小礼品批发</v>
       </c>
       <c r="D5" t="str">
-        <v>月销 3397</v>
+        <v>月销 73</v>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -467,16 +467,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>创意家居洗衣机用具小百货大全家用小物件好实用居家生活日用品</v>
+        <v>辅导班教育培训机构开业广告宣传活动小礼品充电台灯定制LOGO批發</v>
       </c>
       <c r="B6" t="str">
-        <v>¥2.90¥5.80</v>
+        <v>¥9.80¥1.00</v>
       </c>
       <c r="C6" t="str">
-        <v>集优创意家居城</v>
+        <v>千饰佳缘礼品店</v>
       </c>
       <c r="D6" t="str">
-        <v>月销 43</v>
+        <v>月销 37</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -484,16 +484,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>六一幼儿园全班培训班小学生奖励小礼物奖品儿童节生日实用小礼品</v>
+        <v>儿童怀旧玩具小孩套圈圈水机 地摊益智小玩具带绳 幼儿园活动礼品</v>
       </c>
       <c r="B7" t="str">
-        <v>¥11.90¥19.90</v>
+        <v>¥0.33¥0.35</v>
       </c>
       <c r="C7" t="str">
-        <v>许世完美</v>
+        <v>小当家玩具百货</v>
       </c>
       <c r="D7" t="str">
-        <v>月销 607</v>
+        <v>月销 101</v>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -501,16 +501,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>大艺术家摆件大美术馆系列家居戴珍珠耳环的少女生日礼物520创意</v>
+        <v>若态diy小屋手工制作nanci樱花庭古代中国风房子情人儿童节礼物女</v>
       </c>
       <c r="B8" t="str">
-        <v>¥129.00¥258.00</v>
+        <v>¥9.90¥138.00</v>
       </c>
       <c r="C8" t="str">
-        <v>bestwest旗舰店</v>
+        <v>丸子 异想天开杂货店</v>
       </c>
       <c r="D8" t="str">
-        <v>月销 894</v>
+        <v>月销 8</v>
       </c>
       <c r="E8" t="str">
         <v/>
@@ -518,16 +518,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>创意实用小玩意家居生活用品家用学习百货商品送人礼品礼物杂货铺</v>
+        <v>创意实用小玩意家居生活日用品家用百货商品送人礼品礼物化妆镜子</v>
       </c>
       <c r="B9" t="str">
-        <v>¥0.10¥0.30</v>
+        <v>¥3.50¥3.50</v>
       </c>
       <c r="C9" t="str">
-        <v>好邻居家居百货批发超市</v>
+        <v>集优创意家居城</v>
       </c>
       <c r="D9" t="str">
-        <v>月销 1509</v>
+        <v>月销 10</v>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -535,16 +535,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>520礼物送女友女生朋友特别创意实用情人节生日老婆惊喜浪漫5.20</v>
+        <v>小学生奖品幼儿园小朋友奖励小礼品实用毕业一年级班级文具小礼物</v>
       </c>
       <c r="B10" t="str">
-        <v>¥138.00¥226.20</v>
+        <v>¥9.90¥19.80</v>
       </c>
       <c r="C10" t="str">
-        <v>欣辉居家日用专营店</v>
+        <v>金色童年礼品批发商城</v>
       </c>
       <c r="D10" t="str">
-        <v>月销 2540</v>
+        <v>月销 359</v>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -552,16 +552,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>创意卡通橡皮擦学生可爱卡装像皮幼儿园六一全班小奖品实用文具</v>
+        <v>创意家居洗衣机用具小百货大全家用小物件好实用居家生活日用品</v>
       </c>
       <c r="B11" t="str">
-        <v>¥1.75¥2.41</v>
+        <v>¥2.90¥5.80</v>
       </c>
       <c r="C11" t="str">
-        <v>T 咪 文具店10元包邮</v>
+        <v>集优创意家居城</v>
       </c>
       <c r="D11" t="str">
-        <v>月销 265</v>
+        <v>月销 39</v>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -569,16 +569,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>厨房抹布沥水用品家用大全收纳置物架壁挂海绵洗碗布水池水槽神器</v>
+        <v>创意厨房实用小玩意家居生活用品家用学习百货商品送人礼品杂货铺</v>
       </c>
       <c r="B12" t="str">
-        <v>¥19.00¥38.00</v>
+        <v>¥0.10¥0.28</v>
       </c>
       <c r="C12" t="str">
-        <v>居家帮旗舰店</v>
+        <v>柚子创意家居百货批发超市</v>
       </c>
       <c r="D12" t="str">
-        <v>月销 85</v>
+        <v>月销 3379</v>
       </c>
       <c r="E12" t="str">
         <v/>
@@ -586,16 +586,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>创意居家日用品用具小百货大全家用实用物件厨房生活神器保鲜礼品</v>
+        <v>夏拓客地推引流刻字广告宣传小礼品定制Logo送客户实用1到2元以下</v>
       </c>
       <c r="B13" t="str">
-        <v>¥4.80¥9.80</v>
+        <v>¥1.00¥1.00</v>
       </c>
       <c r="C13" t="str">
-        <v>集优创意家居城</v>
+        <v>名邦礼品定制批发</v>
       </c>
       <c r="D13" t="str">
-        <v>月销 579</v>
+        <v>月销 190</v>
       </c>
       <c r="E13" t="str">
         <v/>
@@ -603,16 +603,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>家居家日用品生活3小百货9.9元义乌两小商品批店2厨房1礼品10活动</v>
+        <v>儿童节活动小礼品六一定制开业赠品实用地推拓客幼儿园毕业季礼物</v>
       </c>
       <c r="B14" t="str">
         <v>¥1.00¥1.00</v>
       </c>
       <c r="C14" t="str">
-        <v>圆亨家居创意日用百货</v>
+        <v>欣客信家居专营店</v>
       </c>
       <c r="D14" t="str">
-        <v>月销 724</v>
+        <v>月销 260</v>
       </c>
       <c r="E14" t="str">
         <v/>
@@ -620,16 +620,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>婚礼喜帖定制结婚请帖请柬创意打印请帖2020婚礼结婚请柬 中国风</v>
+        <v>得力文具套装礼盒装幼儿园礼物学习用品网红文具大礼包小学生六一儿童节礼物一年级二年级开学少女心福袋</v>
       </c>
       <c r="B15" t="str">
-        <v>¥1.65¥1.65</v>
+        <v>¥6.90¥12.50</v>
       </c>
       <c r="C15" t="str">
-        <v>哆啦咪婚品定制中心</v>
+        <v>得力创一专卖店</v>
       </c>
       <c r="D15" t="str">
-        <v>月销 6</v>
+        <v>月销 117</v>
       </c>
       <c r="E15" t="str">
         <v/>
@@ -637,16 +637,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>妙洁抹布吸水不掉毛加厚洗碗抹布家务清洁抹厨房用品3片*1包</v>
+        <v>创意文具小礼品幼儿园奖励贴纸卡通动物立体泡泡贴DIY相册装饰贴</v>
       </c>
       <c r="B16" t="str">
-        <v>¥7.90¥7.90</v>
+        <v>¥9.90¥19.90</v>
       </c>
       <c r="C16" t="str">
-        <v>天猫超市</v>
+        <v>希睿文具精品店10元包邮</v>
       </c>
       <c r="D16" t="str">
-        <v>月销 6.02万</v>
+        <v>月销 312</v>
       </c>
       <c r="E16" t="str">
         <v/>
@@ -654,16 +654,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>香聚堂日式手工粉色陶瓷樱花香立香插熏香台底座线香香道器皿配件</v>
+        <v>幼儿园开学招生培训班送小朋友六一礼品带礼盒玩具搞活动儿童奖品</v>
       </c>
       <c r="B17" t="str">
-        <v>¥6.00¥8.00</v>
+        <v>¥17.50¥17.50</v>
       </c>
       <c r="C17" t="str">
-        <v>香聚堂の芳香温暖生活</v>
+        <v>i do 潮品生活馆</v>
       </c>
       <c r="D17" t="str">
-        <v>月销 9</v>
+        <v>月销 17</v>
       </c>
       <c r="E17" t="str">
         <v/>
@@ -671,16 +671,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>小学生奖励小礼品奖品文具创意幼儿园小朋友实用儿童生日圣诞礼物</v>
+        <v>包邮创意文具小礼品批fa小学生奖品小本子开学发活动赠品实用礼物</v>
       </c>
       <c r="B18" t="str">
-        <v>¥18.33¥18.33</v>
+        <v>¥13.80¥13.90</v>
       </c>
       <c r="C18" t="str">
-        <v>新奇特学生礼品批发</v>
+        <v>希睿文具精品店10元包邮</v>
       </c>
       <c r="D18" t="str">
-        <v>月销 31</v>
+        <v>月销 1430</v>
       </c>
       <c r="E18" t="str">
         <v/>
@@ -688,16 +688,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>免打孔厨房置物架壁挂式调味料用品收纳调料罐多功能一体筷笼刀架</v>
+        <v>可奇家硅胶可爱创意中性笔超萌少女ins学生卡通笔黑色儿童节礼物</v>
       </c>
       <c r="B19" t="str">
-        <v>¥45.00¥90.00</v>
+        <v>¥12.90¥18.90</v>
       </c>
       <c r="C19" t="str">
-        <v>居家帮旗舰店</v>
+        <v>可奇创意文具店</v>
       </c>
       <c r="D19" t="str">
-        <v>月销 5</v>
+        <v>月销 39</v>
       </c>
       <c r="E19" t="str">
         <v/>
@@ -705,16 +705,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>结婚庆用品婚房布置喜字胶带双面胶派对布置用品婚房布置气球胶</v>
+        <v>伴手礼女伴娘结婚用品大全礼盒闺蜜实用回礼毛巾小礼品生日满月酒</v>
       </c>
       <c r="B20" t="str">
-        <v>¥2.45¥5.00</v>
+        <v>¥21.98¥31.40</v>
       </c>
       <c r="C20" t="str">
-        <v>文仙亦言旗舰店</v>
+        <v>广懿旗舰店</v>
       </c>
       <c r="D20" t="str">
-        <v>月销 39</v>
+        <v>月销 5029</v>
       </c>
       <c r="E20" t="str">
         <v/>
@@ -722,16 +722,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>定制公司logo实用开业活动小礼品促销年会议创意节日随手礼送客户</v>
+        <v>结婚伴手礼小礼品创意实用大气精美生日礼物开业活动赠品定制logo</v>
       </c>
       <c r="B21" t="str">
-        <v>¥44.00¥49.00</v>
+        <v>¥5.40¥5.40</v>
       </c>
       <c r="C21" t="str">
-        <v>飞翔电子科技礼品</v>
+        <v>佰润汇礼品陶瓷有限公司</v>
       </c>
       <c r="D21" t="str">
-        <v>月销 1</v>
+        <v>月销 22</v>
       </c>
       <c r="E21" t="str">
         <v/>
@@ -739,16 +739,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>草缸壁挂鱼缸花瓶挂式花盆墙上装饰立体亚克力墙贴背景墙家居饰品</v>
+        <v>男生生日礼物飞科电动剃须刀送男朋友老公爸爸男士实用高档礼盒装</v>
       </c>
       <c r="B22" t="str">
-        <v>¥5.60¥12.29</v>
+        <v>¥99.00¥198.00</v>
       </c>
       <c r="C22" t="str">
-        <v>汇雅源有机玻璃精品店</v>
+        <v>星创企业店</v>
       </c>
       <c r="D22" t="str">
-        <v>月销 886</v>
+        <v>月销 1190</v>
       </c>
       <c r="E22" t="str">
         <v/>
@@ -756,16 +756,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>儿童奖品幼儿园小学生奖品生日朋友实用礼物奖励全班玩具礼品</v>
+        <v>38cm泡泡棒吹泡泡机水棒地摊地推伴手礼泡泡玩具整箱可定制logo</v>
       </c>
       <c r="B23" t="str">
-        <v>¥0.28¥0.28</v>
+        <v>¥57.00¥130.00</v>
       </c>
       <c r="C23" t="str">
-        <v>新奇特学生礼品批发</v>
+        <v>天行童话</v>
       </c>
       <c r="D23" t="str">
-        <v>月销 25</v>
+        <v>月销 618</v>
       </c>
       <c r="E23" t="str">
         <v/>
@@ -773,16 +773,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>幼儿园全班培训班级儿童生日实用礼品随手礼小学生奖励小礼物奖品</v>
+        <v>六一儿童节幼儿园学生奖励小礼品5元以下定制logo生日培训班奖品</v>
       </c>
       <c r="B24" t="str">
-        <v>¥12.80¥16.00</v>
+        <v>¥3.80¥3.80</v>
       </c>
       <c r="C24" t="str">
-        <v>乐三岁文具礼品店</v>
+        <v>辰礼商贸礼品定制</v>
       </c>
       <c r="D24" t="str">
-        <v>月销 54</v>
+        <v>月销 893</v>
       </c>
       <c r="E24" t="str">
         <v/>
@@ -790,16 +790,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>满9.9元包邮 土豪金金色钥匙扣配件不锈钢钥匙环 小中大  3种规格</v>
+        <v>家居家生活日用品小百货义乌小商品批發9.9元2市场家用杂货铺店两</v>
       </c>
       <c r="B25" t="str">
-        <v>¥0.20¥0.40</v>
+        <v>¥9.90¥19.90</v>
       </c>
       <c r="C25" t="str">
-        <v>淘品居日用百货商行</v>
+        <v>圆亨家居创意日用百货</v>
       </c>
       <c r="D25" t="str">
-        <v>月销 45</v>
+        <v>月销 77</v>
       </c>
       <c r="E25" t="str">
         <v/>
@@ -807,16 +807,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>微商地推扫码小礼品批發2元以下公司开业小学生幼儿园奖品1元商品</v>
+        <v>2个灭鼠先锋手我是高手儿童心算指压泡泡乐减压玩具练习板钥匙扣</v>
       </c>
       <c r="B26" t="str">
-        <v>¥0.01¥0.08</v>
+        <v>¥9.90¥10.00</v>
       </c>
       <c r="C26" t="str">
-        <v>优品商城文具礼品批发</v>
+        <v>我想食生活百货店</v>
       </c>
       <c r="D26" t="str">
-        <v>月销 701</v>
+        <v>月销 98</v>
       </c>
       <c r="E26" t="str">
         <v/>
@@ -824,16 +824,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>结婚纸杯婚礼一次性喜杯子敬茶婚庆用品大全加厚喜字婚宴红色水杯</v>
+        <v>宣传纪念开业活动地推引流赠品实用送客户1到2元礼品logo定制印字</v>
       </c>
       <c r="B27" t="str">
-        <v>¥4.41¥9.00</v>
+        <v>¥1.00¥1.00</v>
       </c>
       <c r="C27" t="str">
-        <v>文仙亦言旗舰店</v>
+        <v>欣悦礼品定制批发</v>
       </c>
       <c r="D27" t="str">
-        <v>月销 517</v>
+        <v>月销 69</v>
       </c>
       <c r="E27" t="str">
         <v/>
@@ -841,16 +841,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>婚礼婚庆大型活动现在装饰布置商场橱窗美陈大型立体纸花成品虞美</v>
+        <v>大颗粒实木积木儿童木质玩具1-2岁3-6周岁礼物木制可啃咬益智木头</v>
       </c>
       <c r="B28" t="str">
-        <v>¥8.00¥45.85</v>
+        <v>¥269.00¥578.00</v>
       </c>
       <c r="C28" t="str">
-        <v>迪茉西纸艺花坊</v>
+        <v>利伯顿旗舰店</v>
       </c>
       <c r="D28" t="str">
-        <v>月销 103</v>
+        <v>月销 129</v>
       </c>
       <c r="E28" t="str">
         <v/>
@@ -858,16 +858,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>瓶装橡皮擦100个儿童小橡皮学生专用不留痕无碎屑创意幼儿园奖品</v>
+        <v>网红61六一儿童节生日礼物女孩男孩小学生幼儿园实用玩具男生10岁</v>
       </c>
       <c r="B29" t="str">
-        <v>¥4.80¥6.80</v>
+        <v>¥29.90¥60.00</v>
       </c>
       <c r="C29" t="str">
-        <v>优奇文具10元包邮</v>
+        <v>众尚旗舰店</v>
       </c>
       <c r="D29" t="str">
-        <v>月销 304</v>
+        <v>月销 30</v>
       </c>
       <c r="E29" t="str">
         <v/>
@@ -875,16 +875,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>可爱微商地推实用学生小礼物 儿童节活动钥匙扣创意小礼品六一</v>
+        <v>LIVHEART小恐龙玩偶娃娃睡觉抱枕公仔毛绒玩具女孩六一儿童节礼物</v>
       </c>
       <c r="B30" t="str">
-        <v>¥0.09¥0.09</v>
+        <v>¥98.00¥175.00</v>
       </c>
       <c r="C30" t="str">
-        <v>梓墨文具批发9块9包邮</v>
+        <v>livheart旗舰店</v>
       </c>
       <c r="D30" t="str">
-        <v>月销 156</v>
+        <v>月销 2008</v>
       </c>
       <c r="E30" t="str">
         <v/>
@@ -892,16 +892,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>公司伴手礼小礼品定制logo创意活动赠品送客户员工实用奖品小礼物</v>
+        <v>酒店三八女神节活动礼物车行公司周年庆赠品牛年定制logo实用礼品</v>
       </c>
       <c r="B31" t="str">
-        <v>¥32.00¥52.00</v>
+        <v>¥13.80¥13.80</v>
       </c>
       <c r="C31" t="str">
-        <v>知礼识礼</v>
+        <v>苏家礼品批发</v>
       </c>
       <c r="D31" t="str">
-        <v>月销 7</v>
+        <v>月销 2</v>
       </c>
       <c r="E31" t="str">
         <v/>
@@ -909,16 +909,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>【吉祥道具】3D菠萝趣味吸管 一次性立体生日泳池派对用品夏日</v>
+        <v>小学生奖励伴手礼小礼品创意幼儿园小朋友实用六一儿童节文具奖品</v>
       </c>
       <c r="B32" t="str">
-        <v>¥9.90¥9.90</v>
+        <v>¥1.00¥1.00</v>
       </c>
       <c r="C32" t="str">
-        <v>吉祥道具LuckyScene</v>
+        <v>许世完美</v>
       </c>
       <c r="D32" t="str">
-        <v>月销 69</v>
+        <v>月销 888</v>
       </c>
       <c r="E32" t="str">
         <v/>
@@ -926,16 +926,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>送朋友仿真法拉利合金跑车模型70周年纪念版收藏摆件高档精品礼物</v>
+        <v>儿童节活动小礼品定制LOGO小学生班级奖品10元以下创意台灯伴手礼</v>
       </c>
       <c r="B33" t="str">
-        <v>¥468.00¥936.00</v>
+        <v>¥8.60¥8.60</v>
       </c>
       <c r="C33" t="str">
-        <v>爱车e族礼品店</v>
+        <v>腾跃礼品定制</v>
       </c>
       <c r="D33" t="str">
-        <v>月销 0</v>
+        <v>月销 77</v>
       </c>
       <c r="E33" t="str">
         <v/>
@@ -943,16 +943,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>创意居家家居生活日用品厨房用品用具小百货家用小东西宿舍好物女</v>
+        <v>奥利惠多功能手机消毒器紫外线杀菌盒美妆工具加香无线充电礼品</v>
       </c>
       <c r="B34" t="str">
-        <v>¥98.00¥158.00</v>
+        <v>¥59.40¥66.00</v>
       </c>
       <c r="C34" t="str">
-        <v>暖橙耀耀旗舰店</v>
+        <v>智能数码家电99</v>
       </c>
       <c r="D34" t="str">
-        <v>月销 5</v>
+        <v>月销 18</v>
       </c>
       <c r="E34" t="str">
         <v/>
@@ -960,16 +960,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>恒源祥全棉被套纯棉印花全棉床上用品居家简约单件被套被罩双人单</v>
+        <v>奖励孩子的小奖品圣诞节礼物小礼品小学生儿童幼儿园创意文具批發</v>
       </c>
       <c r="B35" t="str">
-        <v>¥91.50¥191.50</v>
+        <v>¥0.60¥0.60</v>
       </c>
       <c r="C35" t="str">
-        <v>滴哒家居专营店</v>
+        <v>萌心童语礼品</v>
       </c>
       <c r="D35" t="str">
-        <v>月销 11</v>
+        <v>月销 3</v>
       </c>
       <c r="E35" t="str">
         <v/>
@@ -977,16 +977,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>卡通线圈小本子便携随身小号可爱迷你侧翻少女心记作业记事单词口袋本空白小学生文具班级奖励奖品圣诞小礼物</v>
+        <v>捏捏乐解压发泄玩具六一儿童节小学生礼物可爱超萌团子幼儿园奖品</v>
       </c>
       <c r="B36" t="str">
-        <v>¥5.80¥10.80</v>
+        <v>¥9.90¥11.90</v>
       </c>
       <c r="C36" t="str">
-        <v>隽瑾办公专营店</v>
+        <v>T 咪 文具店10元包邮</v>
       </c>
       <c r="D36" t="str">
-        <v>月销 1270</v>
+        <v>月销 750</v>
       </c>
       <c r="E36" t="str">
         <v/>
@@ -994,16 +994,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>洗脸盆婚庆陪嫁喜庆用品大全结婚脸盆新娘套装嫁妆红盆一对喜盆子</v>
+        <v>520礼物送员工礼盒高档实用男女友生日礼物闺蜜奖品伴手礼护士节</v>
       </c>
       <c r="B37" t="str">
-        <v>¥9.50¥43.00</v>
+        <v>¥59.00¥116.00</v>
       </c>
       <c r="C37" t="str">
-        <v>菲寻家居旗舰店</v>
+        <v>鹏林旗舰店</v>
       </c>
       <c r="D37" t="str">
-        <v>月销 1697</v>
+        <v>月销 15</v>
       </c>
       <c r="E37" t="str">
         <v/>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>生日女生520情人节礼物送女友女朋友老婆媳妇妻子妈妈实用的礼品</v>
+        <v>不锈钢厨房置物架落地4层放锅架子微波炉架收纳架储物架家用货架</v>
       </c>
       <c r="B38" t="str">
-        <v>¥568.00¥1792.00</v>
+        <v>¥108.00¥240.00</v>
       </c>
       <c r="C38" t="str">
-        <v>盖卓旗舰店</v>
+        <v>万事佳置物架批发</v>
       </c>
       <c r="D38" t="str">
-        <v>月销 96</v>
+        <v>月销 40</v>
       </c>
       <c r="E38" t="str">
         <v/>
@@ -1028,16 +1028,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>小学生男女孩开学礼品活动送奖励奖品创意实用伴手礼生日礼物批發</v>
+        <v>儿童益智思维训练魔豆汉堡魔方智力开发解压玩具幼儿园小学生礼品</v>
       </c>
       <c r="B39" t="str">
-        <v>¥4.80¥6.80</v>
+        <v>¥12.80¥19.00</v>
       </c>
       <c r="C39" t="str">
-        <v>希睿文具精品店10元包邮</v>
+        <v>Smile玩具店</v>
       </c>
       <c r="D39" t="str">
-        <v>月销 780</v>
+        <v>月销 94</v>
       </c>
       <c r="E39" t="str">
         <v/>
@@ -1045,16 +1045,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>朝暮voluspa香薰欧舒丹520花礼情人节伴娘新婚结婚送闺蜜生日礼盒</v>
+        <v>儿童拆装恐龙蛋益智玩具盒装拧螺丝组装DIY动手材料包小学生礼物</v>
       </c>
       <c r="B40" t="str">
-        <v>¥228.00¥288.00</v>
+        <v>¥7.80¥10.80</v>
       </c>
       <c r="C40" t="str">
-        <v>OneDay朝暮花房</v>
+        <v>T 咪 文具店10元包邮</v>
       </c>
       <c r="D40" t="str">
-        <v>月销 908</v>
+        <v>月销 53</v>
       </c>
       <c r="E40" t="str">
         <v/>
@@ -1062,16 +1062,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>生日女生520情人节礼物送女友女朋友老婆媳妇妻子妈妈实用的礼品</v>
+        <v>公司开业活动小礼品开业宣传赠品定制logo抽奖活动奖品商务纪念品</v>
       </c>
       <c r="B41" t="str">
-        <v>¥568.00¥1792.00</v>
+        <v>¥5.80¥5.80</v>
       </c>
       <c r="C41" t="str">
-        <v>盖卓旗舰店</v>
+        <v>粟予礼商务定制</v>
       </c>
       <c r="D41" t="str">
-        <v>月销 11</v>
+        <v>月销 127</v>
       </c>
       <c r="E41" t="str">
         <v/>
@@ -1079,16 +1079,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>儿童卡通可爱小本子幼儿园学生六一奖品批发随身便捷笔记本文具</v>
+        <v>围裙厨房用品家用大全家居家用小东西居家生活日用品家庭小百货</v>
       </c>
       <c r="B42" t="str">
-        <v>¥3.60¥4.60</v>
+        <v>¥8.98¥8.99</v>
       </c>
       <c r="C42" t="str">
-        <v>T 咪 文具店10元包邮</v>
+        <v>宁阳百货</v>
       </c>
       <c r="D42" t="str">
-        <v>月销 3012</v>
+        <v>月销 28</v>
       </c>
       <c r="E42" t="str">
         <v/>
@@ -1096,16 +1096,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>六一儿童节礼物61小学生幼儿园小朋友奖励活动赠品实用小奖品班级</v>
+        <v>创意实用小玩意家居生活用品家用学习百货商品送人礼品礼物杂货铺</v>
       </c>
       <c r="B43" t="str">
-        <v>¥9.90¥25.00</v>
+        <v>¥0.10¥0.30</v>
       </c>
       <c r="C43" t="str">
-        <v>菁菁文具玩具礼品店</v>
+        <v>好邻居家居百货批发超市</v>
       </c>
       <c r="D43" t="str">
-        <v>月销 985</v>
+        <v>月销 1520</v>
       </c>
       <c r="E43" t="str">
         <v/>
@@ -1113,16 +1113,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>夏拓客地推引流刻字广告宣传小礼品定制Logo送客户实用1到2元以下</v>
+        <v>家居家日用品家用小东西生活用品厨房用品用具大全实用小百货神器</v>
       </c>
       <c r="B44" t="str">
-        <v>¥1.00¥1.00</v>
+        <v>¥4.80¥4.80</v>
       </c>
       <c r="C44" t="str">
-        <v>名邦礼品定制批发</v>
+        <v>宁阳百货</v>
       </c>
       <c r="D44" t="str">
-        <v>月销 178</v>
+        <v>月销 19</v>
       </c>
       <c r="E44" t="str">
         <v/>
@@ -1130,16 +1130,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>【吉祥道具】北欧风家居毛球串 派对生日儿童房少女房装饰挂饰DIY</v>
+        <v>幼儿园全班培训班级儿童生日实用礼品随手礼小学生奖励小礼物奖品</v>
       </c>
       <c r="B45" t="str">
-        <v>¥6.90¥9.90</v>
+        <v>¥12.80¥16.00</v>
       </c>
       <c r="C45" t="str">
-        <v>吉祥道具LuckyScene</v>
+        <v>乐三岁文具礼品店</v>
       </c>
       <c r="D45" t="str">
-        <v>月销 160</v>
+        <v>月销 45</v>
       </c>
       <c r="E45" t="str">
         <v/>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>不锈钢小漏勺过滤网筛 果汁豆浆漏网勺子 厨房用品油炸笊篱过滤勺</v>
+        <v>微商地推扫码小礼品批發2元以下公司开业小学生幼儿园奖品1元商品</v>
       </c>
       <c r="B46" t="str">
-        <v>¥5.08¥5.08</v>
+        <v>¥0.01¥0.08</v>
       </c>
       <c r="C46" t="str">
-        <v>好运日用百货店</v>
+        <v>优品商城文具礼品批发</v>
       </c>
       <c r="D46" t="str">
-        <v>月销 25</v>
+        <v>月销 750</v>
       </c>
       <c r="E46" t="str">
         <v/>
@@ -1164,16 +1164,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>幼儿园开学培训班小学生奖励小礼物奖品儿童生日实用礼品随手礼</v>
+        <v>儿童节礼物创意小怪兽中性笔网红可爱超萌少女心卡通学生用高颜值</v>
       </c>
       <c r="B47" t="str">
-        <v>¥9.90¥9.90</v>
+        <v>¥5.00¥6.00</v>
       </c>
       <c r="C47" t="str">
-        <v>维维礼品</v>
+        <v>可奇创意文具店</v>
       </c>
       <c r="D47" t="str">
-        <v>月销 3.34万</v>
+        <v>月销 84</v>
       </c>
       <c r="E47" t="str">
         <v/>
@@ -1181,16 +1181,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>地中海风格蓝色树脂创意海星中式摆件卧室客厅送礼精品家居家饰</v>
+        <v>创意小学生幼儿园小朋友奖励小礼品实用奖品毕业一年级六一小礼物</v>
       </c>
       <c r="B48" t="str">
-        <v>¥98.00¥98.00</v>
+        <v>¥9.50¥9.50</v>
       </c>
       <c r="C48" t="str">
-        <v>优生活家居家饰</v>
+        <v>童年文具促销商城  9块9包邮学生文具儿童礼品</v>
       </c>
       <c r="D48" t="str">
-        <v>月销 10</v>
+        <v>月销 4137</v>
       </c>
       <c r="E48" t="str">
         <v/>
@@ -1198,16 +1198,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>夏季儿童奖品创意礼物幼儿园小学生生日朋友奖励全班实用扇子礼品</v>
+        <v>高档实用伴手礼女伴娘满月礼盒闺蜜回礼毛巾小礼品生日宝宝满月酒</v>
       </c>
       <c r="B49" t="str">
-        <v>¥9.90¥9.90</v>
+        <v>¥39.76¥56.80</v>
       </c>
       <c r="C49" t="str">
-        <v>许世完美</v>
+        <v>广懿旗舰店</v>
       </c>
       <c r="D49" t="str">
-        <v>月销 113</v>
+        <v>月销 193</v>
       </c>
       <c r="E49" t="str">
         <v/>
@@ -1215,16 +1215,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>紫铜黄铜不锈钢金属圆片圆环铁垫片五金装饰工艺激光切割定制包邮</v>
+        <v>得力铅笔直尺卷笔刀橡皮男孩女孩六一儿童节礼品包小学生生日礼物文具福袋幼儿园文具套装学习用品大全大礼包</v>
       </c>
       <c r="B50" t="str">
-        <v>¥8.00¥8.00</v>
+        <v>¥6.90¥8.60</v>
       </c>
       <c r="C50" t="str">
-        <v>龙耀五金制品</v>
+        <v>得力创一专卖店</v>
       </c>
       <c r="D50" t="str">
-        <v>月销 20</v>
+        <v>月销 793</v>
       </c>
       <c r="E50" t="str">
         <v/>
@@ -1232,16 +1232,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>生日礼物女生520情人节送女友朋友情侣送老婆惊喜浪漫实用的创意</v>
+        <v>海利伟哈士奇儿童毛绒玩具小狗狗送女生礼品仿真狗毛绒玩具狗公仔</v>
       </c>
       <c r="B51" t="str">
-        <v>¥199.00¥398.00</v>
+        <v>¥19.90¥49.90</v>
       </c>
       <c r="C51" t="str">
-        <v>onefire万火旗舰店</v>
+        <v>海利伟旗舰店</v>
       </c>
       <c r="D51" t="str">
-        <v>月销 3218</v>
+        <v>月销 32</v>
       </c>
       <c r="E51" t="str">
         <v/>
@@ -1249,16 +1249,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>开业活动小礼品碗套装实用公司促销创意精美送礼物宣传定制印LOGO</v>
+        <v>公司伴手礼小礼品定制logo创意活动赠品送客户员工实用奖品小礼物</v>
       </c>
       <c r="B52" t="str">
-        <v>¥2.28¥2.28</v>
+        <v>¥32.00¥52.00</v>
       </c>
       <c r="C52" t="str">
-        <v>佰润汇礼品陶瓷有限公司</v>
+        <v>知礼识礼</v>
       </c>
       <c r="D52" t="str">
-        <v>月销 9</v>
+        <v>月销 6</v>
       </c>
       <c r="E52" t="str">
         <v/>
@@ -1266,16 +1266,16 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>早生贵子篮子蒸笼 婚房压床创意高档中式摆件 结婚喜糖枣干果模具</v>
+        <v>卡通线圈小本子便携随身小号可爱迷你侧翻少女心记作业记事单词口袋本空白小学生文具班级奖励奖品圣诞小礼物</v>
       </c>
       <c r="B53" t="str">
-        <v>¥12.80¥110.00</v>
+        <v>¥5.80¥10.80</v>
       </c>
       <c r="C53" t="str">
-        <v>喜来乐气球乐园</v>
+        <v>隽瑾办公专营店</v>
       </c>
       <c r="D53" t="str">
-        <v>月销 880</v>
+        <v>月销 1304</v>
       </c>
       <c r="E53" t="str">
         <v/>
@@ -1283,16 +1283,16 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>亚克力墙贴客厅墙壁挂饰鱼缸餐厅花盆挂式花瓶创意花器家居装饰品</v>
+        <v>创意实用公司送客户员工小礼品周年活动实用商务纪念品定制印logo</v>
       </c>
       <c r="B54" t="str">
-        <v>¥5.59¥11.80</v>
+        <v>¥65.00¥75.00</v>
       </c>
       <c r="C54" t="str">
-        <v>泰金工艺官方店</v>
+        <v>斌斌电子商务科技</v>
       </c>
       <c r="D54" t="str">
-        <v>月销 1151</v>
+        <v>月销 2</v>
       </c>
       <c r="E54" t="str">
         <v/>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>创意居家居用品用具小百货家用大全生活家庭实日用地板清洁神器</v>
+        <v>304不锈钢厨房置物架黑色放碗筷收纳用品架厨具刀具沥水架碗碟架</v>
       </c>
       <c r="B55" t="str">
-        <v>¥3.89¥3.89</v>
+        <v>¥128.00¥316.00</v>
       </c>
       <c r="C55" t="str">
-        <v>宁阳百货</v>
+        <v>悦宜家旗舰店</v>
       </c>
       <c r="D55" t="str">
-        <v>月销 236</v>
+        <v>月销 12</v>
       </c>
       <c r="E55" t="str">
         <v/>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>创意卡通手持扇子小学生奖品夏季随身手摇扇幼儿园六一礼品小扇子</v>
+        <v>六一儿童节礼物5生日礼物6小学生女童创意包包7男童斜挎包8幼儿园</v>
       </c>
       <c r="B56" t="str">
-        <v>¥7.80¥17.80</v>
+        <v>¥59.00¥118.00</v>
       </c>
       <c r="C56" t="str">
-        <v>希睿文具精品店10元包邮</v>
+        <v>佰美年华旗舰店</v>
       </c>
       <c r="D56" t="str">
-        <v>月销 1208</v>
+        <v>月销 0</v>
       </c>
       <c r="E56" t="str">
         <v/>
@@ -1334,16 +1334,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>染色剂衣服染料翻新改色纯黑色衣物不掉色专用不褪色修复还原正品</v>
+        <v>实用小学生儿童节礼物学校班级活动奖品台灯公司宣传赠品定制LOGO</v>
       </c>
       <c r="B57" t="str">
-        <v>¥8.70¥50.00</v>
+        <v>¥11.80¥7.80</v>
       </c>
       <c r="C57" t="str">
-        <v>我结婚旗舰店</v>
+        <v>玖乐商务定制</v>
       </c>
       <c r="D57" t="str">
-        <v>月销 2.60万</v>
+        <v>月销 116</v>
       </c>
       <c r="E57" t="str">
         <v/>
@@ -1351,16 +1351,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>新品苏工精雕纯铜熏香炉居室檀香炉佛具用品茶道摆件盘创意鸟巢</v>
+        <v>六一儿童节活动小礼品可定制LOGO批蕟培训班招生实用赠品宣传礼物</v>
       </c>
       <c r="B58" t="str">
-        <v>¥49.99¥49.99</v>
+        <v>¥1.80¥1.80</v>
       </c>
       <c r="C58" t="str">
-        <v>1980沉香香道馆</v>
+        <v>承诺礼品定制批发</v>
       </c>
       <c r="D58" t="str">
-        <v>月销 7</v>
+        <v>月销 86</v>
       </c>
       <c r="E58" t="str">
         <v/>
@@ -1368,16 +1368,16 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>送幼儿园小朋友活动礼品批發实用创意小礼品学生礼物儿童六一奖品</v>
+        <v>婚庆用品大全红盆女方陪嫁洗漱喜盆结婚脸盆子红色一对洗脸盆套装</v>
       </c>
       <c r="B59" t="str">
-        <v>¥0.58¥0.95</v>
+        <v>¥9.80¥20.40</v>
       </c>
       <c r="C59" t="str">
-        <v>枫落礼品</v>
+        <v>俏尚旗舰店</v>
       </c>
       <c r="D59" t="str">
-        <v>月销 110</v>
+        <v>月销 348</v>
       </c>
       <c r="E59" t="str">
         <v/>
@@ -1385,16 +1385,16 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>小学生奖品教师专用小学一年级老师课堂奖励班级的创意小礼品实用</v>
+        <v>六一儿童节礼物61小学生幼儿园小朋友奖励活动赠品实用小奖品班级</v>
       </c>
       <c r="B60" t="str">
-        <v>¥11.90¥11.90</v>
+        <v>¥9.90¥25.00</v>
       </c>
       <c r="C60" t="str">
-        <v>欣研礼品文具百货批发</v>
+        <v>菁菁文具玩具礼品店</v>
       </c>
       <c r="D60" t="str">
-        <v>月销 104</v>
+        <v>月销 1063</v>
       </c>
       <c r="E60" t="str">
         <v/>
@@ -1402,16 +1402,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>早生贵子模具干果组合结婚婚房装饰用品大全喜字压床摆件全套模板</v>
+        <v>厨房置物架落地式台面收纳可抽拉储物橱柜下用品家用大全下水槽架</v>
       </c>
       <c r="B61" t="str">
-        <v>¥5.00¥13.80</v>
+        <v>¥128.00¥256.00</v>
       </c>
       <c r="C61" t="str">
-        <v>晶天城旗舰店</v>
+        <v>悦宜家旗舰店</v>
       </c>
       <c r="D61" t="str">
-        <v>月销 1516</v>
+        <v>月销 2</v>
       </c>
       <c r="E61" t="str">
         <v/>
@@ -1419,16 +1419,16 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>吉善缘 铜八卦镜 全铜太极凹镜凸镜平镜八卦镜 家居装饰摆件4035</v>
+        <v>结婚镜子陪嫁一对小镜子婚礼用品大全化妆镜女方物品红色梳子套装</v>
       </c>
       <c r="B62" t="str">
-        <v>¥5.00¥10.00</v>
+        <v>¥12.00¥51.40</v>
       </c>
       <c r="C62" t="str">
-        <v>吉善缘旗舰店</v>
+        <v>文仙亦言旗舰店</v>
       </c>
       <c r="D62" t="str">
-        <v>月销 206</v>
+        <v>月销 44</v>
       </c>
       <c r="E62" t="str">
         <v/>
@@ -1436,16 +1436,16 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>家居卫生间用品大全浴室毛巾挂钩杆置物架免打孔浴巾架壁挂式厕所</v>
+        <v>清洁神器家用小东西生活用品居家家居生活日用品小百货橱窗小刷子</v>
       </c>
       <c r="B63" t="str">
-        <v>¥14.40¥28.80</v>
+        <v>¥2.00¥2.00</v>
       </c>
       <c r="C63" t="str">
-        <v>单林优质轩百货店</v>
+        <v>宁阳百货</v>
       </c>
       <c r="D63" t="str">
-        <v>月销 0</v>
+        <v>月销 4</v>
       </c>
       <c r="E63" t="str">
         <v/>
@@ -1453,16 +1453,16 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>不锈钢厨房刀架置物架壁挂式免打孔多功能菜刀菜板刀具用品收纳架</v>
+        <v>生日女生520情人节礼物送女友女朋友老婆媳妇妻子妈妈实用的礼品</v>
       </c>
       <c r="B64" t="str">
-        <v>¥65.00¥130.00</v>
+        <v>¥658.00¥1996.00</v>
       </c>
       <c r="C64" t="str">
-        <v>华阁旗舰店</v>
+        <v>盖卓旗舰店</v>
       </c>
       <c r="D64" t="str">
-        <v>月销 13</v>
+        <v>月销 22</v>
       </c>
       <c r="E64" t="str">
         <v/>
@@ -1470,16 +1470,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>创意小学生幼儿园小朋友奖励小礼品实用奖品毕业一年级六一小礼物</v>
+        <v>居家居日常生活厨房洗衣机卫生清洁用品用具家用百货大全懒人神器</v>
       </c>
       <c r="B65" t="str">
-        <v>¥9.50¥9.50</v>
+        <v>¥1.80¥9.80</v>
       </c>
       <c r="C65" t="str">
-        <v>童年文具促销商城  9块9包邮学生文具儿童礼品</v>
+        <v>宁阳百货</v>
       </c>
       <c r="D65" t="str">
-        <v>月销 3847</v>
+        <v>月销 29</v>
       </c>
       <c r="E65" t="str">
         <v/>
@@ -1487,16 +1487,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>九木杂物社LuLu猪拍拍灯小夜灯可爱创意生日礼物520礼物送女友</v>
+        <v>袜子内衣文胸收纳挂袋神器高中生女生大学生宿舍生活开学用品</v>
       </c>
       <c r="B66" t="str">
-        <v>¥99.00¥99.00</v>
+        <v>¥14.90¥52.00</v>
       </c>
       <c r="C66" t="str">
-        <v>九木杂物社旗舰店</v>
+        <v>联购家居专营店</v>
       </c>
       <c r="D66" t="str">
-        <v>月销 4765</v>
+        <v>月销 50</v>
       </c>
       <c r="E66" t="str">
         <v/>
@@ -1504,16 +1504,16 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>100本活动小礼品笔记本文具办公用品迷你可爱小本子记事本随身本卡通便携幼儿园儿童小学生奖品奖励礼品批发</v>
+        <v>儿童生日礼物女童送11小女孩9小学生10十岁女儿童12朋友创意实用</v>
       </c>
       <c r="B67" t="str">
-        <v>¥26.00¥40.00</v>
+        <v>¥19.90¥26.90</v>
       </c>
       <c r="C67" t="str">
-        <v>佳周深源专卖店</v>
+        <v>韩版ulzzang潮品</v>
       </c>
       <c r="D67" t="str">
-        <v>月销 1365</v>
+        <v>月销 40</v>
       </c>
       <c r="E67" t="str">
         <v/>
@@ -1521,16 +1521,16 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>创意实用纪念赠送客户公司开业广告宣传活动小礼品定制印LOGO</v>
+        <v>培训班幼儿园活动小礼品定制logo小学生六一儿童节班级小奖品赠品</v>
       </c>
       <c r="B68" t="str">
-        <v>¥1.00¥1.00</v>
+        <v>¥3.80¥15.50</v>
       </c>
       <c r="C68" t="str">
-        <v>东胜礼品批发</v>
+        <v>善缘定制商务礼品</v>
       </c>
       <c r="D68" t="str">
-        <v>月销 742</v>
+        <v>月销 246</v>
       </c>
       <c r="E68" t="str">
         <v/>
@@ -1538,16 +1538,16 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>母亲节生日礼物女生送女友朋友给送老婆小媳妇创意闺蜜实用的520</v>
+        <v>六一儿童节生日礼物女生女孩子十岁小学生6朋友3女童1幼儿园5公主</v>
       </c>
       <c r="B69" t="str">
-        <v>¥129.00¥258.00</v>
+        <v>¥58.00¥196.00</v>
       </c>
       <c r="C69" t="str">
         <v>佰美年华旗舰店</v>
       </c>
       <c r="D69" t="str">
-        <v>月销 1</v>
+        <v>月销 2401</v>
       </c>
       <c r="E69" t="str">
         <v/>
@@ -1555,16 +1555,16 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>创意家居用品用具小百货厨房居家生活日用品家用物件实用神器礼品</v>
+        <v>创意实用纪念赠送客户公司开业广告宣传活动小礼品定制印LOGO</v>
       </c>
       <c r="B70" t="str">
-        <v>¥2.90¥5.80</v>
+        <v>¥1.00¥1.00</v>
       </c>
       <c r="C70" t="str">
-        <v>好邻居家居百货批发超市</v>
+        <v>东胜礼品批发</v>
       </c>
       <c r="D70" t="str">
-        <v>月销 9161</v>
+        <v>月销 785</v>
       </c>
       <c r="E70" t="str">
         <v/>
@@ -1572,16 +1572,16 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>网红款2020年新款钻石玻璃杯学生水杯夏季果汁杯随手杯子创意杯子</v>
+        <v>早生贵子模具干果组合结婚婚房装饰用品大全喜字压床摆件全套模板</v>
       </c>
       <c r="B71" t="str">
-        <v>¥2.80¥5.50</v>
+        <v>¥5.00¥13.80</v>
       </c>
       <c r="C71" t="str">
-        <v>阿科百货礼品定制</v>
+        <v>晶天城旗舰店</v>
       </c>
       <c r="D71" t="str">
-        <v>月销 75</v>
+        <v>月销 1342</v>
       </c>
       <c r="E71" t="str">
         <v/>
@@ -1589,16 +1589,16 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>哪里世界地球仪32cm大号初中学生用中学生高中生教学版高清3d立体摆件创意客厅家居摆设儿童悬浮AR夜灯金属座</v>
+        <v>旋转木马音乐盒水晶球八音盒木质生日女生六一儿童节礼物女孩男孩</v>
       </c>
       <c r="B72" t="str">
-        <v>¥33.80¥148.00</v>
+        <v>¥88.00¥269.00</v>
       </c>
       <c r="C72" t="str">
-        <v>惠州飞猫数码专营店</v>
+        <v>不二礼坊定制旗舰店</v>
       </c>
       <c r="D72" t="str">
-        <v>月销 3571</v>
+        <v>月销 813</v>
       </c>
       <c r="E72" t="str">
         <v/>
@@ -1606,16 +1606,16 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>多功能厨房置物架壁挂式不锈钢沥水碗碟架厨房用品家用大全收纳架</v>
+        <v>礼物女生生日闺蜜送妈妈实用创意员工小礼品婚礼仪式感礼盒伴手礼</v>
       </c>
       <c r="B73" t="str">
-        <v>¥15.00¥30.00</v>
+        <v>¥19.80¥39.60</v>
       </c>
       <c r="C73" t="str">
-        <v>万家好帮手家居</v>
+        <v>顺心顺意礼品工作室</v>
       </c>
       <c r="D73" t="str">
-        <v>月销 212</v>
+        <v>月销 8</v>
       </c>
       <c r="E73" t="str">
         <v/>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>家居日用品生活百货义乌两小商品9.9元批店2厨房礼品地推活动10</v>
+        <v>可爱泰迪熊毛绒玩具情侣穿衣小熊公仔儿童礼物生日礼物送女生定制</v>
       </c>
       <c r="B74" t="str">
-        <v>¥0.98¥0.98</v>
+        <v>¥8.80¥19.80</v>
       </c>
       <c r="C74" t="str">
-        <v>牛牛家居用品创意百货小商品批发</v>
+        <v>羊咩咩玩具店</v>
       </c>
       <c r="D74" t="str">
-        <v>月销 12</v>
+        <v>月销 340</v>
       </c>
       <c r="E74" t="str">
         <v/>
@@ -1640,16 +1640,16 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>厨房不锈钢沥水篮水槽挂篮洗菜盆洗碗布用品水龙头抹布收纳置物架</v>
+        <v>三角形镂空厨房水槽家用水果洗菜塑料沥水篮吸盘式厨房用品</v>
       </c>
       <c r="B75" t="str">
-        <v>¥14.10¥37.25</v>
+        <v>¥9.80¥19.60</v>
       </c>
       <c r="C75" t="str">
-        <v>百字旗舰店</v>
+        <v>壹品印象旗舰店</v>
       </c>
       <c r="D75" t="str">
-        <v>月销 18</v>
+        <v>月销 9</v>
       </c>
       <c r="E75" t="str">
         <v/>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>幼儿园儿童玩具套圈圈水机学生文具奖品礼物闪光发光地摊货源礼品</v>
+        <v>朝暮voluspa香薰欧舒丹520花礼情人节伴娘新婚结婚送闺蜜生日礼盒</v>
       </c>
       <c r="B76" t="str">
-        <v>¥1.49¥1.49</v>
+        <v>¥228.00¥288.00</v>
       </c>
       <c r="C76" t="str">
-        <v>大丰玩具货源批发</v>
+        <v>OneDay朝暮花房</v>
       </c>
       <c r="D76" t="str">
-        <v>月销 492</v>
+        <v>月销 901</v>
       </c>
       <c r="E76" t="str">
         <v/>
@@ -1674,16 +1674,16 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>礼品定制logo送客户员工生日实用高档公司520礼物毕业季纪念品</v>
+        <v>送幼儿园小朋友活动礼品批發实用创意小礼品学生礼物儿童六一奖品</v>
       </c>
       <c r="B77" t="str">
-        <v>¥65.00¥104.00</v>
+        <v>¥0.58¥0.95</v>
       </c>
       <c r="C77" t="str">
-        <v>鹏林旗舰店</v>
+        <v>枫落礼品</v>
       </c>
       <c r="D77" t="str">
-        <v>月销 45</v>
+        <v>月销 115</v>
       </c>
       <c r="E77" t="str">
         <v/>
@@ -1691,16 +1691,16 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>戴玉堂陶瓷香炉供佛家用室内供奉佛具用品插香线香烧香炉熏香摆件</v>
+        <v>夏季开业赠品定制logo实用活动礼品儿童节创意礼物10元左右伴手礼</v>
       </c>
       <c r="B78" t="str">
-        <v>¥19.00¥19.90</v>
+        <v>¥8.50¥8.50</v>
       </c>
       <c r="C78" t="str">
-        <v>戴玉堂旗舰店</v>
+        <v>礼先生商务定制</v>
       </c>
       <c r="D78" t="str">
-        <v>月销 126</v>
+        <v>月销 273</v>
       </c>
       <c r="E78" t="str">
         <v/>
@@ -1708,16 +1708,16 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>朝暮花房香薰礼盒永生花香水口红礼盒情人节女友结婚生日礼物闺蜜</v>
+        <v>调节闪烁铜丝线灯纽扣电池灯蛋糕装饰礼盒彩灯烘焙情人节鲜花手工</v>
       </c>
       <c r="B79" t="str">
-        <v>¥520.00¥600.00</v>
+        <v>¥0.85¥0.95</v>
       </c>
       <c r="C79" t="str">
-        <v>OneDay朝暮花房</v>
+        <v>小圆烘焙装饰店</v>
       </c>
       <c r="D79" t="str">
-        <v>月销 13</v>
+        <v>月销 68</v>
       </c>
       <c r="E79" t="str">
         <v/>
@@ -1725,16 +1725,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>北欧轻奢创意吹泡泡女孩纸巾盒摆件现代客厅家用抽纸盒家居装饰品</v>
+        <v>结婚礼物活动小礼品洁丽雅毛巾熊伴手礼儿童节学生日满月定制员工</v>
       </c>
       <c r="B80" t="str">
-        <v>¥148.00¥296.00</v>
+        <v>¥5.82¥14.00</v>
       </c>
       <c r="C80" t="str">
-        <v>差不多先生 家居</v>
+        <v>伊伊丫礼品毛巾创意家纺</v>
       </c>
       <c r="D80" t="str">
-        <v>月销 12</v>
+        <v>月销 378</v>
       </c>
       <c r="E80" t="str">
         <v/>
@@ -1742,16 +1742,16 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>可折叠洗脸盆洗衣盆便携式男女生大学生宿舍生活军训开学寝室用品</v>
+        <v>日本进口橱柜收纳盒厨房用品杂物调料碗碟多功能储物筐收纳筐带轮</v>
       </c>
       <c r="B81" t="str">
-        <v>¥9.80¥17.80</v>
+        <v>¥14.50¥29.80</v>
       </c>
       <c r="C81" t="str">
-        <v>联购家居专营店</v>
+        <v>简家易居</v>
       </c>
       <c r="D81" t="str">
-        <v>月销 164</v>
+        <v>月销 169</v>
       </c>
       <c r="E81" t="str">
         <v/>
@@ -1759,16 +1759,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>九木杂物社 Rolife若来 Nanci囡茜古风团扇流苏真丝生日礼物扇子</v>
+        <v>染色剂衣服染料翻新改色纯黑色衣物不掉色专用不褪色修复还原正品</v>
       </c>
       <c r="B82" t="str">
-        <v>¥59.90¥59.90</v>
+        <v>¥8.70¥50.00</v>
       </c>
       <c r="C82" t="str">
-        <v>九木杂物社旗舰店</v>
+        <v>我结婚旗舰店</v>
       </c>
       <c r="D82" t="str">
-        <v>月销 41</v>
+        <v>月销 2.43万</v>
       </c>
       <c r="E82" t="str">
         <v/>
@@ -1776,16 +1776,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>创意居家居日用品家用小东西卫浴用品免打孔肥皂盒家用百货沥水架</v>
+        <v>幼儿园生日创意圣诞节男女学生小朋友回礼小礼品六一儿童节礼物</v>
       </c>
       <c r="B83" t="str">
-        <v>¥3.90¥3.90</v>
+        <v>¥0.60¥0.60</v>
       </c>
       <c r="C83" t="str">
-        <v>宁阳百货</v>
+        <v>萌心童语礼品</v>
       </c>
       <c r="D83" t="str">
-        <v>月销 57</v>
+        <v>月销 3</v>
       </c>
       <c r="E83" t="str">
         <v/>
@@ -1793,16 +1793,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>六一小学生奖励礼品奖品实用创意课堂礼物一二三四五六年级初中</v>
+        <v>儿童存钱罐储蓄罐带锁防摔男女孩幼儿园生日分享礼物送全班小礼品</v>
       </c>
       <c r="B84" t="str">
-        <v>¥12.90¥15.90</v>
+        <v>¥2.80¥3.80</v>
       </c>
       <c r="C84" t="str">
-        <v>好再来礼品店</v>
+        <v>优奇文具10元包邮</v>
       </c>
       <c r="D84" t="str">
-        <v>月销 987</v>
+        <v>月销 106</v>
       </c>
       <c r="E84" t="str">
         <v/>
@@ -1810,16 +1810,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>桌面垃圾桶家用客厅桌上卧室床头迷你收纳桶废纸篓杂物收纳盒小筒</v>
+        <v>生日女生520情人节礼物送女友女朋友老婆媳妇妻子妈妈实用的礼品</v>
       </c>
       <c r="B85" t="str">
-        <v>¥5.60¥11.80</v>
+        <v>¥568.00¥1792.00</v>
       </c>
       <c r="C85" t="str">
-        <v>爱美家居家生活馆</v>
+        <v>盖卓旗舰店</v>
       </c>
       <c r="D85" t="str">
-        <v>月销 1542</v>
+        <v>月销 13</v>
       </c>
       <c r="E85" t="str">
         <v/>
@@ -1827,16 +1827,16 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>小礼品定制logo送客户伴手礼活动奖品员工生日礼物实用护士节礼物</v>
+        <v>小熊毛巾伴手礼盒幼儿园小礼品定制logo开业婚礼回礼袋六一儿童节</v>
       </c>
       <c r="B86" t="str">
-        <v>¥20.00¥50.00</v>
+        <v>¥1.70¥1.70</v>
       </c>
       <c r="C86" t="str">
-        <v>爱奢尔礼品屋</v>
+        <v>彬彬诚心商城</v>
       </c>
       <c r="D86" t="str">
-        <v>月销 108</v>
+        <v>月销 333</v>
       </c>
       <c r="E86" t="str">
         <v/>
@@ -1844,16 +1844,16 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>LUMBO良白/飞碟扩香器/ UFO扩香木桌面创意摆件减压精油香薰礼品</v>
+        <v>儿童生日派对装饰布置卡通啪啪圈儿童礼品创意拍拍圈卡通恐龙</v>
       </c>
       <c r="B87" t="str">
-        <v>¥189.00¥189.00</v>
+        <v>¥4.90¥4.90</v>
       </c>
       <c r="C87" t="str">
-        <v>良白设计</v>
+        <v>囍铺子</v>
       </c>
       <c r="D87" t="str">
-        <v>月销 1</v>
+        <v>月销 356</v>
       </c>
       <c r="E87" t="str">
         <v/>
@@ -1861,16 +1861,16 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>香道用品用具工具如意香篆香拓打拓香纂香模纯铜香灰仿古苏州工艺</v>
+        <v>幼儿园奖品初中生小学生三四五年级奖励小礼品创意实用期末礼物</v>
       </c>
       <c r="B88" t="str">
-        <v>¥26.00¥26.00</v>
+        <v>¥8.80¥11.00</v>
       </c>
       <c r="C88" t="str">
-        <v>1980沉香香道馆</v>
+        <v>乐三岁文具礼品店</v>
       </c>
       <c r="D88" t="str">
-        <v>月销 93</v>
+        <v>月销 175</v>
       </c>
       <c r="E88" t="str">
         <v/>
@@ -1878,16 +1878,16 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>少女随想收纳盘北欧轻奢玄关钥匙收纳摆件创意家居装饰品客厅摆设</v>
+        <v>奇好卡通橡皮擦小学生专用儿童幼儿太空恐龙公主动物美食食物创意可爱文具可拆卸拼装玩具礼品奖品学习用品</v>
       </c>
       <c r="B89" t="str">
-        <v>¥63.00¥116.00</v>
+        <v>¥6.80¥8.80</v>
       </c>
       <c r="C89" t="str">
-        <v>悠然见旗舰店</v>
+        <v>晨心办公用品专营店</v>
       </c>
       <c r="D89" t="str">
-        <v>月销 269</v>
+        <v>月销 24</v>
       </c>
       <c r="E89" t="str">
         <v/>
@@ -1895,16 +1895,16 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>520礼物送女友实用生日礼物女生朋友特别的情人节礼物情侣送老婆</v>
+        <v>儿童储蓄存钱罐女生独特创意防摔只进不出女孩男孩密码箱盒子网红</v>
       </c>
       <c r="B90" t="str">
-        <v>¥168.00¥259.00</v>
+        <v>¥23.00¥46.00</v>
       </c>
       <c r="C90" t="str">
-        <v>七可旗舰店</v>
+        <v>爱尚礼家居专营店</v>
       </c>
       <c r="D90" t="str">
-        <v>月销 2659</v>
+        <v>月销 9216</v>
       </c>
       <c r="E90" t="str">
         <v/>
@@ -1912,16 +1912,16 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>母亲节礼物送妈妈生日实用给老婆包包适合50中老年婆婆的40惊喜</v>
+        <v>儿童玩具生日礼物女孩6男孩9女童益智宝宝10岁5小孩3-7六一8女生4</v>
       </c>
       <c r="B91" t="str">
-        <v>¥129.00¥298.00</v>
+        <v>¥29.80¥59.60</v>
       </c>
       <c r="C91" t="str">
-        <v>巧礼屋旗舰店</v>
+        <v>奕思瑞玩具旗舰店</v>
       </c>
       <c r="D91" t="str">
-        <v>月销 4984</v>
+        <v>月销 3209</v>
       </c>
       <c r="E91" t="str">
         <v/>
@@ -1929,16 +1929,16 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>全实木儿童床榉木上下床子母床大人成年母子高低床上下铺木床双层</v>
+        <v>创意家居用品用具小百货厨房居家生活日用品家用物件实用神器礼品</v>
       </c>
       <c r="B92" t="str">
-        <v>¥1980.00¥3960.00</v>
+        <v>¥2.90¥5.80</v>
       </c>
       <c r="C92" t="str">
-        <v>佛山市千恋家具有限公司</v>
+        <v>好邻居家居百货批发超市</v>
       </c>
       <c r="D92" t="str">
-        <v>月销 69</v>
+        <v>月销 9117</v>
       </c>
       <c r="E92" t="str">
         <v/>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>送儿童节2小学生6给10男孩子3女7幼儿园8创意的4岁5益智9生日礼物</v>
+        <v>9.9元家居家日用品百货生活义乌2小商品批發杂货店家用神器商贸城</v>
       </c>
       <c r="B93" t="str">
-        <v>¥289.00¥578.00</v>
+        <v>¥1.98¥1.98</v>
       </c>
       <c r="C93" t="str">
-        <v>快乐权家精品商城</v>
+        <v>圆亨家居创意日用百货</v>
       </c>
       <c r="D93" t="str">
-        <v>月销 30</v>
+        <v>月销 50</v>
       </c>
       <c r="E93" t="str">
         <v/>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>公司定制61六一儿童节小礼物地推活动微商引流高档送客户创意实用</v>
+        <v>益智儿童文具拓印绘画创意涂鸦文具礼包幼儿园画画小学生学习用品儿童节礼盒六一小礼物彩色铅笔礼品绘画套装</v>
       </c>
       <c r="B94" t="str">
-        <v>¥2.50¥4.90</v>
+        <v>¥52.00¥104.00</v>
       </c>
       <c r="C94" t="str">
-        <v>木子礼旗舰店</v>
+        <v>寅飞文具专营店</v>
       </c>
       <c r="D94" t="str">
-        <v>月销 6</v>
+        <v>月销 3</v>
       </c>
       <c r="E94" t="str">
         <v/>
@@ -1980,16 +1980,16 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>抽绳收口垃圾袋家用加厚手提式中号大号收口抽绳垃圾袋厨房垃圾袋</v>
+        <v>礼品定制logo送客户员工生日实用高档公司520礼物毕业季纪念品</v>
       </c>
       <c r="B95" t="str">
-        <v>¥15.80¥15.80</v>
+        <v>¥65.00¥104.00</v>
       </c>
       <c r="C95" t="str">
-        <v>华盛尊旗舰店</v>
+        <v>鹏林旗舰店</v>
       </c>
       <c r="D95" t="str">
-        <v>月销 804</v>
+        <v>月销 44</v>
       </c>
       <c r="E95" t="str">
         <v/>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>牛年新年礼物送客户学生员工纪念奖品公司年会商务小礼品定制logo</v>
+        <v>拉线笼中鸟视觉停留学生幼儿园科学益智小创造科技小制作学生礼物</v>
       </c>
       <c r="B96" t="str">
-        <v>¥32.00¥64.00</v>
+        <v>¥3.00¥3.00</v>
       </c>
       <c r="C96" t="str">
-        <v>品卓好礼创卓专卖店</v>
+        <v>晋龙轩益智科教</v>
       </c>
       <c r="D96" t="str">
-        <v>月销 2</v>
+        <v>月销 10</v>
       </c>
       <c r="E96" t="str">
         <v/>
@@ -2014,16 +2014,16 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>雾面哑光雨丝帘婚房婚庆布置生日派对宝宝百天周岁装饰流苏婚礼用</v>
+        <v>朝暮花房香薰礼盒永生花香水口红礼盒情人节女友结婚生日礼物闺蜜</v>
       </c>
       <c r="B97" t="str">
-        <v>¥9.90¥19.90</v>
+        <v>¥520.00¥600.00</v>
       </c>
       <c r="C97" t="str">
-        <v>阳光气球</v>
+        <v>OneDay朝暮花房</v>
       </c>
       <c r="D97" t="str">
-        <v>月销 25</v>
+        <v>月销 15</v>
       </c>
       <c r="E97" t="str">
         <v/>
@@ -2031,16 +2031,16 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>纯手工儿童防摔沙漏 10/15/30/60分钟时间计时器家居桌面摆件礼物</v>
+        <v>小熊毛巾61小礼品六一儿童节的活动女童创意学生幼儿园伴手礼物</v>
       </c>
       <c r="B98" t="str">
-        <v>¥2.80¥2.80</v>
+        <v>¥2.40¥2.40</v>
       </c>
       <c r="C98" t="str">
-        <v>时汇沙漏工厂店</v>
+        <v>米乐米西</v>
       </c>
       <c r="D98" t="str">
-        <v>月销 6570</v>
+        <v>月销 482</v>
       </c>
       <c r="E98" t="str">
         <v/>
@@ -2048,16 +2048,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>六一节礼品夏季实用礼物定制logo店庆促销活动送客户赠品10元左右</v>
+        <v>结婚用品婚庆纸巾个性婚礼婚宴盒装餐巾纸家用一次性抽取式面巾纸</v>
       </c>
       <c r="B99" t="str">
-        <v>¥5.50¥6.00</v>
+        <v>¥12.00¥39.80</v>
       </c>
       <c r="C99" t="str">
-        <v>易悟礼品定制</v>
+        <v>文仙亦言旗舰店</v>
       </c>
       <c r="D99" t="str">
-        <v>月销 113</v>
+        <v>月销 16</v>
       </c>
       <c r="E99" t="str">
         <v/>
@@ -2065,16 +2065,16 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>盒装小娃娃艺术舞蹈培训班招生礼物生日六一送全班学生小女孩礼品</v>
+        <v>结婚庆用品大全创意新婚房布置婚礼新房装饰喜庆早生贵子摆件模板</v>
       </c>
       <c r="B100" t="str">
-        <v>¥2.97¥3.00</v>
+        <v>¥5.60¥96.00</v>
       </c>
       <c r="C100" t="str">
-        <v>中心仓库玩具批发</v>
+        <v>菲寻家居旗舰店</v>
       </c>
       <c r="D100" t="str">
-        <v>月销 200</v>
+        <v>月销 3045</v>
       </c>
       <c r="E100" t="str">
         <v/>
@@ -2082,16 +2082,16 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>小女生生日礼物卡通发夹 彩虹棒棒糖发夹 培训班舞蹈招生礼品可爱</v>
+        <v>可折叠洗脸盆洗衣盆便携式男女生大学生宿舍生活军训开学寝室用品</v>
       </c>
       <c r="B101" t="str">
-        <v>¥2.18¥2.20</v>
+        <v>¥9.90¥17.80</v>
       </c>
       <c r="C101" t="str">
-        <v>中心仓库玩具批发</v>
+        <v>联购家居专营店</v>
       </c>
       <c r="D101" t="str">
-        <v>月销 264</v>
+        <v>月销 158</v>
       </c>
       <c r="E101" t="str">
         <v/>
@@ -2099,16 +2099,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>妙HOME 家用研磨瓶手动胡椒研磨器胡椒粉研磨器 黑胡椒粒研磨器</v>
+        <v>小学生奖品培训班儿童节实用礼品幼儿园六一礼物宣传赠品定制LOGO</v>
       </c>
       <c r="B102" t="str">
-        <v>¥39.00¥54.00</v>
+        <v>¥4.80¥4.80</v>
       </c>
       <c r="C102" t="str">
-        <v>妙HOME欧美名品餐具</v>
+        <v>粟予礼商务定制</v>
       </c>
       <c r="D102" t="str">
-        <v>月销 323</v>
+        <v>月销 99</v>
       </c>
       <c r="E102" t="str">
         <v/>
@@ -2116,16 +2116,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>衣服染料家用染色剂旧衣翻新改色黑色牛仔裤扎染免煮不掉色染衣服</v>
+        <v>宫廷花灯夜光金属书签创意文艺复古小清新中国风古典生日伴手礼品</v>
       </c>
       <c r="B103" t="str">
-        <v>¥6.50¥7.00</v>
+        <v>¥38.84¥49.80</v>
       </c>
       <c r="C103" t="str">
-        <v>新美人记染料直销</v>
+        <v>毕方文创书签设计原创批发</v>
       </c>
       <c r="D103" t="str">
-        <v>月销 8784</v>
+        <v>月销 8</v>
       </c>
       <c r="E103" t="str">
         <v/>
@@ -2133,16 +2133,16 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>儿童玩具吹泡泡相机定制logo奖品小朋友礼物10元以下幼儿园小礼品</v>
+        <v>得力文具礼盒套装创意六一儿童节生日礼物男孩女孩子学生学习小礼品幼儿园宝宝6-12岁开学大礼包</v>
       </c>
       <c r="B104" t="str">
-        <v>¥2.80¥14.50</v>
+        <v>¥58.00¥116.00</v>
       </c>
       <c r="C104" t="str">
-        <v>东望礼品汇</v>
+        <v>得力霸捌专卖店</v>
       </c>
       <c r="D104" t="str">
-        <v>月销 379</v>
+        <v>月销 1</v>
       </c>
       <c r="E104" t="str">
         <v/>
@@ -2150,16 +2150,16 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>抖音神器厨房用品用具小百货插头挂钩抖音同款家用小东西生活用品</v>
+        <v>一元以下小商品开业活动送礼促销学生创意小礼品儿童小礼物赠品</v>
       </c>
       <c r="B105" t="str">
-        <v>¥8.80¥8.80</v>
+        <v>¥0.12¥0.12</v>
       </c>
       <c r="C105" t="str">
-        <v>胖阿姨居家阿姨精选好货</v>
+        <v>梓墨文具批发9块9包邮</v>
       </c>
       <c r="D105" t="str">
-        <v>月销 3</v>
+        <v>月销 75</v>
       </c>
       <c r="E105" t="str">
         <v/>
@@ -2167,16 +2167,16 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>六一儿童节小礼物幼儿园生日礼物全班分享小朋友伴手礼奖励小礼品</v>
+        <v>企业定制礼品送客户高档伴手礼实用创意员工奖品纪念品周年庆礼物</v>
       </c>
       <c r="B106" t="str">
-        <v>¥6.80¥6.80</v>
+        <v>¥85.00¥158.00</v>
       </c>
       <c r="C106" t="str">
-        <v>大都汇文创礼品店</v>
+        <v>爱奢尔旗舰店</v>
       </c>
       <c r="D106" t="str">
-        <v>月销 14</v>
+        <v>月销 3</v>
       </c>
       <c r="E106" t="str">
         <v/>
@@ -2184,16 +2184,16 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>婚房装饰婚庆气球装饰喜字贴专用透明胶点双面胶无痕胶圆点胶包邮</v>
+        <v>生日礼物女生520情人节送女友朋友送老婆小实用的六一儿童女孩子</v>
       </c>
       <c r="B107" t="str">
-        <v>¥0.85¥1.70</v>
+        <v>¥48.00¥96.00</v>
       </c>
       <c r="C107" t="str">
-        <v>气球装饰批发工厂店</v>
+        <v>onefire万火旗舰店</v>
       </c>
       <c r="D107" t="str">
-        <v>月销 176</v>
+        <v>月销 2.10万</v>
       </c>
       <c r="E107" t="str">
         <v/>
@@ -2201,16 +2201,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>灯笼手工制作材料包儿童diy花灯手提发光灯笼挂饰装饰节日用品</v>
+        <v>可爱表情种植草头娃娃桌面diy趣味植物观察小盆栽幼儿园六一礼品</v>
       </c>
       <c r="B108" t="str">
-        <v>¥5.90¥28.29</v>
+        <v>¥0.51¥2.00</v>
       </c>
       <c r="C108" t="str">
-        <v>爱拉旗舰店</v>
+        <v>希梓睿益智文教</v>
       </c>
       <c r="D108" t="str">
-        <v>月销 13</v>
+        <v>月销 2647</v>
       </c>
       <c r="E108" t="str">
         <v/>
@@ -2218,16 +2218,16 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>小熊毛巾伴手礼盒幼儿园小礼品定制logo开业婚礼回礼袋六一儿童节</v>
+        <v>厨房置物架壁挂墙上免打孔家居用品用具微波炉挂钩小百货收纳架子</v>
       </c>
       <c r="B109" t="str">
-        <v>¥1.70¥1.70</v>
+        <v>¥7.80¥15.60</v>
       </c>
       <c r="C109" t="str">
-        <v>彬彬诚心商城</v>
+        <v>小优百货店</v>
       </c>
       <c r="D109" t="str">
-        <v>月销 278</v>
+        <v>月销 0</v>
       </c>
       <c r="E109" t="str">
         <v/>
@@ -2235,16 +2235,16 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>索美，义乌小商品批小东西1-2块钱两元店百货一5元礼品摆地摊货源</v>
+        <v>幼儿园开学培训班小学生奖励小礼物奖品儿童生日实用礼品随手礼</v>
       </c>
       <c r="B110" t="str">
-        <v>¥5.13¥11.60</v>
+        <v>¥9.90¥9.90</v>
       </c>
       <c r="C110" t="str">
-        <v>索美家居旗舰店</v>
+        <v>维维礼品</v>
       </c>
       <c r="D110" t="str">
-        <v>月销 3</v>
+        <v>月销 3.48万</v>
       </c>
       <c r="E110" t="str">
         <v/>
@@ -2252,16 +2252,16 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>佛具摆件法器佛教法事用品纯铜自动引磬小铜磬手磬伸缩引庆 包邮</v>
+        <v>幼儿园学生小礼品批發小朋友3元以内小礼品包邮创意益智开学奖品</v>
       </c>
       <c r="B111" t="str">
-        <v>¥28.00¥56.00</v>
+        <v>¥5.80¥5.80</v>
       </c>
       <c r="C111" t="str">
-        <v>有缘佛具批发</v>
+        <v>新奇特学生礼品批发</v>
       </c>
       <c r="D111" t="str">
-        <v>月销 59</v>
+        <v>月销 5</v>
       </c>
       <c r="E111" t="str">
         <v/>
@@ -2269,16 +2269,16 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>【双11预售】洗照片手机照片6寸冲印打印塑封网红ins走心生日礼物</v>
+        <v>雾面哑光雨丝帘婚房婚庆布置生日派对宝宝百天周岁装饰流苏婚礼用</v>
       </c>
       <c r="B112" t="str">
-        <v>¥63.00¥63.00</v>
+        <v>¥9.90¥19.90</v>
       </c>
       <c r="C112" t="str">
-        <v>时间轴旗舰店</v>
+        <v>阳光气球</v>
       </c>
       <c r="D112" t="str">
-        <v>月销 7</v>
+        <v>月销 24</v>
       </c>
       <c r="E112" t="str">
         <v/>
@@ -2286,16 +2286,16 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>小女孩儿童女生日派对回礼小礼物玩具幼儿园分享3-4-5-8-10-12岁</v>
+        <v>幼儿园小礼品毕业六一儿童节生日礼物回礼实用大班送全班分享奖励</v>
       </c>
       <c r="B113" t="str">
-        <v>¥19.90¥59.90</v>
+        <v>¥12.50¥22.50</v>
       </c>
       <c r="C113" t="str">
-        <v>萌总裁</v>
+        <v>尚时末趣旗舰店</v>
       </c>
       <c r="D113" t="str">
-        <v>月销 14</v>
+        <v>月销 254</v>
       </c>
       <c r="E113" t="str">
         <v/>
@@ -2303,16 +2303,16 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>欧式创意摆件家居装饰品摆设唯美清新人物婚房树脂月亮天使摆件89</v>
+        <v>儿童节2送小学生6给10幼儿园3女7男孩子8创意9的生日礼物4岁5益智</v>
       </c>
       <c r="B114" t="str">
-        <v>¥69.00¥69.00</v>
+        <v>¥289.00¥578.00</v>
       </c>
       <c r="C114" t="str">
-        <v>糖露家饰</v>
+        <v>快乐权家精品商城</v>
       </c>
       <c r="D114" t="str">
-        <v>月销 101</v>
+        <v>月销 5</v>
       </c>
       <c r="E114" t="str">
         <v/>
@@ -2320,16 +2320,16 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>广告围裙定制LOGO印字工作服宣传家用厨房女男微防水促销礼品图案</v>
+        <v>生日礼物女孩子送女儿童8女童10岁5实用7高档十12小学生6的3公主9</v>
       </c>
       <c r="B115" t="str">
-        <v>¥3.20¥7.50</v>
+        <v>¥198.00¥516.00</v>
       </c>
       <c r="C115" t="str">
-        <v>七之莲家居旗舰店</v>
+        <v>朵菲童饰  儿童发饰品</v>
       </c>
       <c r="D115" t="str">
-        <v>月销 3759</v>
+        <v>月销 10</v>
       </c>
       <c r="E115" t="str">
         <v/>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>夏令员工人福利活动防暑防疫高温慰问送清凉礼盒日用品大礼包团购</v>
+        <v>伴手礼小礼品六一儿童节礼物结婚实用幼儿园61礼手提回礼小熊毛巾</v>
       </c>
       <c r="B116" t="str">
-        <v>¥24.55¥24.55</v>
+        <v>¥9.00¥9.00</v>
       </c>
       <c r="C116" t="str">
-        <v>宝明商城20100</v>
+        <v>米乐米西</v>
       </c>
       <c r="D116" t="str">
-        <v>月销 27</v>
+        <v>月销 610</v>
       </c>
       <c r="E116" t="str">
         <v/>
@@ -2354,16 +2354,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>地毯卧室客厅大面积全铺家用塑料防水防潮pvc革加厚免洗地垫ins风</v>
+        <v>广告杯定制logo便携塑料杯印字开业活动赠品小礼品水杯子定做批量</v>
       </c>
       <c r="B117" t="str">
-        <v>¥2.69¥750.00</v>
+        <v>¥7.90¥22.00</v>
       </c>
       <c r="C117" t="str">
-        <v>琴江之梦旗舰店</v>
+        <v>恒达礼品杯工厂</v>
       </c>
       <c r="D117" t="str">
-        <v>月销 5048</v>
+        <v>月销 45</v>
       </c>
       <c r="E117" t="str">
         <v/>
@@ -2371,16 +2371,16 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>儿童送幼儿园生日礼物全班小朋友奖励小礼品六一节伴手回分享创意</v>
+        <v>小礼品定制logo送客户伴手礼活动小奖品实用员工生日礼物开业礼物</v>
       </c>
       <c r="B118" t="str">
-        <v>¥5.98¥8.10</v>
+        <v>¥20.00¥50.00</v>
       </c>
       <c r="C118" t="str">
-        <v>爱礼艺礼品店</v>
+        <v>爱奢尔礼品屋</v>
       </c>
       <c r="D118" t="str">
-        <v>月销 51</v>
+        <v>月销 111</v>
       </c>
       <c r="E118" t="str">
         <v/>
@@ -2388,16 +2388,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>创意婚庆回礼扫码地推活动六一儿童节礼品5元以下学生奖励小礼品</v>
+        <v>儿童玩具吹泡泡相机定制logo奖品小朋友礼物10元以下幼儿园小礼品</v>
       </c>
       <c r="B119" t="str">
-        <v>¥1.45¥1.45</v>
+        <v>¥2.80¥14.50</v>
       </c>
       <c r="C119" t="str">
-        <v>礼潮家居专营店</v>
+        <v>东望礼品汇</v>
       </c>
       <c r="D119" t="str">
-        <v>月销 52</v>
+        <v>月销 387</v>
       </c>
       <c r="E119" t="str">
         <v/>
@@ -2405,16 +2405,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>生日礼物送朋友店铺开业礼品客户乔迁新居招财摆件领导公司周年庆</v>
+        <v>2021六一儿童节梦幻女神独角兽樱花文具套装礼盒学习用品女生奖品大礼包网红少女心小学初中生手账生日礼物</v>
       </c>
       <c r="B120" t="str">
-        <v>¥183.00¥366.00</v>
+        <v>¥168.00¥198.00</v>
       </c>
       <c r="C120" t="str">
-        <v>佰美年华旗舰店</v>
+        <v>万利旗舰店</v>
       </c>
       <c r="D120" t="str">
-        <v>月销 65</v>
+        <v>月销 198</v>
       </c>
       <c r="E120" t="str">
         <v/>
@@ -2422,16 +2422,16 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>抹布沥水架厨房用品家用大全台面水槽晾海绵挂架收纳洗碗布置物架</v>
+        <v>钻石小颗粒积木拼插玩具礼物 立体高难度拼图益知儿童成人礼品</v>
       </c>
       <c r="B121" t="str">
-        <v>¥29.00¥56.80</v>
+        <v>¥2.50¥2.50</v>
       </c>
       <c r="C121" t="str">
-        <v>东佐日本出口企业店</v>
+        <v>高达模型积木店</v>
       </c>
       <c r="D121" t="str">
-        <v>月销 9</v>
+        <v>月销 165</v>
       </c>
       <c r="E121" t="str">
         <v/>
@@ -2439,16 +2439,16 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>五一活动礼品公司开业赠品促销实用礼品银行送员工地推定制logo</v>
+        <v>WWF海豚毛绒玩具进口布娃娃可爱公仔儿童玩具女生礼物包邮</v>
       </c>
       <c r="B122" t="str">
-        <v>¥5.80¥5.80</v>
+        <v>¥180.00¥180.00</v>
       </c>
       <c r="C122" t="str">
-        <v>广告礼品定制批发城</v>
+        <v>WWF海外旗舰店</v>
       </c>
       <c r="D122" t="str">
-        <v>月销 28</v>
+        <v>月销 27</v>
       </c>
       <c r="E122" t="str">
         <v/>
@@ -2456,16 +2456,16 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>烫金条纹波点纸三角帽子团建活动群体遮挡脸脸游戏道具派对生日帽</v>
+        <v>百米长卷线稿涂鸦图案填色大长画卷定制幼儿园儿童节日活动绘画布</v>
       </c>
       <c r="B123" t="str">
-        <v>¥19.80¥26.40</v>
+        <v>¥5.10¥5.10</v>
       </c>
       <c r="C123" t="str">
-        <v>恒尚家居旗舰店</v>
+        <v>星云画布画材  图案设计定制</v>
       </c>
       <c r="D123" t="str">
-        <v>月销 191</v>
+        <v>月销 623</v>
       </c>
       <c r="E123" t="str">
         <v/>
@@ -2473,16 +2473,16 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>小礼品批發创意礼物幼儿园实用开学儿童节日玩具活动奖品新年</v>
+        <v>公司定制61六一儿童节小礼物地推活动微商引流高档送客户创意实用</v>
       </c>
       <c r="B124" t="str">
-        <v>¥0.98¥1.96</v>
+        <v>¥2.50¥4.90</v>
       </c>
       <c r="C124" t="str">
-        <v>因礼美旗舰店</v>
+        <v>木子礼旗舰店</v>
       </c>
       <c r="D124" t="str">
-        <v>月销 10</v>
+        <v>月销 6</v>
       </c>
       <c r="E124" t="str">
         <v/>
@@ -2490,16 +2490,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>可折叠洗脸盆洗衣盆便携式高中生大学生宿舍生活军训开学用品</v>
+        <v>幼儿园儿童小礼物奖励全班小朋友实用分享伴手小礼品创意学生奖品</v>
       </c>
       <c r="B125" t="str">
-        <v>¥11.80¥23.80</v>
+        <v>¥12.80¥16.00</v>
       </c>
       <c r="C125" t="str">
-        <v>联购家居专营店</v>
+        <v>法嘉悦旗舰店</v>
       </c>
       <c r="D125" t="str">
-        <v>月销 419</v>
+        <v>月销 463</v>
       </c>
       <c r="E125" t="str">
         <v/>
@@ -2507,16 +2507,16 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>生日礼物女生520情人节送女友送老婆纪念日的实用小惊喜六一儿童</v>
+        <v>微小颗粒生日蛋糕拼装积木可爱米奇创意模型益智diy女孩闺蜜礼物</v>
       </c>
       <c r="B126" t="str">
-        <v>¥188.00¥376.00</v>
+        <v>¥8.50¥8.50</v>
       </c>
       <c r="C126" t="str">
-        <v>kufire旗舰店</v>
+        <v>爱拼你世界</v>
       </c>
       <c r="D126" t="str">
-        <v>月销 192</v>
+        <v>月销 207</v>
       </c>
       <c r="E126" t="str">
         <v/>
@@ -2524,16 +2524,16 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>厨房蔬菜置物架多功能收纳筐落地多层塑料家用大全用品菜架子菜篮</v>
+        <v>创意可爱太空橡皮擦套装礼盒开学礼品可爱造型小学生学习文具用品奖品奇好橡皮</v>
       </c>
       <c r="B127" t="str">
-        <v>¥49.00¥98.00</v>
+        <v>¥2.20¥2.20</v>
       </c>
       <c r="C127" t="str">
-        <v>巧威旗舰店</v>
+        <v>晨心办公用品专营店</v>
       </c>
       <c r="D127" t="str">
-        <v>月销 7</v>
+        <v>月销 27</v>
       </c>
       <c r="E127" t="str">
         <v/>
@@ -2541,16 +2541,16 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>核桃夹子金属夹子新款耐用小百货厂家直销夹子核桃夹子两元店配B,</v>
+        <v>得力橡皮擦学生专用创意卡通可爱擦得干净不留痕无碎屑儿童学习用品小学生牛年新年礼物美术像皮擦幼儿园奖品</v>
       </c>
       <c r="B128" t="str">
-        <v>¥7.31¥11.25</v>
+        <v>¥7.90¥15.80</v>
       </c>
       <c r="C128" t="str">
-        <v>健正家居专营店</v>
+        <v>得力中卡专卖店</v>
       </c>
       <c r="D128" t="str">
-        <v>月销 0</v>
+        <v>月销 4</v>
       </c>
       <c r="E128" t="str">
         <v/>
@@ -2558,16 +2558,16 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>生日礼物女生520情人节送女友男友朋友情侣纪念意义的小实用创意</v>
+        <v>端午节礼物公司礼品定制logo送客户高档员工奖品实用周年庆纪念品</v>
       </c>
       <c r="B129" t="str">
-        <v>¥69.00¥138.00</v>
+        <v>¥85.00¥135.00</v>
       </c>
       <c r="C129" t="str">
-        <v>kufire旗舰店</v>
+        <v>蝶设文创用品旗舰店</v>
       </c>
       <c r="D129" t="str">
-        <v>月销 916</v>
+        <v>月销 22</v>
       </c>
       <c r="E129" t="str">
         <v/>
@@ -2575,16 +2575,16 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>小学生开学奖励小礼品实用创意奖品一二三年级全班礼物儿童的活动</v>
+        <v>六一儿童节礼物幼儿园全班61小学生开业活动品创意零食礼盒装定制</v>
       </c>
       <c r="B130" t="str">
         <v>¥9.90¥9.90</v>
       </c>
       <c r="C130" t="str">
-        <v>许世完美</v>
+        <v>喜里喜外旗舰店</v>
       </c>
       <c r="D130" t="str">
-        <v>月销 18</v>
+        <v>月销 31</v>
       </c>
       <c r="E130" t="str">
         <v/>
@@ -2592,16 +2592,16 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>小礼品5元以下伴手礼回礼实用扫码地推活动开业赠品定制创意礼物</v>
+        <v>2021年牛年存钱罐儿童储蓄罐女生防摔大容量创意可存可取男孩女孩</v>
       </c>
       <c r="B131" t="str">
-        <v>¥1.84¥2.30</v>
+        <v>¥29.80¥29.80</v>
       </c>
       <c r="C131" t="str">
-        <v>优上礼品定制公司</v>
+        <v>当珍旗舰店</v>
       </c>
       <c r="D131" t="str">
-        <v>月销 5</v>
+        <v>月销 87</v>
       </c>
       <c r="E131" t="str">
         <v/>
@@ -2609,16 +2609,16 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>鬼马创意520小礼物送女友女生日学老师儿童情人节礼物送老婆实用</v>
+        <v>厨房挂钩免打孔壁挂式厨具用品收纳置物架不锈钢挂架晾抹布架挂杆</v>
       </c>
       <c r="B132" t="str">
-        <v>¥48.00¥82.00</v>
+        <v>¥19.00¥50.00</v>
       </c>
       <c r="C132" t="str">
-        <v>鬼马创意旗舰店</v>
+        <v>优腾家居旗舰店</v>
       </c>
       <c r="D132" t="str">
-        <v>月销 4</v>
+        <v>月销 18</v>
       </c>
       <c r="E132" t="str">
         <v/>
@@ -2626,16 +2626,16 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>上善若水八卦镜凸镜凹镜四季罗经镜招财家居用品门挂饰装饰品0216</v>
+        <v>生日数字牌卡牌年龄装饰卡片一到18岁礼物盒24年龄牌生日牌岁数卡</v>
       </c>
       <c r="B133" t="str">
-        <v>¥9.80¥19.60</v>
+        <v>¥11.80¥11.80</v>
       </c>
       <c r="C133" t="str">
-        <v>上善若水旗舰店</v>
+        <v>好物手礼</v>
       </c>
       <c r="D133" t="str">
-        <v>月销 165</v>
+        <v>月销 319</v>
       </c>
       <c r="E133" t="str">
         <v/>
@@ -2643,16 +2643,16 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>地推活动奖励学生毕业小礼品六一儿童节礼物实用男女商场客户创意</v>
+        <v>衣服染料家用染色剂旧衣翻新改色黑色牛仔裤扎染免煮不掉色染衣服</v>
       </c>
       <c r="B134" t="str">
-        <v>¥5.80¥19.90</v>
+        <v>¥6.50¥7.00</v>
       </c>
       <c r="C134" t="str">
-        <v>木子礼旗舰店</v>
+        <v>新美人记染料直销</v>
       </c>
       <c r="D134" t="str">
-        <v>月销 2</v>
+        <v>月销 8571</v>
       </c>
       <c r="E134" t="str">
         <v/>
@@ -2660,16 +2660,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>结婚纸杯一次性喜杯子婚宴纸碗加厚婚礼婚礼水杯婚庆用品大全</v>
+        <v>婚房装饰婚庆气球装饰喜字贴专用透明胶点双面胶无痕胶圆点胶包邮</v>
       </c>
       <c r="B135" t="str">
-        <v>¥4.20¥4.50</v>
+        <v>¥0.85¥1.70</v>
       </c>
       <c r="C135" t="str">
-        <v>山东喜气洋洋婚品一站式购物</v>
+        <v>气球装饰批发工厂店</v>
       </c>
       <c r="D135" t="str">
-        <v>月销 175</v>
+        <v>月销 178</v>
       </c>
       <c r="E135" t="str">
         <v/>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>爱格316不锈钢切菜板抗菌防霉厨房家用切水果砧板案板擀揉和面板</v>
+        <v>储蓄大容量只进不出不可取大人用可爱小猪女孩儿童家用金猪存钱罐</v>
       </c>
       <c r="B136" t="str">
-        <v>¥89.00¥208.00</v>
+        <v>¥12.80¥48.00</v>
       </c>
       <c r="C136" t="str">
-        <v>爱格飞牛专卖店</v>
+        <v>序强旗舰店</v>
       </c>
       <c r="D136" t="str">
-        <v>月销 1785</v>
+        <v>月销 259</v>
       </c>
       <c r="E136" t="str">
         <v/>
@@ -2694,16 +2694,16 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>日本原装进口花王护垫72片乐而雅卫生巾棉柔亲肤玫瑰香日用品14cm</v>
+        <v>抖音神器厨房用品用具小百货插头挂钩抖音同款家用小东西生活用品</v>
       </c>
       <c r="B137" t="str">
-        <v>¥18.40¥19.80</v>
+        <v>¥8.80¥8.80</v>
       </c>
       <c r="C137" t="str">
-        <v>精制淘日货原装进口品质店</v>
+        <v>胖阿姨居家阿姨精选好货</v>
       </c>
       <c r="D137" t="str">
-        <v>月销 4</v>
+        <v>月销 3</v>
       </c>
       <c r="E137" t="str">
         <v/>
@@ -2720,7 +2720,7 @@
         <v>艾萌小玩意</v>
       </c>
       <c r="D138" t="str">
-        <v>月销 293</v>
+        <v>月销 301</v>
       </c>
       <c r="E138" t="str">
         <v/>
@@ -2728,16 +2728,16 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>一件代发淘宝电商礼品单1到3元小商品2元礼品代发快递员包邮评价</v>
+        <v>少女心猫咪小夜灯星星灯女生宿舍床头灯男女孩生日礼物六一儿童节</v>
       </c>
       <c r="B139" t="str">
-        <v>¥1.45¥1.45</v>
+        <v>¥18.96¥19.00</v>
       </c>
       <c r="C139" t="str">
-        <v>今日礼品代发网</v>
+        <v>爱的礼物mm</v>
       </c>
       <c r="D139" t="str">
-        <v>月销 308</v>
+        <v>月销 173</v>
       </c>
       <c r="E139" t="str">
         <v/>
@@ -2745,16 +2745,16 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>毕业奖励初中小学生中考高考送女友男520六一儿童节生日礼物实用</v>
+        <v>微商引流地推实用学生开学幼儿园活动创意小礼品扫码商品奖品</v>
       </c>
       <c r="B140" t="str">
-        <v>¥15.80¥45.00</v>
+        <v>¥0.28¥0.28</v>
       </c>
       <c r="C140" t="str">
-        <v>暖橙耀耀旗舰店</v>
+        <v>柠檬茶文具批发9块9包邮</v>
       </c>
       <c r="D140" t="str">
-        <v>月销 148</v>
+        <v>月销 117</v>
       </c>
       <c r="E140" t="str">
         <v/>
@@ -2762,16 +2762,16 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>陶瓷风铃车挂手绘乖乖兔挂件汽车风铃挂饰创意风铃日式 地摊货源</v>
+        <v>犹太人思维棋灭鼠先锋抖音同款玩具逻辑思维儿童亲子互动益智桌游</v>
       </c>
       <c r="B141" t="str">
-        <v>¥2.68¥2.68</v>
+        <v>¥5.50¥25.62</v>
       </c>
       <c r="C141" t="str">
-        <v>青歌旗舰店</v>
+        <v>伊FCL</v>
       </c>
       <c r="D141" t="str">
-        <v>月销 237</v>
+        <v>月销 1995</v>
       </c>
       <c r="E141" t="str">
         <v/>
@@ -2779,16 +2779,16 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>送朋友学生创意礼品仿真布加迪divo合金汽车模型超跑金属赛车摆件</v>
+        <v>幼儿园礼物创意卡通小学生奖品奖励玩具文具一年级儿童小礼品开学</v>
       </c>
       <c r="B142" t="str">
-        <v>¥39.90¥96.00</v>
+        <v>¥0.58¥1.76</v>
       </c>
       <c r="C142" t="str">
-        <v>爱车e族礼品店</v>
+        <v>因礼美旗舰店</v>
       </c>
       <c r="D142" t="str">
-        <v>月销 30</v>
+        <v>月销 13</v>
       </c>
       <c r="E142" t="str">
         <v/>
@@ -2796,16 +2796,16 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>雅图家居现代简约玻璃花瓶 客厅玄关家居装饰品 磨砂玻璃透明花瓶</v>
+        <v>晨光囡茜联名与子成说限定文具礼盒套装小学生儿童三年级学习用品用具网红可爱创意惊喜少女心开学文具大礼包</v>
       </c>
       <c r="B143" t="str">
-        <v>¥38.00¥38.00</v>
+        <v>¥39.80¥156.00</v>
       </c>
       <c r="C143" t="str">
-        <v>雅图 软装家居饰品</v>
+        <v>闻泽办公用品专营店</v>
       </c>
       <c r="D143" t="str">
-        <v>月销 48</v>
+        <v>月销 54</v>
       </c>
       <c r="E143" t="str">
         <v/>
@@ -2813,16 +2813,16 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>百变魔尺创意益智玩具小号魔方幼儿园小学生儿童节日小礼品奖品</v>
+        <v>儿童送幼儿园生日礼物全班小朋友奖励小礼品六一节伴手回分享毕业</v>
       </c>
       <c r="B144" t="str">
-        <v>¥0.25¥0.85</v>
+        <v>¥5.98¥8.10</v>
       </c>
       <c r="C144" t="str">
-        <v>秃秃玩具批发 满8元包邮</v>
+        <v>爱礼艺礼品店</v>
       </c>
       <c r="D144" t="str">
-        <v>月销 30</v>
+        <v>月销 61</v>
       </c>
       <c r="E144" t="str">
         <v/>
@@ -2830,16 +2830,16 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>新奇创意送学生学习奖品小学三五年级老师送给同学孩子培训小礼物</v>
+        <v>青花瓷卡通碗勺碗筷套装日式陶瓷餐具礼盒装节日商务会销促销礼品</v>
       </c>
       <c r="B145" t="str">
-        <v>¥3.80¥4.30</v>
+        <v>¥1.80¥1.80</v>
       </c>
       <c r="C145" t="str">
-        <v>萌芽创意礼品定制店</v>
+        <v>博都陶瓷</v>
       </c>
       <c r="D145" t="str">
-        <v>月销 168</v>
+        <v>月销 67</v>
       </c>
       <c r="E145" t="str">
         <v/>
@@ -2847,16 +2847,16 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>女方陪嫁套装娘家物品高档新娘嫁妆娘家婚礼喜盆洗漱结婚用品大全</v>
+        <v>生日礼物女生61六一儿童节送女孩女童女儿10岁12男孩小学生实用的</v>
       </c>
       <c r="B146" t="str">
-        <v>¥29.30¥34.88</v>
+        <v>¥85.00¥170.00</v>
       </c>
       <c r="C146" t="str">
-        <v>山东喜气洋洋婚品一站式购物</v>
+        <v>kufire旗舰店</v>
       </c>
       <c r="D146" t="str">
-        <v>月销 416</v>
+        <v>月销 607</v>
       </c>
       <c r="E146" t="str">
         <v/>
@@ -2864,16 +2864,16 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>own pack创意端午节艾叶玉莲蓬香包礼盒装香包香囊商场景区礼品</v>
+        <v>少女心摆件公主飘雪水晶球内旋转八音盒音乐盒儿童小女孩生日礼物</v>
       </c>
       <c r="B147" t="str">
-        <v>¥4.38¥4.38</v>
+        <v>¥24.80¥49.60</v>
       </c>
       <c r="C147" t="str">
-        <v>ownpack旗舰店</v>
+        <v>礼荟居创意礼品</v>
       </c>
       <c r="D147" t="str">
-        <v>月销 41</v>
+        <v>月销 144</v>
       </c>
       <c r="E147" t="str">
         <v/>
@@ -2881,16 +2881,16 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>送男朋友礼物仿真1:12川崎摩托Kawasaki NINJA H2R摩托车合金模型</v>
+        <v>心家宜小推车置物架可移动婴儿用品收纳架家用新生儿宝宝收纳架子</v>
       </c>
       <c r="B148" t="str">
-        <v>¥88.00¥176.00</v>
+        <v>¥99.00¥495.00</v>
       </c>
       <c r="C148" t="str">
-        <v>爱车e族礼品店</v>
+        <v>心家宜家具店</v>
       </c>
       <c r="D148" t="str">
-        <v>月销 6</v>
+        <v>月销 41</v>
       </c>
       <c r="E148" t="str">
         <v/>
@@ -2898,16 +2898,16 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>婚庆用品大全新郎新娘结婚胸花高档襟花婚礼全套家人别花伴娘伴郎</v>
+        <v>Findin懿物桃子原创设计森系小清新婚礼誓言卡vows网红花束誓言本</v>
       </c>
       <c r="B149" t="str">
-        <v>¥1.30¥1.30</v>
+        <v>¥32.80¥32.80</v>
       </c>
       <c r="C149" t="str">
-        <v>牵红绸企业店</v>
+        <v>BUESSI卜鲽系</v>
       </c>
       <c r="D149" t="str">
-        <v>月销 1.88万</v>
+        <v>月销 22</v>
       </c>
       <c r="E149" t="str">
         <v/>
@@ -2915,16 +2915,16 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>生日派对帽子儿童生日派对布置装饰用品成人尖角帽宝宝周岁生日帽</v>
+        <v>索美，义乌小商品批小东西1-2块钱两元店百货一5元礼品摆地摊货源</v>
       </c>
       <c r="B150" t="str">
-        <v>¥0.80¥1.40</v>
+        <v>¥5.14¥11.60</v>
       </c>
       <c r="C150" t="str">
-        <v>喜拉拉旗舰店</v>
+        <v>索美家居旗舰店</v>
       </c>
       <c r="D150" t="str">
-        <v>月销 0</v>
+        <v>月销 2</v>
       </c>
       <c r="E150" t="str">
         <v/>
@@ -2932,16 +2932,16 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>情人节礼物diy生日礼物女男生男朋友女友闺蜜女孩送妈妈实用惊喜</v>
+        <v>多功能厨房水槽置物架不锈钢黑色水池沥水架晾碗架碗碟架用品收纳</v>
       </c>
       <c r="B151" t="str">
-        <v>¥29.00¥156.00</v>
+        <v>¥22.00¥92.00</v>
       </c>
       <c r="C151" t="str">
-        <v>天予家居旗舰店</v>
+        <v>华珍诚旗舰店</v>
       </c>
       <c r="D151" t="str">
-        <v>月销 142</v>
+        <v>月销 125</v>
       </c>
       <c r="E151" t="str">
         <v/>
@@ -2949,16 +2949,16 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>情人节礼物生日礼物女生送女友男友儿童diy手工闺蜜高级创意实用</v>
+        <v>【双11预售】洗照片手机照片6寸冲印打印塑封网红ins走心生日礼物</v>
       </c>
       <c r="B152" t="str">
-        <v>¥56.30¥239.60</v>
+        <v>¥63.00¥63.00</v>
       </c>
       <c r="C152" t="str">
-        <v>天予家居旗舰店</v>
+        <v>时间轴旗舰店</v>
       </c>
       <c r="D152" t="str">
-        <v>月销 152</v>
+        <v>月销 7</v>
       </c>
       <c r="E152" t="str">
         <v/>
@@ -2966,16 +2966,16 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>求签筒摇签筒求签桶100签64签家用道教竹签筒寺庙佛堂佛教用品</v>
+        <v>卡通橡皮擦小学生专用韩国创意水果动物 不留痕象皮檫可爱超萌幼儿园文具奖品小礼物儿童像皮擦学习用品网红</v>
       </c>
       <c r="B153" t="str">
-        <v>¥17.70¥17.70</v>
+        <v>¥9.90¥19.90</v>
       </c>
       <c r="C153" t="str">
-        <v>圆梦佳园</v>
+        <v>财霸办公专营店</v>
       </c>
       <c r="D153" t="str">
-        <v>月销 247</v>
+        <v>月销 3</v>
       </c>
       <c r="E153" t="str">
         <v/>
@@ -2983,16 +2983,16 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>结婚新娘红盖头新款婚礼蒙头红头巾中式秀禾服高档喜帕半透明纱巾</v>
+        <v>幼儿园生日礼物分享定制六一儿童节礼品全班伴手礼小朋友奖品毕业</v>
       </c>
       <c r="B154" t="str">
-        <v>¥6.80¥17.60</v>
+        <v>¥1.00¥3.20</v>
       </c>
       <c r="C154" t="str">
-        <v>俏尚旗舰店</v>
+        <v>臻品人家</v>
       </c>
       <c r="D154" t="str">
-        <v>月销 515</v>
+        <v>月销 291</v>
       </c>
       <c r="E154" t="str">
         <v/>
@@ -3000,16 +3000,16 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>电表箱装饰画遮挡配电箱现代简约客厅创意轻奢北欧电闸开关盒挂画</v>
+        <v>毕业奖励初中小学生中考高考送女友男520六一儿童节生日礼物实用</v>
       </c>
       <c r="B155" t="str">
-        <v>¥8.80¥58.00</v>
+        <v>¥15.80¥45.00</v>
       </c>
       <c r="C155" t="str">
-        <v>睿朵旗舰店</v>
+        <v>暖橙耀耀旗舰店</v>
       </c>
       <c r="D155" t="str">
-        <v>月销 1.02万</v>
+        <v>月销 163</v>
       </c>
       <c r="E155" t="str">
         <v/>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Findin原创丝绒绑带爱情结婚誓言卡新品干花致辞卡ins婚庆用品卡</v>
+        <v>儿童储蓄存钱罐玩具不可取只进不出防摔密码箱网红男女孩礼物生日</v>
       </c>
       <c r="B156" t="str">
-        <v>¥20.80¥20.80</v>
+        <v>¥53.00¥98.00</v>
       </c>
       <c r="C156" t="str">
-        <v>BUESSI卜鲽系</v>
+        <v>哲奇旗舰店</v>
       </c>
       <c r="D156" t="str">
-        <v>月销 5</v>
+        <v>月销 43</v>
       </c>
       <c r="E156" t="str">
         <v/>
@@ -3034,16 +3034,16 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>牛年儿童节礼物创意实用活动小礼品棒棒糖毛巾定制幼儿园开业赠品</v>
+        <v>儿童3节日送6给10益智女7男2小学生孩子8创意9生日5周岁4宝宝礼物</v>
       </c>
       <c r="B157" t="str">
-        <v>¥0.95¥1.92</v>
+        <v>¥358.00¥716.00</v>
       </c>
       <c r="C157" t="str">
-        <v>伊伊丫礼品毛巾创意家纺</v>
+        <v>快乐权家精品商城</v>
       </c>
       <c r="D157" t="str">
-        <v>月销 45</v>
+        <v>月销 12</v>
       </c>
       <c r="E157" t="str">
         <v/>
@@ -3051,16 +3051,16 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>太力厨房垃圾桶折叠壁挂大号分类家用厨余专用收纳挂式圾湿垃圾桶</v>
+        <v>儿童化妆品玩具套装无毒彩妆盒公主美甲油眼影可水洗女孩生日礼物</v>
       </c>
       <c r="B158" t="str">
-        <v>¥34.90¥107.70</v>
+        <v>¥89.00¥104.00</v>
       </c>
       <c r="C158" t="str">
-        <v>太力家居旗舰店</v>
+        <v>日本Pacherie官方自营店</v>
       </c>
       <c r="D158" t="str">
-        <v>月销 1950</v>
+        <v>月销 86</v>
       </c>
       <c r="E158" t="str">
         <v/>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>结婚婚房装饰早生贵子模具模板压床摆件婚礼礼物送新人布置喜字贴</v>
+        <v>小学生奖励小礼品奖品文具创意幼儿园小朋友实用儿童生日六一礼物</v>
       </c>
       <c r="B159" t="str">
-        <v>¥5.00¥7.00</v>
+        <v>¥9.90¥19.90</v>
       </c>
       <c r="C159" t="str">
-        <v>我家喜坊weddinghouse</v>
+        <v>乔木小屋礼品店</v>
       </c>
       <c r="D159" t="str">
-        <v>月销 1.05万</v>
+        <v>月销 143</v>
       </c>
       <c r="E159" t="str">
         <v/>
@@ -3085,16 +3085,16 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>厨房置物架用品用具晾洗放沥水碗架碗柜碗碟收纳盒餐具架</v>
+        <v>满月伴手礼百日宴诞生礼生孩子喜糖喜蛋礼盒十周岁生日宴高端回礼</v>
       </c>
       <c r="B160" t="str">
-        <v>¥3.90¥11.80</v>
+        <v>¥41.80¥83.60</v>
       </c>
       <c r="C160" t="str">
-        <v>西城家居生活馆</v>
+        <v>缘创忆旗舰店</v>
       </c>
       <c r="D160" t="str">
-        <v>月销 9</v>
+        <v>月销 19</v>
       </c>
       <c r="E160" t="str">
         <v/>
@@ -3102,16 +3102,16 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>有缘佛具佛教用品供佛水晶心经莲花烛台酥油灯底座长明贡灯架包邮</v>
+        <v>520 情人节礼物送女朋友送给女友女生生日创意特别实用的惊喜浪漫</v>
       </c>
       <c r="B161" t="str">
-        <v>¥20.50¥41.00</v>
+        <v>¥158.00¥158.00</v>
       </c>
       <c r="C161" t="str">
-        <v>有缘佛具批发</v>
+        <v>百里挑壹礼品屋</v>
       </c>
       <c r="D161" t="str">
-        <v>月销 44</v>
+        <v>月销 43</v>
       </c>
       <c r="E161" t="str">
         <v/>
@@ -3119,16 +3119,16 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>创意艺术家居装饰品乔迁结婚送女生闺蜜儿童生日节庆礼物用品摆件</v>
+        <v>304不锈钢厨房挂钩架 免打孔壁挂式挂架置物架收纳架刀架用品刀具</v>
       </c>
       <c r="B162" t="str">
-        <v>¥15.00¥56.00</v>
+        <v>¥18.00¥36.00</v>
       </c>
       <c r="C162" t="str">
-        <v>海贝海旗舰店</v>
+        <v>昶祥旗舰店</v>
       </c>
       <c r="D162" t="str">
-        <v>月销 12</v>
+        <v>月销 32</v>
       </c>
       <c r="E162" t="str">
         <v/>
@@ -3136,16 +3136,16 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>家居日用百货小商品创意小礼品实用百货居家生活用品杂物日常杂货</v>
+        <v>大萌牛牛气冲天存钱罐2021牛年十二生肖储蓄罐防摔儿童男孩大小孩</v>
       </c>
       <c r="B163" t="str">
-        <v>¥0.49¥0.49</v>
+        <v>¥29.80¥29.80</v>
       </c>
       <c r="C163" t="str">
-        <v>清清玉露百货商城</v>
+        <v>当珍旗舰店</v>
       </c>
       <c r="D163" t="str">
-        <v>月销 153</v>
+        <v>月销 31</v>
       </c>
       <c r="E163" t="str">
         <v/>
@@ -3153,16 +3153,16 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>热卖鲤鱼旗流苏儿童玩具风帆饰品导游旗日本和风幡料理店装饰彩旗</v>
+        <v>结婚新娘红盖头新款婚礼蒙头红头巾中式秀禾服高档喜帕半透明纱巾</v>
       </c>
       <c r="B164" t="str">
-        <v>¥8.80¥8.80</v>
+        <v>¥6.80¥17.60</v>
       </c>
       <c r="C164" t="str">
-        <v>寻蝶园户外休闲馆</v>
+        <v>俏尚旗舰店</v>
       </c>
       <c r="D164" t="str">
-        <v>月销 189</v>
+        <v>月销 525</v>
       </c>
       <c r="E164" t="str">
         <v/>
@@ -3170,16 +3170,16 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>五一公司会议实用开业促销活动礼品银行商务赠品送客户定制LOGO</v>
+        <v>Sony索尼SRS-XB01无线蓝牙重低音手机防水小音响生日会儿童节礼物</v>
       </c>
       <c r="B165" t="str">
-        <v>¥2.80¥2.80</v>
+        <v>¥179.00¥199.00</v>
       </c>
       <c r="C165" t="str">
-        <v>广告礼品定制批发城</v>
+        <v>索尼逸明恒业专卖店</v>
       </c>
       <c r="D165" t="str">
-        <v>月销 18</v>
+        <v>月销 73</v>
       </c>
       <c r="E165" t="str">
         <v/>
@@ -3187,16 +3187,16 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>520情人节礼物生日送给男朋友男士实用的惊喜纪念给男友老公高档</v>
+        <v>海湾兔bunnies小白兔兔毛绒玩具儿童布娃娃女生生日礼物公仔玩偶</v>
       </c>
       <c r="B166" t="str">
-        <v>¥98.00¥399.00</v>
+        <v>¥159.00¥227.00</v>
       </c>
       <c r="C166" t="str">
-        <v>搏胜旗舰店</v>
+        <v>海湾兔旗舰店</v>
       </c>
       <c r="D166" t="str">
-        <v>月销 3530</v>
+        <v>月销 138</v>
       </c>
       <c r="E166" t="str">
         <v/>
@@ -3204,16 +3204,16 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>小众设计师手绘墙饰渔夫之家挂饰儿童房装饰家居饰品墙面装饰</v>
+        <v>迪士尼文具盒帆布笔袋小学生初中生幼儿园儿童男孩女孩礼物多功能大容量简约创意文具铅笔袋文具袋学习用品</v>
       </c>
       <c r="B167" t="str">
-        <v>¥328.00¥328.00</v>
+        <v>¥16.80¥29.80</v>
       </c>
       <c r="C167" t="str">
-        <v>Cici Globuy</v>
+        <v>尚致办公专营店</v>
       </c>
       <c r="D167" t="str">
-        <v>月销 0</v>
+        <v>月销 80</v>
       </c>
       <c r="E167" t="str">
         <v/>
@@ -3221,16 +3221,16 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>节假日大礼包生活用品套装工会慰问礼品活动庆典促销高温福利团购</v>
+        <v>地推活动奖励学生毕业小礼品六一儿童节礼物实用男女商场客户创意</v>
       </c>
       <c r="B168" t="str">
-        <v>¥35.00¥35.00</v>
+        <v>¥5.80¥19.90</v>
       </c>
       <c r="C168" t="str">
-        <v>上海宝杰礼品团购批发商城</v>
+        <v>木子礼旗舰店</v>
       </c>
       <c r="D168" t="str">
-        <v>月销 16</v>
+        <v>月销 2</v>
       </c>
       <c r="E168" t="str">
         <v/>
@@ -3238,16 +3238,16 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>硅胶压薯器 硅胶厨具用品 土豆压泥器 厨房工具 一体式柠檬榨汁器</v>
+        <v>创意存钱罐儿童储蓄罐储钱罐小熊女透明卡通可爱防摔塑料硬币男孩</v>
       </c>
       <c r="B169" t="str">
-        <v>¥24.00¥48.00</v>
+        <v>¥14.80¥53.60</v>
       </c>
       <c r="C169" t="str">
-        <v>moes家居旗舰店</v>
+        <v>随想曲旗舰店</v>
       </c>
       <c r="D169" t="str">
-        <v>月销 14</v>
+        <v>月销 121</v>
       </c>
       <c r="E169" t="str">
         <v/>
@@ -3255,16 +3255,16 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>魔方计时器考研考研用品做题记时间提醒静音无声学生写作业用</v>
+        <v>搬新家新房子租房准备家居用品厨房用品用具小百货店庭家居家抖音</v>
       </c>
       <c r="B170" t="str">
-        <v>¥82.13¥225.00</v>
+        <v>¥17.07¥21.61</v>
       </c>
       <c r="C170" t="str">
-        <v>恋蝶虹旗舰店</v>
+        <v>索美家居旗舰店</v>
       </c>
       <c r="D170" t="str">
-        <v>月销 2</v>
+        <v>月销 0</v>
       </c>
       <c r="E170" t="str">
         <v/>
@@ -3272,16 +3272,16 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>活动精美小礼品创意实用定制促销印logo幼儿园儿童节赠品学生六一</v>
+        <v>干发帽家庭家居用品生活日用品实用小用品百货居家用具家用小东西</v>
       </c>
       <c r="B171" t="str">
-        <v>¥3.00¥3.00</v>
+        <v>¥11.88¥11.88</v>
       </c>
       <c r="C171" t="str">
-        <v>喜福瓷</v>
+        <v>初遇线上杂货铺</v>
       </c>
       <c r="D171" t="str">
-        <v>月销 748</v>
+        <v>月销 0</v>
       </c>
       <c r="E171" t="str">
         <v/>
@@ -3289,16 +3289,16 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>六一儿童节活动小礼品可定制LOGO批蕟培训班招生实用赠品宣传礼物</v>
+        <v>小礼品开业活动赠品实用10元送客户礼物宣传定制logo雨伞创意赠品</v>
       </c>
       <c r="B172" t="str">
-        <v>¥1.80¥1.80</v>
+        <v>¥4.50¥4.50</v>
       </c>
       <c r="C172" t="str">
-        <v>承诺礼品定制批发</v>
+        <v>东望礼品汇</v>
       </c>
       <c r="D172" t="str">
-        <v>月销 78</v>
+        <v>月销 32</v>
       </c>
       <c r="E172" t="str">
         <v/>
@@ -3306,16 +3306,16 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>北欧创意家居摆件可爱泡泡蝴蝶结女孩客厅房间摆设装饰品生日礼物</v>
+        <v>幼儿园开学礼物全班分享儿童小朋友生日小礼品回礼小学生奖励奖品</v>
       </c>
       <c r="B173" t="str">
-        <v>¥68.00¥352.00</v>
+        <v>¥11.80¥23.60</v>
       </c>
       <c r="C173" t="str">
-        <v>正想旗舰店</v>
+        <v>爱拼图早教玩具店</v>
       </c>
       <c r="D173" t="str">
-        <v>月销 396</v>
+        <v>月销 85</v>
       </c>
       <c r="E173" t="str">
         <v/>
@@ -3323,16 +3323,16 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>幼儿园小小班儿童节日礼物生日伴手礼回礼开学礼创意小奖品玩具</v>
+        <v>九木杂物社好嗨鸭防护围裙创意卡通家用厨房可擦手520情人节礼物</v>
       </c>
       <c r="B174" t="str">
-        <v>¥25.00¥50.00</v>
+        <v>¥79.90¥79.90</v>
       </c>
       <c r="C174" t="str">
-        <v>赞赞家 益智早教玩具铺</v>
+        <v>九木杂物社旗舰店</v>
       </c>
       <c r="D174" t="str">
-        <v>月销 1</v>
+        <v>月销 136</v>
       </c>
       <c r="E174" t="str">
         <v/>
@@ -3340,16 +3340,16 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>日式实木桌面碗柜餐边柜家用厨房收纳柜桌上储物柜现代简约置物架</v>
+        <v>欧舒丹香皂香薰礼盒送闺蜜生日结婚新婚公司员工宴会实用伴手礼</v>
       </c>
       <c r="B175" t="str">
-        <v>¥259.00¥776.00</v>
+        <v>¥88.00¥88.00</v>
       </c>
       <c r="C175" t="str">
-        <v>shirai家具旗舰店</v>
+        <v>VIVIAN薇薇安香氛伴手礼</v>
       </c>
       <c r="D175" t="str">
-        <v>月销 16</v>
+        <v>月销 473</v>
       </c>
       <c r="E175" t="str">
         <v/>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>结婚用品喜盆纱巾 新娘红盖头 蒙盆纱中式婚礼头纱大红纱巾</v>
+        <v>六一儿童节幼儿园生日礼物全班小礼品奖励小学生送分享伴手礼玩具</v>
       </c>
       <c r="B176" t="str">
-        <v>¥5.50¥5.50</v>
+        <v>¥7.90¥17.90</v>
       </c>
       <c r="C176" t="str">
-        <v>格瑞斯经典</v>
+        <v>尚时末趣旗舰店</v>
       </c>
       <c r="D176" t="str">
-        <v>月销 196</v>
+        <v>月销 243</v>
       </c>
       <c r="E176" t="str">
         <v/>
@@ -3374,16 +3374,16 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>圣诞牛皮纸袋环保服装袋子礼品袋通用手提袋复古礼物袋生日回礼</v>
+        <v>婚庆红礼单礼薄结婚庆用品嘉宾签名薄 签到礼金本 喜事白红卡礼单</v>
       </c>
       <c r="B177" t="str">
-        <v>¥3.80¥3.80</v>
+        <v>¥1.10¥1.45</v>
       </c>
       <c r="C177" t="str">
-        <v>品唐旗舰店</v>
+        <v>芳芳幸福坊线上线下一体店</v>
       </c>
       <c r="D177" t="str">
-        <v>月销 23</v>
+        <v>月销 13</v>
       </c>
       <c r="E177" t="str">
         <v/>
@@ -3391,16 +3391,16 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>油刷带瓶家用硅胶油刷耐高温油刷子厨房烙饼烧烤刷子不掉毛食品刷</v>
+        <v>厨房台面家用抽拉式架子储物橱柜下用品下水槽置物架金属收纳架子</v>
       </c>
       <c r="B178" t="str">
-        <v>¥9.90¥12.00</v>
+        <v>¥68.00¥176.00</v>
       </c>
       <c r="C178" t="str">
-        <v>芸绅旗舰店</v>
+        <v>百露旗舰店</v>
       </c>
       <c r="D178" t="str">
-        <v>月销 2</v>
+        <v>月销 17</v>
       </c>
       <c r="E178" t="str">
         <v/>
@@ -3408,16 +3408,16 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>手工陶瓷捏花摆件小花定制创意插线香器家居酒店会所优质装饰摆设</v>
+        <v>61小礼物刻名字幼儿园送小朋友同学生日伴手礼儿童节活动奖品定制</v>
       </c>
       <c r="B179" t="str">
-        <v>¥18.00¥18.00</v>
+        <v>¥3.80¥4.00</v>
       </c>
       <c r="C179" t="str">
-        <v>两市陶瓷摆件</v>
+        <v>萌芽创意礼品定制店</v>
       </c>
       <c r="D179" t="str">
-        <v>月销 43</v>
+        <v>月销 1209</v>
       </c>
       <c r="E179" t="str">
         <v/>
@@ -3425,16 +3425,16 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>不锈钢免打孔折叠调料架壁挂式调味用品收纳调味料架子厨房置物架</v>
+        <v>软萌兔夏日礼盒520情人节礼物送女友闺蜜女生日实用伴手礼少女心</v>
       </c>
       <c r="B180" t="str">
-        <v>¥138.00¥276.00</v>
+        <v>¥99.00¥123.75</v>
       </c>
       <c r="C180" t="str">
-        <v>loke旗舰店</v>
+        <v>马克图布旗舰店</v>
       </c>
       <c r="D180" t="str">
-        <v>月销 138</v>
+        <v>月销 5338</v>
       </c>
       <c r="E180" t="str">
         <v/>
@@ -3442,16 +3442,16 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>琼艺庭浴缸架竹制欧式伸缩防滑泡澡平板手机架ins轻奢浴缸置物架</v>
+        <v>陶瓷小猪存钱罐儿童成人纸币硬币存储罐可爱创意礼品书架摆设摆件</v>
       </c>
       <c r="B181" t="str">
-        <v>¥39.80¥79.60</v>
+        <v>¥12.98¥12.98</v>
       </c>
       <c r="C181" t="str">
-        <v>琼艺庭旗舰店</v>
+        <v>猪先生存钱罐</v>
       </c>
       <c r="D181" t="str">
-        <v>月销 210</v>
+        <v>月销 53</v>
       </c>
       <c r="E181" t="str">
         <v/>
@@ -3459,16 +3459,16 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>创意时尚家用大号卫生间客厅厨房卧室办公室带压圈无盖垃圾桶纸篓</v>
+        <v>生日礼物女生520情人节送女友男友朋友女孩的实用创意61六一儿童</v>
       </c>
       <c r="B182" t="str">
-        <v>¥2.90¥3.90</v>
+        <v>¥69.00¥138.00</v>
       </c>
       <c r="C182" t="str">
-        <v>还不晚 家居日用百货超市</v>
+        <v>kufire旗舰店</v>
       </c>
       <c r="D182" t="str">
-        <v>月销 10.09万</v>
+        <v>月销 1020</v>
       </c>
       <c r="E182" t="str">
         <v/>
@@ -3476,16 +3476,16 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>玻璃摆件北欧简约创意家居饰品生日婚礼蜡烛专用透明玻璃罩防尘罩</v>
+        <v>生日礼物女生520情人节送女友朋友送老婆实用的浪漫惊喜六一儿童</v>
       </c>
       <c r="B183" t="str">
-        <v>¥19.90¥30.62</v>
+        <v>¥89.00¥178.00</v>
       </c>
       <c r="C183" t="str">
-        <v>北欧国度旗舰店</v>
+        <v>onefire万火旗舰店</v>
       </c>
       <c r="D183" t="str">
-        <v>月销 0</v>
+        <v>月销 1782</v>
       </c>
       <c r="E183" t="str">
         <v/>
@@ -3493,16 +3493,16 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>小学生奖品儿童节幼儿园活动小礼品培训班实用开学礼物定制logo</v>
+        <v>幼儿园六一礼物儿童生日小礼品全班学生奖品创意卡通存钱罐定制</v>
       </c>
       <c r="B184" t="str">
-        <v>¥2.80¥3.80</v>
+        <v>¥3.20¥5.70</v>
       </c>
       <c r="C184" t="str">
-        <v>东望礼品汇</v>
+        <v>墨图礼品六一礼物幼儿园儿童小礼品存钱罐定制批发</v>
       </c>
       <c r="D184" t="str">
-        <v>月销 119</v>
+        <v>月销 61</v>
       </c>
       <c r="E184" t="str">
         <v/>
@@ -3510,16 +3510,16 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>广告促销10元以下创意开业活动小礼品水杯套装定制伴手回礼物赠品</v>
+        <v>木质卡通不倒翁摆件解压玩具送男生女生朋友创意可爱木偶生日礼物</v>
       </c>
       <c r="B185" t="str">
-        <v>¥5.40¥5.40</v>
+        <v>¥29.90¥65.00</v>
       </c>
       <c r="C185" t="str">
-        <v>佰润汇礼品陶瓷有限公司</v>
+        <v>木木小屋家居</v>
       </c>
       <c r="D185" t="str">
-        <v>月销 135</v>
+        <v>月销 47</v>
       </c>
       <c r="E185" t="str">
         <v/>
@@ -3527,16 +3527,16 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>礼品袋子手提纸袋 礼品袋ins风平安喜乐中国风寓意美好文字手提袋</v>
+        <v>公司开业活动小礼品定制印logo地推广告宣传创意实用纪念赠送客户</v>
       </c>
       <c r="B186" t="str">
-        <v>¥5.80¥5.80</v>
+        <v>¥1.00¥1.00</v>
       </c>
       <c r="C186" t="str">
-        <v>品唐旗舰店</v>
+        <v>美好礼品城</v>
       </c>
       <c r="D186" t="str">
-        <v>月销 6</v>
+        <v>月销 138</v>
       </c>
       <c r="E186" t="str">
         <v/>
@@ -3544,16 +3544,16 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>生日礼物女生送女朋友实用闺蜜老婆特别高档妈妈高级感520情人节</v>
+        <v>实木带锁存钱罐复古藏宝箱网红储蓄罐只进不出创意成人儿童礼物</v>
       </c>
       <c r="B187" t="str">
-        <v>¥78.00¥278.00</v>
+        <v>¥36.00¥72.00</v>
       </c>
       <c r="C187" t="str">
-        <v>囧囧乐 创意礼品</v>
+        <v>格林礼坊</v>
       </c>
       <c r="D187" t="str">
-        <v>月销 102</v>
+        <v>月销 150</v>
       </c>
       <c r="E187" t="str">
         <v/>
@@ -3561,16 +3561,16 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>牡丹花瓶摆件 家居客厅电视柜两边装饰品花盘摆设 送乔迁结婚礼物</v>
+        <v>厨房置物架壁挂墙上免打孔家居用品用具微波炉挂钩小百货收纳架子</v>
       </c>
       <c r="B188" t="str">
-        <v>¥95.00¥368.00</v>
+        <v>¥10.03¥18.92</v>
       </c>
       <c r="C188" t="str">
-        <v>园味家居旗舰店</v>
+        <v>丽雅杂货店</v>
       </c>
       <c r="D188" t="str">
-        <v>月销 138</v>
+        <v>月销 1</v>
       </c>
       <c r="E188" t="str">
         <v/>
@@ -3578,16 +3578,16 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>伴手礼五一节日活动小礼品 婚庆伴手礼小礼品浪漫玫瑰香皂精油皂</v>
+        <v>厨房置物架壁挂式304不锈钢多功能收纳刀架调料用品家用大全挂架</v>
       </c>
       <c r="B189" t="str">
-        <v>¥1.00¥1.00</v>
+        <v>¥328.00¥596.00</v>
       </c>
       <c r="C189" t="str">
-        <v>喜缘礼品小店铺</v>
+        <v>loke旗舰店</v>
       </c>
       <c r="D189" t="str">
-        <v>月销 621</v>
+        <v>月销 28</v>
       </c>
       <c r="E189" t="str">
         <v/>
@@ -3595,16 +3595,16 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>态生活小黄鸭隔热手套厚厨房家用锅盖硅胶鸭嘴防烫手微波炉取碗夹</v>
+        <v>厨房置物架壁挂式304不锈钢多功能收纳挂件挂架调味调料用品刀架</v>
       </c>
       <c r="B190" t="str">
-        <v>¥9.90¥25.00</v>
+        <v>¥268.00¥576.00</v>
       </c>
       <c r="C190" t="str">
-        <v>LIVETAI 态生活</v>
+        <v>loke旗舰店</v>
       </c>
       <c r="D190" t="str">
-        <v>月销 434</v>
+        <v>月销 52</v>
       </c>
       <c r="E190" t="str">
         <v/>
@@ -3612,16 +3612,16 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>龙泉青瓷 创意摆件手工个性时尚小花器 家居装饰品水培花插花瓶</v>
+        <v>Findin原创丝绒绑带爱情结婚誓言卡新品干花致辞卡ins婚庆用品卡</v>
       </c>
       <c r="B191" t="str">
-        <v>¥6.50¥6.50</v>
+        <v>¥20.80¥20.80</v>
       </c>
       <c r="C191" t="str">
-        <v>龙泉淘青瓷精品店</v>
+        <v>BUESSI卜鲽系</v>
       </c>
       <c r="D191" t="str">
-        <v>月销 1307</v>
+        <v>月销 7</v>
       </c>
       <c r="E191" t="str">
         <v/>
@@ -3629,16 +3629,16 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>欧式黄铜化妆分类金色玻璃收纳盒桌面收化妆刷珍珠四格置物摆件</v>
+        <v>节假日大礼包生活用品套装工会慰问礼品活动庆典促销高温福利团购</v>
       </c>
       <c r="B192" t="str">
-        <v>¥10.00¥12.50</v>
+        <v>¥35.00¥35.00</v>
       </c>
       <c r="C192" t="str">
-        <v>艺居佳品</v>
+        <v>上海宝杰礼品团购批发商城</v>
       </c>
       <c r="D192" t="str">
-        <v>月销 54</v>
+        <v>月销 14</v>
       </c>
       <c r="E192" t="str">
         <v/>
@@ -3646,16 +3646,16 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>16.9元盲盒大礼包超值百货神秘福袋清仓好物4-5件套装</v>
+        <v>送朋友学生创意礼品仿真布加迪divo合金汽车模型超跑金属赛车摆件</v>
       </c>
       <c r="B193" t="str">
-        <v>¥16.90¥55.00</v>
+        <v>¥39.90¥96.00</v>
       </c>
       <c r="C193" t="str">
-        <v>嫒尚宅品旗舰店</v>
+        <v>爱车e族礼品店</v>
       </c>
       <c r="D193" t="str">
-        <v>月销 9</v>
+        <v>月销 31</v>
       </c>
       <c r="E193" t="str">
         <v/>
@@ -3663,16 +3663,16 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>客厅全实木沙发组合现代三人位北欧木质布艺沙发中式小户型沙发床</v>
+        <v>小学生奖励小礼品奖品文具创意幼儿园小朋友实用儿童生日全班礼物</v>
       </c>
       <c r="B194" t="str">
-        <v>¥980.00¥3400.00</v>
+        <v>¥9.90¥19.80</v>
       </c>
       <c r="C194" t="str">
-        <v>东尚家居</v>
+        <v>因礼美旗舰店</v>
       </c>
       <c r="D194" t="str">
-        <v>月销 117</v>
+        <v>月销 84</v>
       </c>
       <c r="E194" t="str">
         <v/>
@@ -3680,16 +3680,16 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>生日礼物女生惊喜实用礼品特别精致创意情人节闺蜜仪式感母亲礼物</v>
+        <v>公司年会礼品生日礼物送员工客户实用创意毕业端午定制logo伴手礼</v>
       </c>
       <c r="B195" t="str">
-        <v>¥72.80¥122.80</v>
+        <v>¥78.00¥78.00</v>
       </c>
       <c r="C195" t="str">
-        <v>幸福包果旗舰店</v>
+        <v>ysblballoon旗舰店</v>
       </c>
       <c r="D195" t="str">
-        <v>月销 24</v>
+        <v>月销 233</v>
       </c>
       <c r="E195" t="str">
         <v/>
@@ -3697,16 +3697,16 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>垃圾桶家用带盖厕所卫生间厨房办公室大容量客厅卧室脚踏式轻奢</v>
+        <v>伴手礼五一节日活动小礼品 婚庆伴手礼小礼品浪漫玫瑰香皂精油皂</v>
       </c>
       <c r="B196" t="str">
-        <v>¥15.90¥40.00</v>
+        <v>¥1.00¥1.00</v>
       </c>
       <c r="C196" t="str">
-        <v>好巧家居旗舰店</v>
+        <v>喜缘礼品小店铺</v>
       </c>
       <c r="D196" t="str">
-        <v>月销 5.72万</v>
+        <v>月销 598</v>
       </c>
       <c r="E196" t="str">
         <v/>
@@ -3714,16 +3714,16 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>芸绅玻璃油瓶防漏油壶酱油醋调料瓶套装厨房用品油罐家用装油瓶</v>
+        <v>糖果盘喜庆茶盘结婚庆用品红糖盘水果盘婚礼喜盘红色果盘新娘托盘</v>
       </c>
       <c r="B197" t="str">
-        <v>¥15.80¥31.60</v>
+        <v>¥7.60¥19.20</v>
       </c>
       <c r="C197" t="str">
-        <v>芸绅旗舰店</v>
+        <v>俏尚旗舰店</v>
       </c>
       <c r="D197" t="str">
-        <v>月销 5</v>
+        <v>月销 1076</v>
       </c>
       <c r="E197" t="str">
         <v/>
@@ -3731,16 +3731,16 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>糖果盘喜庆茶盘结婚庆用品红糖盘水果盘婚礼喜盘红色果盘新娘托盘</v>
+        <v>厨房旋转式置物架多功能调味料用品大全收纳盒塑料佐料瓶收纳盒盘</v>
       </c>
       <c r="B198" t="str">
-        <v>¥7.60¥19.20</v>
+        <v>¥19.50¥39.00</v>
       </c>
       <c r="C198" t="str">
-        <v>俏尚旗舰店</v>
+        <v>小优百货店</v>
       </c>
       <c r="D198" t="str">
-        <v>月销 1148</v>
+        <v>月销 0</v>
       </c>
       <c r="E198" t="str">
         <v/>
@@ -3748,16 +3748,16 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>娘家结婚庆用品大全女方物品新娘全套陪嫁脸盆婚礼嫁妆盆洗漱套装</v>
+        <v>玩具反斗城CASDON戴森儿童吸尘器无绳吸尘器过家家仿真玩具922148</v>
       </c>
       <c r="B199" t="str">
-        <v>¥38.22¥836.00</v>
+        <v>¥349.00¥599.00</v>
       </c>
       <c r="C199" t="str">
-        <v>菲寻家居旗舰店</v>
+        <v>玩具反斗城旗舰店</v>
       </c>
       <c r="D199" t="str">
-        <v>月销 1581</v>
+        <v>月销 65</v>
       </c>
       <c r="E199" t="str">
         <v/>
@@ -3765,16 +3765,16 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>幼儿园毕业纪念品实用小学生奖励小礼品10元以下定制logo六一礼物</v>
+        <v>地推活动网红小礼品扫码引流赠品儿童礼物送女学生装饰品义乌货源</v>
       </c>
       <c r="B200" t="str">
-        <v>¥7.80¥8.80</v>
+        <v>¥13.00¥13.00</v>
       </c>
       <c r="C200" t="str">
-        <v>辰礼商贸礼品定制</v>
+        <v>尚耀精品店</v>
       </c>
       <c r="D200" t="str">
-        <v>月销 139</v>
+        <v>月销 1</v>
       </c>
       <c r="E200" t="str">
         <v/>
@@ -3782,16 +3782,16 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>手心里 樱花少女心金属书签古典中国风定制创意教师节礼物纪念品</v>
+        <v>小鸭子存钱罐可存可取女生创意可爱储蓄罐防摔儿童硬币卡通零钱罐</v>
       </c>
       <c r="B201" t="str">
-        <v>¥99.00¥99.00</v>
+        <v>¥29.80¥59.60</v>
       </c>
       <c r="C201" t="str">
-        <v>手心里旗舰店</v>
+        <v>壹亭生活社</v>
       </c>
       <c r="D201" t="str">
-        <v>月销 34</v>
+        <v>月销 50</v>
       </c>
       <c r="E201" t="str">
         <v/>
@@ -3799,16 +3799,16 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>公司开业赠品小礼品定制logo小学生奖励小礼品夏季礼品10元六一</v>
+        <v>DIY儿童密码箱可存可取储蓄罐六一儿童节礼物女孩网红防摔存钱罐</v>
       </c>
       <c r="B202" t="str">
-        <v>¥10.80¥2.80</v>
+        <v>¥36.00¥176.00</v>
       </c>
       <c r="C202" t="str">
-        <v>辰品商务定制批发</v>
+        <v>哲奇旗舰店</v>
       </c>
       <c r="D202" t="str">
-        <v>月销 490</v>
+        <v>月销 77</v>
       </c>
       <c r="E202" t="str">
         <v/>
@@ -3816,16 +3816,16 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>利威零食茶叶奶粉保鲜封口夹调味品密封夹塑料袋防潮密封棒盒装</v>
+        <v>送男朋友礼物仿真1:12川崎摩托Kawasaki NINJA H2R摩托车合金模型</v>
       </c>
       <c r="B203" t="str">
-        <v>¥9.90¥12.90</v>
+        <v>¥88.00¥176.00</v>
       </c>
       <c r="C203" t="str">
-        <v>wiselive利威旗舰店</v>
+        <v>爱车e族礼品店</v>
       </c>
       <c r="D203" t="str">
-        <v>月销 10</v>
+        <v>月销 4</v>
       </c>
       <c r="E203" t="str">
         <v/>
@@ -3833,16 +3833,16 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>麦麦结婚庆用品一次性水杯纸杯子喜庆婚宴敬茶杯婚礼红色纸杯加厚</v>
+        <v>水气球抖音神器玩打水仗自动快速水弹儿童生日注水水球小玩具夏天</v>
       </c>
       <c r="B204" t="str">
-        <v>¥4.50¥27.00</v>
+        <v>¥9.90¥16.50</v>
       </c>
       <c r="C204" t="str">
-        <v>麦麦家居专营</v>
+        <v>集甜社</v>
       </c>
       <c r="D204" t="str">
-        <v>月销 27</v>
+        <v>月销 10</v>
       </c>
       <c r="E204" t="str">
         <v/>
@@ -3850,16 +3850,16 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>创意小玩意家居厨房日常卫生间用品用具懒人家庭生活日用品小百货</v>
+        <v>迷你小香皂礼盒开业活动小礼品结婚礼伴手礼地推实用赠品一元礼物</v>
       </c>
       <c r="B205" t="str">
-        <v>¥22.10¥30.28</v>
+        <v>¥0.75¥1.00</v>
       </c>
       <c r="C205" t="str">
-        <v>嘉瑞得旗舰店</v>
+        <v>甜心喜铺店</v>
       </c>
       <c r="D205" t="str">
-        <v>月销 24</v>
+        <v>月销 2337</v>
       </c>
       <c r="E205" t="str">
         <v/>
@@ -3867,16 +3867,16 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>沙发科技布北欧小户型客厅现代简约布艺单人双人三人简易卧室公寓</v>
+        <v>正品染色剂衣服染料不褪色纯黑色翻新家用衣物裤子不掉色修复还原</v>
       </c>
       <c r="B206" t="str">
-        <v>¥209.00¥418.00</v>
+        <v>¥8.70¥8.70</v>
       </c>
       <c r="C206" t="str">
-        <v>椅研堂旗舰店</v>
+        <v>克拉米朵旗舰店</v>
       </c>
       <c r="D206" t="str">
-        <v>月销 562</v>
+        <v>月销 1.34万</v>
       </c>
       <c r="E206" t="str">
         <v/>
@@ -3884,16 +3884,16 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>创意六一学生小礼品定制名字学习奖励小孩全班活动礼物生日伴手礼</v>
+        <v>61六一儿童节礼物伴手礼品手工曲奇饼干礼盒装网红零食礼包高颜值</v>
       </c>
       <c r="B207" t="str">
-        <v>¥3.80¥4.50</v>
+        <v>¥24.90¥74.90</v>
       </c>
       <c r="C207" t="str">
-        <v>萌芽创意礼品定制店</v>
+        <v>爱甜品食品</v>
       </c>
       <c r="D207" t="str">
-        <v>月销 1533</v>
+        <v>月销 869</v>
       </c>
       <c r="E207" t="str">
         <v/>
@@ -3901,16 +3901,16 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>公司活动小礼物商务礼品实用创意毛巾礼盒定制奖品员工生日伴手礼</v>
+        <v>读书架书夹阅读架看书架儿童小学生简约桌上临帖架成人多功能创意简易支架学生用夹书器书支架书立架书靠书挡</v>
       </c>
       <c r="B208" t="str">
-        <v>¥19.80¥39.60</v>
+        <v>¥59.00¥125.00</v>
       </c>
       <c r="C208" t="str">
-        <v>彩雲姑娘创意礼品屋</v>
+        <v>不二礼坊定制旗舰店</v>
       </c>
       <c r="D208" t="str">
-        <v>月销 55</v>
+        <v>月销 16</v>
       </c>
       <c r="E208" t="str">
         <v/>
@@ -3918,16 +3918,16 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>幼儿园奖品地推扫码微商吸粉小礼品开业活动小学生一元以下</v>
+        <v>国庆节公司企业赠送客户开业地推广告创意实用宣传小礼品定制LOGO</v>
       </c>
       <c r="B209" t="str">
-        <v>¥9.80¥12.80</v>
+        <v>¥1.40¥1.40</v>
       </c>
       <c r="C209" t="str">
-        <v>童童玩具百货批发</v>
+        <v>东胜礼品批发</v>
       </c>
       <c r="D209" t="str">
-        <v>月销 28</v>
+        <v>月销 11</v>
       </c>
       <c r="E209" t="str">
         <v/>
@@ -3935,16 +3935,16 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>ins网红夏季纯色冰丝四件套裸睡空调被薄夏凉被水洗真丝床上用品4</v>
+        <v>生日礼物女礼物女生有意义礼品同学考研的走心同事少女心毕业实用</v>
       </c>
       <c r="B210" t="str">
-        <v>¥78.00¥98.00</v>
+        <v>¥30.80¥53.00</v>
       </c>
       <c r="C210" t="str">
-        <v>富梦妮家纺</v>
+        <v>有创礼品高端定制</v>
       </c>
       <c r="D210" t="str">
-        <v>月销 600</v>
+        <v>月销 167</v>
       </c>
       <c r="E210" t="str">
         <v/>
@@ -3952,16 +3952,16 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>不锈钢刀架厨房用品置物架家用大全多功能筷子笼砧板菜刀具收纳架</v>
+        <v>活动精美小礼品创意实用定制促销印logo幼儿园儿童节赠品学生六一</v>
       </c>
       <c r="B211" t="str">
-        <v>¥19.80¥28.00</v>
+        <v>¥2.86¥3.00</v>
       </c>
       <c r="C211" t="str">
-        <v>永诚家居店</v>
+        <v>喜福瓷</v>
       </c>
       <c r="D211" t="str">
-        <v>月销 4337</v>
+        <v>月销 719</v>
       </c>
       <c r="E211" t="str">
         <v/>
@@ -3969,16 +3969,16 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>实用生日礼品小家电定制logo送客户员工护士节礼物纪念品活动奖品</v>
+        <v>白色蜡烛家用照明无烟耐烧普通长杆蜡烛应急蜡烛大号停电生日蜡烛</v>
       </c>
       <c r="B212" t="str">
-        <v>¥48.00¥93.00</v>
+        <v>¥6.86¥12.25</v>
       </c>
       <c r="C212" t="str">
-        <v>鹏林旗舰店</v>
+        <v>索美家居旗舰店</v>
       </c>
       <c r="D212" t="str">
-        <v>月销 12</v>
+        <v>月销 283</v>
       </c>
       <c r="E212" t="str">
         <v/>
@@ -3986,16 +3986,16 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>态生活 ins北欧仿真花花束客厅餐桌摆设家居装饰假花花艺套装摆件</v>
+        <v>包邮创意小清新可爱卡通公主磁铁磁性书签学生用文具女小礼品</v>
       </c>
       <c r="B213" t="str">
-        <v>¥12.00¥12.00</v>
+        <v>¥9.90¥9.90</v>
       </c>
       <c r="C213" t="str">
-        <v>LIVETAI 态生活</v>
+        <v>全店满28元包邮</v>
       </c>
       <c r="D213" t="str">
-        <v>月销 672</v>
+        <v>月销 216</v>
       </c>
       <c r="E213" t="str">
         <v/>
@@ -4003,16 +4003,16 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>六一儿童节礼物小礼品定制幼儿园小朋友生日伴手礼碗餐具套装礼盒</v>
+        <v>结婚庆用品中式婚礼秀禾服大红盖头婚礼新娘蒙头高档红色蒙头纱巾</v>
       </c>
       <c r="B214" t="str">
-        <v>¥2.10¥2.20</v>
+        <v>¥9.80¥9.80</v>
       </c>
       <c r="C214" t="str">
-        <v>湖蓝玩具 幼儿园儿童六一礼物存钱罐礼品批发</v>
+        <v>盛缘婚庆用品批发</v>
       </c>
       <c r="D214" t="str">
-        <v>月销 336</v>
+        <v>月销 5</v>
       </c>
       <c r="E214" t="str">
         <v/>
@@ -4020,16 +4020,16 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>送女生生日礼物高级感闺蜜仪式感实用的小众520情人节礼品送女友</v>
+        <v>快乐小熊 *叭叭兔的礼物店*情人节可爱生日礼品送女朋友男闺蜜</v>
       </c>
       <c r="B215" t="str">
-        <v>¥65.00¥136.00</v>
+        <v>¥9.90¥9.90</v>
       </c>
       <c r="C215" t="str">
-        <v>西府旗舰店</v>
+        <v>叭叭兔的礼物店</v>
       </c>
       <c r="D215" t="str">
-        <v>月销 1218</v>
+        <v>月销 18</v>
       </c>
       <c r="E215" t="str">
         <v/>
@@ -4037,16 +4037,16 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>厨房置物架壁挂式挂杆挂件刀架调料架筷子架黑墙上免打孔收纳架子</v>
+        <v>娘家结婚庆用品大全女方物品新娘全套陪嫁脸盆婚礼嫁妆盆洗漱套装</v>
       </c>
       <c r="B216" t="str">
-        <v>¥21.00¥138.00</v>
+        <v>¥39.00¥836.00</v>
       </c>
       <c r="C216" t="str">
-        <v>emuse伊沐馨旗舰店</v>
+        <v>菲寻家居旗舰店</v>
       </c>
       <c r="D216" t="str">
-        <v>月销 565</v>
+        <v>月销 1512</v>
       </c>
       <c r="E216" t="str">
         <v/>
@@ -4054,16 +4054,16 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>货架厨房用品家用大全置物架不锈钢锅架微波炉架落地式多层带围栏</v>
+        <v>碗架沥水碗架大号碗架厨房用品沥水碗架厨房碗盘置物架碟厨房置物</v>
       </c>
       <c r="B217" t="str">
-        <v>¥174.00¥316.00</v>
+        <v>¥16.90¥16.90</v>
       </c>
       <c r="C217" t="str">
-        <v>恒润置物架</v>
+        <v>dullbear旗舰店</v>
       </c>
       <c r="D217" t="str">
-        <v>月销 39</v>
+        <v>月销 1</v>
       </c>
       <c r="E217" t="str">
         <v/>
@@ -4071,16 +4071,16 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>生日礼物女礼物女生有意义礼品同学考研的走心同事少女心毕业实用</v>
+        <v>儿童小孩义乌玩具新款热卖广场发光小玩具创意礼品夜市摆地摊货源</v>
       </c>
       <c r="B218" t="str">
-        <v>¥30.80¥53.00</v>
+        <v>¥0.09¥0.79</v>
       </c>
       <c r="C218" t="str">
-        <v>有创礼品高端定制</v>
+        <v>秃秃玩具批发 满8元包邮</v>
       </c>
       <c r="D218" t="str">
-        <v>月销 147</v>
+        <v>月销 18</v>
       </c>
       <c r="E218" t="str">
         <v/>
@@ -4088,16 +4088,16 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>中国国家博物馆杏林春燕创意首饰耳钉胸针手镯项链女生日520礼物</v>
+        <v>不锈钢刀架厨房用品置物架家用大全多功能筷子笼砧板菜刀具收纳架</v>
       </c>
       <c r="B219" t="str">
-        <v>¥180.00¥742.00</v>
+        <v>¥19.80¥28.00</v>
       </c>
       <c r="C219" t="str">
-        <v>中国国家博物馆旗舰店</v>
+        <v>永诚家居店</v>
       </c>
       <c r="D219" t="str">
-        <v>月销 97</v>
+        <v>月销 4283</v>
       </c>
       <c r="E219" t="str">
         <v/>
@@ -4105,16 +4105,16 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>柠檬锤压汁棒套装压汁棒奶茶店用品不锈钢捣棒锤碎冰锤水果捣汁棒</v>
+        <v>地推活动小礼品儿童幼儿园奖品微商吸粉小学生创意实用六一小礼品</v>
       </c>
       <c r="B220" t="str">
-        <v>¥3.01¥7.68</v>
+        <v>¥0.10¥0.20</v>
       </c>
       <c r="C220" t="str">
-        <v>瑞淇餐饮器具</v>
+        <v>希梓睿益智文教</v>
       </c>
       <c r="D220" t="str">
-        <v>月销 3233</v>
+        <v>月销 20</v>
       </c>
       <c r="E220" t="str">
         <v/>
@@ -4122,16 +4122,16 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>84漂白修复衣服染料补色修复液还原剂染色剂黑衣服褪色增色</v>
+        <v>公司活动礼品定制印logo企业创意商务年会店庆赠送客户纪念品套装</v>
       </c>
       <c r="B221" t="str">
-        <v>¥28.00¥39.00</v>
+        <v>¥62.00¥162.00</v>
       </c>
       <c r="C221" t="str">
-        <v>我结婚旗舰店</v>
+        <v>电子礼品专柜</v>
       </c>
       <c r="D221" t="str">
-        <v>月销 120</v>
+        <v>月销 41</v>
       </c>
       <c r="E221" t="str">
         <v/>
@@ -4139,16 +4139,16 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>女孩子生日礼物儿童创意小学生奖励小礼品女童实用高档伴手礼盒装</v>
+        <v>16.9元盲盒大礼包超值百货神秘福袋清仓好物4-5件套装</v>
       </c>
       <c r="B222" t="str">
-        <v>¥258.00¥258.00</v>
+        <v>¥16.90¥55.00</v>
       </c>
       <c r="C222" t="str">
-        <v>礼遇小铺</v>
+        <v>嫒尚宅品旗舰店</v>
       </c>
       <c r="D222" t="str">
-        <v>月销 2</v>
+        <v>月销 9</v>
       </c>
       <c r="E222" t="str">
         <v/>
@@ -4156,16 +4156,16 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>【9.9/19.9/59.9】3档福利价详情页领券享秒杀价！每晚20:00开抢</v>
+        <v>儿童日记本幼儿园可爱创意小学生手帐带笔记本礼物礼品记事本2合1</v>
       </c>
       <c r="B223" t="str">
-        <v>¥19.90¥19.90</v>
+        <v>¥3.00¥3.00</v>
       </c>
       <c r="C223" t="str">
-        <v>物兮物旗舰店</v>
+        <v>尚顶新文具批发城</v>
       </c>
       <c r="D223" t="str">
-        <v>月销 57</v>
+        <v>月销 4</v>
       </c>
       <c r="E223" t="str">
         <v/>
@@ -4173,16 +4173,16 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>正品染色剂衣服染料不褪色纯黑色翻新家用衣物裤子不掉色修复还原</v>
+        <v>六一儿童节可爱太阳花啪啪圈创意毛绒卡通公仔毕业礼物少女心手环</v>
       </c>
       <c r="B224" t="str">
-        <v>¥8.70¥8.70</v>
+        <v>¥6.80¥12.80</v>
       </c>
       <c r="C224" t="str">
-        <v>克拉米朵旗舰店</v>
+        <v>犀城旗舰店</v>
       </c>
       <c r="D224" t="str">
-        <v>月销 1.42万</v>
+        <v>月销 232</v>
       </c>
       <c r="E224" t="str">
         <v/>
@@ -4190,16 +4190,16 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>恒生源粒粒硬正品一粒宝玛卡助性阳男人专用性品口服持硬男挺玛咖</v>
+        <v>生日礼物女生送女朋友实用闺蜜老婆特别高档妈妈高级感520情人节</v>
       </c>
       <c r="B225" t="str">
-        <v>¥88.00¥188.00</v>
+        <v>¥78.00¥278.00</v>
       </c>
       <c r="C225" t="str">
-        <v>元龙保健品</v>
+        <v>囧囧乐 创意礼品</v>
       </c>
       <c r="D225" t="str">
-        <v>月销 168</v>
+        <v>月销 102</v>
       </c>
       <c r="E225" t="str">
         <v/>
@@ -4207,16 +4207,16 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>美式仿真鹿头鹿角壁挂壁饰家居客厅玄关酒吧会所KTV网红墙面装饰</v>
+        <v>幼儿园小礼物创意小朋友生日小礼品实用儿童卡通透明存钱罐定制</v>
       </c>
       <c r="B226" t="str">
-        <v>¥178.10¥274.00</v>
+        <v>¥3.20¥5.70</v>
       </c>
       <c r="C226" t="str">
-        <v>晨杰时尚家饰 个性定制</v>
+        <v>墨图礼品六一礼物幼儿园儿童小礼品存钱罐定制批发</v>
       </c>
       <c r="D226" t="str">
-        <v>月销 6</v>
+        <v>月销 69</v>
       </c>
       <c r="E226" t="str">
         <v/>
@@ -4224,16 +4224,16 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>迪士尼官方 冰雪奇缘2艾莎女王安娜公主唱歌娃娃可发声玩偶娃娃</v>
+        <v>生日礼物女生旅行淡香水日历礼盒送闺蜜创意实用女朋友六一儿童节</v>
       </c>
       <c r="B227" t="str">
-        <v>¥179.00¥199.00</v>
+        <v>¥138.00¥180.00</v>
       </c>
       <c r="C227" t="str">
-        <v>disney迪士尼时尚旗舰店</v>
+        <v>玩一局</v>
       </c>
       <c r="D227" t="str">
-        <v>月销 70</v>
+        <v>月销 426</v>
       </c>
       <c r="E227" t="str">
         <v/>
@@ -4241,16 +4241,16 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>重庆食用干冰冷饮火锅酒吧KTV舞台婚庆医用运输（特）20斤66.66元</v>
+        <v>凤凰滑板车儿童2-3-6-8-12-14岁加大号宝宝小孩踏板溜带坐座折叠</v>
       </c>
       <c r="B228" t="str">
-        <v>¥2.90¥2.90</v>
+        <v>¥99.00¥198.00</v>
       </c>
       <c r="C228" t="str">
-        <v>成都食品级干冰厂</v>
+        <v>凤凰童车直销店</v>
       </c>
       <c r="D228" t="str">
-        <v>月销 21</v>
+        <v>月销 1960</v>
       </c>
       <c r="E228" t="str">
         <v/>
@@ -4258,16 +4258,16 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>艾品楠竹刀架厨房用品菜刀架刀座收纳刀具架子筷子架多功能置物架</v>
+        <v>网红中国风送给女朋友特别走心生日情人节520礼物老婆实用仪式感</v>
       </c>
       <c r="B229" t="str">
-        <v>¥19.00¥38.00</v>
+        <v>¥118.00¥376.00</v>
       </c>
       <c r="C229" t="str">
-        <v>艾品旗舰店</v>
+        <v>檬派旗舰店</v>
       </c>
       <c r="D229" t="str">
-        <v>月销 99</v>
+        <v>月销 31</v>
       </c>
       <c r="E229" t="str">
         <v/>
@@ -4275,16 +4275,16 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>结婚喜庆 婚宴用品 酒红色亚克力双喜敬茶托盘水果盘糖果瓜子盘</v>
+        <v>网红存钱罐创意儿童保险柜防摔女孩可爱男孩可存可取密码箱储蓄罐</v>
       </c>
       <c r="B230" t="str">
-        <v>¥9.60¥24.60</v>
+        <v>¥19.90¥119.00</v>
       </c>
       <c r="C230" t="str">
-        <v>锐焱家居专营店</v>
+        <v>归遇品牌店</v>
       </c>
       <c r="D230" t="str">
-        <v>月销 98</v>
+        <v>月销 647</v>
       </c>
       <c r="E230" t="str">
         <v/>
@@ -4292,16 +4292,16 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>一件代发小礼品单1到2元小商品AB补单专用申通快递员真实物流包邮</v>
+        <v>晨光橡皮擦小学生用米菲4B铅笔橡皮考试2b橡皮少屑不留痕创意卡通可爱象皮美术素描擦皮文具用品礼品盒装批发</v>
       </c>
       <c r="B231" t="str">
-        <v>¥1.45¥1.45</v>
+        <v>¥9.90¥18.00</v>
       </c>
       <c r="C231" t="str">
-        <v>madderanny99的小店</v>
+        <v>凡禾文具专营店</v>
       </c>
       <c r="D231" t="str">
-        <v>月销 270</v>
+        <v>月销 40</v>
       </c>
       <c r="E231" t="str">
         <v/>
@@ -4309,16 +4309,16 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>旅游酒店居家用品防风晾衣夹旅行晾晒毛巾衣服袜子塑料衣夹子带绳</v>
+        <v>六一儿童节礼物小礼品定制幼儿园小朋友生日伴手礼碗餐具套装礼盒</v>
       </c>
       <c r="B232" t="str">
-        <v>¥0.38¥0.50</v>
+        <v>¥2.10¥2.20</v>
       </c>
       <c r="C232" t="str">
-        <v>居家乐日用家居商城</v>
+        <v>湖蓝玩具 幼儿园儿童六一礼物存钱罐礼品批发</v>
       </c>
       <c r="D232" t="str">
-        <v>月销 1</v>
+        <v>月销 356</v>
       </c>
       <c r="E232" t="str">
         <v/>
@@ -4326,16 +4326,16 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>520情人节生日礼物男生送给男友朋友老公实用暖心特别走心的毕业</v>
+        <v>创意可爱书签卡通纸质清新女孩动物教师奖励小学生用送小礼物礼品</v>
       </c>
       <c r="B233" t="str">
-        <v>¥32.80¥65.60</v>
+        <v>¥9.90¥14.71</v>
       </c>
       <c r="C233" t="str">
-        <v>可爱可杯礼品店</v>
+        <v>憨逗大叔</v>
       </c>
       <c r="D233" t="str">
-        <v>月销 15</v>
+        <v>月销 147</v>
       </c>
       <c r="E233" t="str">
         <v/>
@@ -4343,16 +4343,16 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>520情人节礼物送女友diy手工制作小汽车创意六一儿童节礼品送孩子</v>
+        <v>六一文具盲盒笔奖励盲袋套装礼盒套盒盲礼品礼物小学生儿童学习用品女创意可爱少女心批发网红开学期末大礼包</v>
       </c>
       <c r="B234" t="str">
-        <v>¥22.00¥46.00</v>
+        <v>¥7.80¥15.00</v>
       </c>
       <c r="C234" t="str">
-        <v>巧之匠旗舰店</v>
+        <v>迪斯熊文具旗舰店</v>
       </c>
       <c r="D234" t="str">
-        <v>月销 75</v>
+        <v>月销 388</v>
       </c>
       <c r="E234" t="str">
         <v/>
@@ -4360,16 +4360,16 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>大学生宿舍好物生活用品小百货家用大全男女生寝室收纳住校生神器</v>
+        <v>天气预报瓶风暴瓶实用生日六一儿童节520情人节礼物送女友男朋友</v>
       </c>
       <c r="B235" t="str">
-        <v>¥7.95¥15.90</v>
+        <v>¥28.00¥45.00</v>
       </c>
       <c r="C235" t="str">
-        <v>添合百货店</v>
+        <v>暖橙耀耀旗舰店</v>
       </c>
       <c r="D235" t="str">
-        <v>月销 0</v>
+        <v>月销 40</v>
       </c>
       <c r="E235" t="str">
         <v/>
@@ -4377,16 +4377,16 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>一件代发小礼品单1到2元电商AB单专用韵达中通快递员真实物流包邮</v>
+        <v>实用生日礼品小家电定制logo送客户员工护士节礼物纪念品活动奖品</v>
       </c>
       <c r="B236" t="str">
-        <v>¥0.95¥0.95</v>
+        <v>¥48.00¥93.00</v>
       </c>
       <c r="C236" t="str">
-        <v>17云仓</v>
+        <v>鹏林旗舰店</v>
       </c>
       <c r="D236" t="str">
-        <v>月销 563</v>
+        <v>月销 11</v>
       </c>
       <c r="E236" t="str">
         <v/>
@@ -4394,16 +4394,16 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>微商地推礼品批发包邮活动创意益智学生礼物小玩具儿童幼儿园奖品</v>
+        <v>结婚脸盆红盆女方陪嫁新娘嫁妆洗漱用品红色脸盆搪瓷婚庆结婚喜盆</v>
       </c>
       <c r="B237" t="str">
-        <v>¥15.80¥25.00</v>
+        <v>¥9.65¥20.40</v>
       </c>
       <c r="C237" t="str">
-        <v>童童玩具百货批发</v>
+        <v>天天庆典</v>
       </c>
       <c r="D237" t="str">
-        <v>月销 8</v>
+        <v>月销 374</v>
       </c>
       <c r="E237" t="str">
         <v/>
@@ -4411,16 +4411,16 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>六一儿童节礼物生日礼物女生女孩子送女童10女儿12十岁小学生实用</v>
+        <v>中国国家博物馆百鹿真丝双面印花大方巾窄丝巾防晒520礼物送女士</v>
       </c>
       <c r="B238" t="str">
-        <v>¥56.00¥112.00</v>
+        <v>¥145.00¥145.00</v>
       </c>
       <c r="C238" t="str">
-        <v>四月诗约旗舰店</v>
+        <v>中国国家博物馆旗舰店</v>
       </c>
       <c r="D238" t="str">
-        <v>月销 18</v>
+        <v>月销 48</v>
       </c>
       <c r="E238" t="str">
         <v/>
@@ -4428,16 +4428,16 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>微商地推小礼品批發2019小猪发泄整人捏叫恶搞减压玩具一元小商品</v>
+        <v>懒角落创意家居生活馆小百货家庭卫生间收纳架居家生活日用品实用</v>
       </c>
       <c r="B239" t="str">
-        <v>¥0.48¥1.00</v>
+        <v>¥23.94¥23.94</v>
       </c>
       <c r="C239" t="str">
-        <v>好印象百货礼品</v>
+        <v>初遇线上杂货铺</v>
       </c>
       <c r="D239" t="str">
-        <v>月销 32</v>
+        <v>月销 0</v>
       </c>
       <c r="E239" t="str">
         <v/>
@@ -4445,16 +4445,16 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>活动小礼品定制logo儿童创意实用开业赠品3元以下地推宣传小礼物</v>
+        <v>重庆食用干冰冷饮火锅酒吧KTV舞台婚庆医用运输（特）20斤66.66元</v>
       </c>
       <c r="B240" t="str">
-        <v>¥1.00¥1.80</v>
+        <v>¥2.90¥2.90</v>
       </c>
       <c r="C240" t="str">
-        <v>墨图礼品六一礼物幼儿园儿童小礼品存钱罐定制批发</v>
+        <v>成都食品级干冰厂</v>
       </c>
       <c r="D240" t="str">
-        <v>月销 25</v>
+        <v>月销 22</v>
       </c>
       <c r="E240" t="str">
         <v/>
@@ -4462,16 +4462,16 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>安妮宝贝小天使摆件家居创意桌面可爱少女心蛋糕装饰品生日礼物女</v>
+        <v>儿童沙漏计时器3/5/10/20/30/60分钟吃饭防摔时间流沙瓶毕业礼物</v>
       </c>
       <c r="B241" t="str">
-        <v>¥18.00¥36.00</v>
+        <v>¥4.99¥4.99</v>
       </c>
       <c r="C241" t="str">
-        <v>壹亭生活社</v>
+        <v>梁家精致家居工艺品</v>
       </c>
       <c r="D241" t="str">
-        <v>月销 1237</v>
+        <v>月销 1.11万</v>
       </c>
       <c r="E241" t="str">
         <v/>
@@ -4479,16 +4479,16 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>结婚女方陪嫁喜盆脸盆婚庆用品套装聚宝盆婚礼红色喜字一对洗脸盆</v>
+        <v>晨光喵来运转喵力星球盲盒笔中性笔全套中学生限量版限定文具奖品</v>
       </c>
       <c r="B242" t="str">
-        <v>¥8.00¥15.00</v>
+        <v>¥5.00¥14.14</v>
       </c>
       <c r="C242" t="str">
-        <v>我家喜坊weddinghouse</v>
+        <v>幸福一家人文具生活馆</v>
       </c>
       <c r="D242" t="str">
-        <v>月销 228</v>
+        <v>月销 14</v>
       </c>
       <c r="E242" t="str">
         <v/>
@@ -4496,16 +4496,16 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>不锈钢带围栏储物架五层家用厨房用品大全落地多层置物架5层收纳4</v>
+        <v>礼物女生生日闺蜜送妈妈实用高级小众礼品仪式感母亲节520创意</v>
       </c>
       <c r="B243" t="str">
-        <v>¥249.00¥529.00</v>
+        <v>¥28.80¥57.60</v>
       </c>
       <c r="C243" t="str">
-        <v>恒润置物架</v>
+        <v>叁茗旗舰店</v>
       </c>
       <c r="D243" t="str">
-        <v>月销 119</v>
+        <v>月销 10</v>
       </c>
       <c r="E243" t="str">
         <v/>
@@ -4513,16 +4513,16 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>热卖鲤鱼旗流苏儿童玩具风帆饰品导游旗日本和风幡料理店装饰彩旗</v>
+        <v>幼儿园儿童节日礼物开学毕业礼生日礼品全班分享回礼伴手礼小奖品</v>
       </c>
       <c r="B244" t="str">
-        <v>¥8.80¥8.80</v>
+        <v>¥11.50¥23.00</v>
       </c>
       <c r="C244" t="str">
-        <v>老爸户外休闲馆</v>
+        <v>赞赞家 益智早教玩具铺</v>
       </c>
       <c r="D244" t="str">
-        <v>月销 350</v>
+        <v>月销 53</v>
       </c>
       <c r="E244" t="str">
         <v/>
@@ -4530,16 +4530,16 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>幼儿园玩具礼物小礼品全班分享给送儿童小朋友生日伴手礼学生奖励</v>
+        <v>生日礼物送女生女友朋友给老婆的创意实用意义惊喜轻奢520情人节</v>
       </c>
       <c r="B245" t="str">
-        <v>¥4.20¥6.80</v>
+        <v>¥98.00¥888.00</v>
       </c>
       <c r="C245" t="str">
-        <v>鸳鸯阁礼品</v>
+        <v>富安德旗舰店</v>
       </c>
       <c r="D245" t="str">
-        <v>月销 31</v>
+        <v>月销 38</v>
       </c>
       <c r="E245" t="str">
         <v/>
@@ -4547,16 +4547,16 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>母亲节送长辈礼物送妈妈生日礼品情人节实用大气给婆婆惊喜高档</v>
+        <v>开业活动小礼品碗套装实用公司促销创意精美送礼物宣传定制印LOGO</v>
       </c>
       <c r="B246" t="str">
-        <v>¥98.00¥196.00</v>
+        <v>¥2.28¥2.28</v>
       </c>
       <c r="C246" t="str">
-        <v>何熙熙珠宝旗舰店</v>
+        <v>佰润汇礼品陶瓷有限公司</v>
       </c>
       <c r="D246" t="str">
-        <v>月销 197</v>
+        <v>月销 9</v>
       </c>
       <c r="E246" t="str">
         <v/>
@@ -4564,16 +4564,16 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>苏州博物馆 贝聿铭的建筑密码立体书创意3D立体书套装生日礼物</v>
+        <v>送闺蜜生日礼物女生创意实用护士伴手礼女伴娘高档520情人节女友</v>
       </c>
       <c r="B247" t="str">
-        <v>¥362.00¥579.00</v>
+        <v>¥48.00¥96.00</v>
       </c>
       <c r="C247" t="str">
-        <v>苏州博物馆旗舰店</v>
+        <v>爱聪旗舰店</v>
       </c>
       <c r="D247" t="str">
-        <v>月销 641</v>
+        <v>月销 274</v>
       </c>
       <c r="E247" t="str">
         <v/>
@@ -4581,16 +4581,16 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>幼儿园儿童生日礼物小朋友分享礼回礼开学季毕业纪念礼创意小奖品</v>
+        <v>生日礼物女送女友闺蜜女生实用的可爱小精致创意520朋友摆件小众</v>
       </c>
       <c r="B248" t="str">
-        <v>¥12.50¥25.00</v>
+        <v>¥19.90¥176.00</v>
       </c>
       <c r="C248" t="str">
-        <v>赞赞家 益智早教玩具铺</v>
+        <v>迈格家居旗舰店</v>
       </c>
       <c r="D248" t="str">
-        <v>月销 734</v>
+        <v>月销 847</v>
       </c>
       <c r="E248" t="str">
         <v/>
@@ -4598,16 +4598,16 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>泰摩栗子C2 手摇咖啡磨豆机器具意式手动研磨机手冲单品家用手磨</v>
+        <v>迪士尼冰雪奇缘艾莎指纹存钱罐儿童储蓄罐密码箱创意玩具生日礼物</v>
       </c>
       <c r="B249" t="str">
-        <v>¥288.00¥598.00</v>
+        <v>¥55.00¥170.00</v>
       </c>
       <c r="C249" t="str">
-        <v>泰摩旗舰店</v>
+        <v>反斗奇兵乐趣</v>
       </c>
       <c r="D249" t="str">
-        <v>月销 2238</v>
+        <v>月销 141</v>
       </c>
       <c r="E249" t="str">
         <v/>
@@ -4615,16 +4615,16 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>厨房置物架免打孔壁挂式家用调味料用品大全刀架筷子篓笼墙上收纳</v>
+        <v>520情人节生日礼物女生送女友朋友给老婆惊喜的实用高档实用纪念</v>
       </c>
       <c r="B250" t="str">
-        <v>¥16.00¥58.00</v>
+        <v>¥158.00¥888.00</v>
       </c>
       <c r="C250" t="str">
-        <v>奥佐旗舰店</v>
+        <v>富安德旗舰店</v>
       </c>
       <c r="D250" t="str">
-        <v>月销 761</v>
+        <v>月销 209</v>
       </c>
       <c r="E250" t="str">
         <v/>
@@ -4632,16 +4632,16 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>电商商家专用礼品单1到2元小商品一件代发申通圆通快递员评价包邮</v>
+        <v>韩国创意文具卡通动物笔 可爱圆珠笔 伸缩笔学生奖品学习用品批发</v>
       </c>
       <c r="B251" t="str">
-        <v>¥1.40¥1.40</v>
+        <v>¥0.18¥0.45</v>
       </c>
       <c r="C251" t="str">
-        <v>998lp礼品网</v>
+        <v>柠檬茶文具批发9块9包邮</v>
       </c>
       <c r="D251" t="str">
-        <v>月销 689</v>
+        <v>月销 361</v>
       </c>
       <c r="E251" t="str">
         <v/>
@@ -4649,16 +4649,16 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>星球少女进门口玄关钥匙收纳盘家用客厅茶几桌面糖果零食收纳摆设</v>
+        <v>520情人节礼物送女友实用diy手工制作生日礼物女生伴手礼浪漫惊喜</v>
       </c>
       <c r="B252" t="str">
-        <v>¥68.00¥136.00</v>
+        <v>¥59.90¥239.60</v>
       </c>
       <c r="C252" t="str">
-        <v>原创设计师的店</v>
+        <v>巧之匠旗舰店</v>
       </c>
       <c r="D252" t="str">
-        <v>月销 40</v>
+        <v>月销 98</v>
       </c>
       <c r="E252" t="str">
         <v/>
@@ -4666,16 +4666,16 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>一件代发淘宝电商1到3元2元小礼品单真实物流包邮圆通快递员评价</v>
+        <v>520情人节礼物送女友diy手工制作小汽车创意六一儿童节礼品送孩子</v>
       </c>
       <c r="B253" t="str">
-        <v>¥1.45¥1.09</v>
+        <v>¥22.90¥46.00</v>
       </c>
       <c r="C253" t="str">
-        <v>木子礼品网</v>
+        <v>巧之匠旗舰店</v>
       </c>
       <c r="D253" t="str">
-        <v>月销 497</v>
+        <v>月销 84</v>
       </c>
       <c r="E253" t="str">
         <v/>
@@ -4683,16 +4683,16 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>520情人节创意网红高档生日礼物实用送精致女朋友闺蜜特别浪漫的</v>
+        <v>紫色可爱文具套装 百乐中性笔学生套装 斑马WKT7荧光笔小清新文艺少女心梦幻粉色系文具 女神创意礼品送礼装</v>
       </c>
       <c r="B254" t="str">
-        <v>¥98.00¥196.00</v>
+        <v>¥26.41¥29.80</v>
       </c>
       <c r="C254" t="str">
-        <v>茵月佳</v>
+        <v>贤伊办公用品专营店</v>
       </c>
       <c r="D254" t="str">
-        <v>月销 70</v>
+        <v>月销 48</v>
       </c>
       <c r="E254" t="str">
         <v/>
@@ -4700,16 +4700,16 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>抖音同款家居用品厨房用品用具小百货防风扣神器家用小东西日用品</v>
+        <v>创意幼儿园儿童卡通笔筒开学小礼品批发小学生文具铅笔套装礼盒</v>
       </c>
       <c r="B255" t="str">
-        <v>¥9.90¥12.90</v>
+        <v>¥1.30¥3.21</v>
       </c>
       <c r="C255" t="str">
-        <v>千货居家千万好货尽在千货</v>
+        <v>西京文具 九块九包邮</v>
       </c>
       <c r="D255" t="str">
-        <v>月销 7</v>
+        <v>月销 1343</v>
       </c>
       <c r="E255" t="str">
         <v/>
@@ -4717,16 +4717,16 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>故宫淘宝 琴棋书画猫桌面摆件生日创意礼物可爱旗舰店官网文创</v>
+        <v>大学生宿舍好物生活用品小百货家用大全男女生寝室收纳住校生神器</v>
       </c>
       <c r="B256" t="str">
-        <v>¥30.00¥30.00</v>
+        <v>¥7.95¥15.90</v>
       </c>
       <c r="C256" t="str">
-        <v>故宫淘宝 来自故宫的礼物 故宫博物院网店 原创设计店铺</v>
+        <v>添合百货店</v>
       </c>
       <c r="D256" t="str">
-        <v>月销 2200</v>
+        <v>月销 0</v>
       </c>
       <c r="E256" t="str">
         <v/>
@@ -4734,16 +4734,16 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>北欧简约浴室用品卫浴洗漱套装 创意家用卫生间陶瓷漱口杯肥皂盒</v>
+        <v>生日礼物送老师母亲节教师暖暖杯礼盒55度恒温杯垫保温底座小礼品</v>
       </c>
       <c r="B257" t="str">
-        <v>¥46.50¥98.00</v>
+        <v>¥38.80¥178.00</v>
       </c>
       <c r="C257" t="str">
-        <v>爱蒂可家居专营店</v>
+        <v>语彤旗舰店</v>
       </c>
       <c r="D257" t="str">
-        <v>月销 34</v>
+        <v>月销 356</v>
       </c>
       <c r="E257" t="str">
         <v/>
@@ -4751,16 +4751,16 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>公司年会礼品生日礼物送员工客户实用创意毕业端午定制logo伴手礼</v>
+        <v>开业赠品五一活动宣传小礼品定制logo幼儿园儿童六一礼物便当包</v>
       </c>
       <c r="B258" t="str">
-        <v>¥76.00¥78.00</v>
+        <v>¥4.60¥6.80</v>
       </c>
       <c r="C258" t="str">
-        <v>ysblballoon旗舰店</v>
+        <v>小时代礼品 玩具批发</v>
       </c>
       <c r="D258" t="str">
-        <v>月销 199</v>
+        <v>月销 253</v>
       </c>
       <c r="E258" t="str">
         <v/>
@@ -4768,16 +4768,16 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>香炉纯铜家用室内供佛大号沉香熏香炉檀香安神盘香茶道香薰炉用品</v>
+        <v>生日礼物女生送闺蜜少女心杂货店送女友精致创意小实用七夕情人节</v>
       </c>
       <c r="B259" t="str">
-        <v>¥29.00¥58.00</v>
+        <v>¥2.50¥3.20</v>
       </c>
       <c r="C259" t="str">
-        <v>檀宗旗舰店</v>
+        <v>枫落礼品</v>
       </c>
       <c r="D259" t="str">
-        <v>月销 21</v>
+        <v>月销 85</v>
       </c>
       <c r="E259" t="str">
         <v/>
@@ -4785,16 +4785,16 @@
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>送闺蜜生日礼物女生创意实用护士伴手礼女伴娘高档520情人节女友</v>
+        <v>结婚庆用品大全接亲恶搞小游戏创意婚礼堵门拦门新郎伴郎整蛊道具</v>
       </c>
       <c r="B260" t="str">
-        <v>¥48.00¥96.00</v>
+        <v>¥1.05¥2.10</v>
       </c>
       <c r="C260" t="str">
-        <v>爱聪旗舰店</v>
+        <v>麦麦家居专营</v>
       </c>
       <c r="D260" t="str">
-        <v>月销 259</v>
+        <v>月销 49</v>
       </c>
       <c r="E260" t="str">
         <v/>
@@ -4802,16 +4802,16 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>结婚脸盆红盆女方陪嫁新娘嫁妆洗漱用品红色脸盆搪瓷婚庆结婚喜盆</v>
+        <v>中国国家博物馆杏林春燕创意首饰耳钉胸针手镯项链女生日520礼物</v>
       </c>
       <c r="B261" t="str">
-        <v>¥9.65¥20.40</v>
+        <v>¥210.00¥742.00</v>
       </c>
       <c r="C261" t="str">
-        <v>天天庆典</v>
+        <v>中国国家博物馆旗舰店</v>
       </c>
       <c r="D261" t="str">
-        <v>月销 405</v>
+        <v>月销 112</v>
       </c>
       <c r="E261" t="str">
         <v/>
@@ -4819,16 +4819,16 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>小瓦罐底碟商用汤盅托盘煨汤厨房用品创意咖啡杯平盘菜碟家用餐盘</v>
+        <v>六一儿童节小学生奖励小礼品四五六年级奖品实用创意活动鼓励礼物</v>
       </c>
       <c r="B262" t="str">
-        <v>¥1.50¥1.50</v>
+        <v>¥16.80¥25.00</v>
       </c>
       <c r="C262" t="str">
-        <v>亿钵诚瓦缸瓦罐厂家直销</v>
+        <v>迪斯熊文具旗舰店</v>
       </c>
       <c r="D262" t="str">
-        <v>月销 11</v>
+        <v>月销 286</v>
       </c>
       <c r="E262" t="str">
         <v/>
@@ -4836,16 +4836,16 @@
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>麦麦创意结婚用品爱心喜字中式无纺布果盘婚宴道具大红喜庆糕点盘</v>
+        <v>生日礼物高级仪式感闺蜜十八岁伴手礼创意实用女生走心送伴娘女友</v>
       </c>
       <c r="B263" t="str">
-        <v>¥2.80¥5.60</v>
+        <v>¥68.00¥136.00</v>
       </c>
       <c r="C263" t="str">
-        <v>麦麦家居专营</v>
+        <v>茵月佳</v>
       </c>
       <c r="D263" t="str">
-        <v>月销 9</v>
+        <v>月销 187</v>
       </c>
       <c r="E263" t="str">
         <v/>
@@ -4853,16 +4853,16 @@
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>【特价绝版】国风京剧戏剧猫礼品礼物摆件故宫猫-超值微瑕疵特价</v>
+        <v>拉芙里手作礼品新中式婚礼伴手礼高端定制传统茶叶茶具礼盒中国风</v>
       </c>
       <c r="B264" t="str">
-        <v>¥35.00¥50.00</v>
+        <v>¥38.00¥38.00</v>
       </c>
       <c r="C264" t="str">
-        <v>故宫淘宝 来自故宫的礼物 故宫博物院网店 原创设计店铺</v>
+        <v>拉芙里手作礼品</v>
       </c>
       <c r="D264" t="str">
-        <v>月销 1468</v>
+        <v>月销 147</v>
       </c>
       <c r="E264" t="str">
         <v/>
@@ -4870,16 +4870,16 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>儿童生日派对玩具吹龙卷玩具伸缩口哨卡通吹吹卷幼儿园生日助兴</v>
+        <v>创意实用高考礼物学生奖品加油励志公司纪念品商务小礼品定制logo</v>
       </c>
       <c r="B265" t="str">
-        <v>¥5.10¥10.20</v>
+        <v>¥9.20¥19.80</v>
       </c>
       <c r="C265" t="str">
-        <v>诗而爱旗舰店</v>
+        <v>品卓好礼创卓专卖店</v>
       </c>
       <c r="D265" t="str">
-        <v>月销 84</v>
+        <v>月销 740</v>
       </c>
       <c r="E265" t="str">
         <v/>
@@ -4887,16 +4887,16 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>泡泡女孩520客厅玄关茶几轻奢酒柜装饰摆件家居饰品托盘结婚礼物</v>
+        <v>2至3元包邮小商品4-5元以下的小东西小礼品百货两三块钱的垃圾袋</v>
       </c>
       <c r="B266" t="str">
-        <v>¥19.90¥39.80</v>
+        <v>¥5.00¥5.00</v>
       </c>
       <c r="C266" t="str">
-        <v>盈和久福旗舰店</v>
+        <v>居家优选购</v>
       </c>
       <c r="D266" t="str">
-        <v>月销 357</v>
+        <v>月销 2122</v>
       </c>
       <c r="E266" t="str">
         <v/>
@@ -4904,16 +4904,16 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>大英博物馆官方安德森猫系列埃及风迷你充电宝移动电源10000毫安</v>
+        <v>日式锅铲架锅盖架厨房用品置物架铲子勺子筷子收纳架厨房家用大全</v>
       </c>
       <c r="B267" t="str">
-        <v>¥139.00¥139.00</v>
+        <v>¥8.80¥17.60</v>
       </c>
       <c r="C267" t="str">
-        <v>物兮物旗舰店</v>
+        <v>百露旗舰店</v>
       </c>
       <c r="D267" t="str">
-        <v>月销 38</v>
+        <v>月销 9</v>
       </c>
       <c r="E267" t="str">
         <v/>
@@ -4921,16 +4921,16 @@
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>小礼品一件代发电商补单专用快递2元商品申通韵达快递员好评任务</v>
+        <v>520情人节生日礼物女生送给女友朋友老婆暖心闺蜜高级感实用毕业</v>
       </c>
       <c r="B268" t="str">
-        <v>¥1.45¥1.45</v>
+        <v>¥27.80¥55.60</v>
       </c>
       <c r="C268" t="str">
-        <v>685礼品代发</v>
+        <v>可爱可杯礼品店</v>
       </c>
       <c r="D268" t="str">
-        <v>月销 24</v>
+        <v>月销 40</v>
       </c>
       <c r="E268" t="str">
         <v/>
@@ -4938,16 +4938,16 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>拖把免手洗拖地神器旋转家用杆干湿两用通用平板托把一拖拖布桶净</v>
+        <v>生日礼物女生创意闺蜜实用送女朋友高档的情人节毕业伴手礼给老师</v>
       </c>
       <c r="B269" t="str">
-        <v>¥58.00¥148.00</v>
+        <v>¥39.00¥99.00</v>
       </c>
       <c r="C269" t="str">
-        <v>捷因美旗舰店</v>
+        <v>四月诗约旗舰店</v>
       </c>
       <c r="D269" t="str">
-        <v>月销 1607</v>
+        <v>月销 285</v>
       </c>
       <c r="E269" t="str">
         <v/>
@@ -4955,16 +4955,16 @@
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>员工生日礼物实用高档伴手礼公司送客户毕业季纪念品年会礼品定制</v>
+        <v>杂啊童话里的好伙伴系列手账礼盒学生创意文具套装唯美少女心礼包</v>
       </c>
       <c r="B270" t="str">
-        <v>¥58.00¥98.00</v>
+        <v>¥35.80¥35.80</v>
       </c>
       <c r="C270" t="str">
-        <v>爱奢尔旗舰店</v>
+        <v>杂啊 怦然心动杂货拥有者</v>
       </c>
       <c r="D270" t="str">
-        <v>月销 28</v>
+        <v>月销 282</v>
       </c>
       <c r="E270" t="str">
         <v/>
@@ -4972,16 +4972,16 @@
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>家居家日用品生活店小百货3义乌小商品批地推5实用2活动礼品元两1</v>
+        <v>日本樱花蜜 天然樱花蜂蜜百花蜜280g/玻璃瓶装 鲜花酱礼盒装包邮</v>
       </c>
       <c r="B271" t="str">
-        <v>¥1.00¥1.00</v>
+        <v>¥36.80¥58.00</v>
       </c>
       <c r="C271" t="str">
-        <v>圆亨家居创意日用百货</v>
+        <v>萨丽咔小屋</v>
       </c>
       <c r="D271" t="str">
-        <v>月销 959</v>
+        <v>月销 262</v>
       </c>
       <c r="E271" t="str">
         <v/>
@@ -4989,16 +4989,16 @@
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>实用少女心生日礼物特别走心的毕业礼品送闺蜜朋友高级18岁礼品</v>
+        <v>小学生奖励小礼品实用创意夜市摆地摊货源幼儿园儿童生日六一礼物</v>
       </c>
       <c r="B272" t="str">
-        <v>¥28.80¥28.80</v>
+        <v>¥0.04¥0.24</v>
       </c>
       <c r="C272" t="str">
-        <v>艾萌小玩意</v>
+        <v>嘟嘟玩具小礼品</v>
       </c>
       <c r="D272" t="str">
-        <v>月销 14</v>
+        <v>月销 215</v>
       </c>
       <c r="E272" t="str">
         <v/>
@@ -5006,16 +5006,16 @@
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>创意家居厨房用品用具小百货店日用品生活居家用小东西刷锅神器</v>
+        <v>生日礼物女生女朋友闺蜜送女友实用520情人节老婆浪漫高级感创意</v>
       </c>
       <c r="B273" t="str">
-        <v>¥4.26¥5.84</v>
+        <v>¥83.00¥199.00</v>
       </c>
       <c r="C273" t="str">
-        <v>嘉瑞得旗舰店</v>
+        <v>巧礼屋旗舰店</v>
       </c>
       <c r="D273" t="str">
-        <v>月销 4</v>
+        <v>月销 352</v>
       </c>
       <c r="E273" t="str">
         <v/>
@@ -5023,16 +5023,16 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>生日礼物女送女生闺蜜创意实用毕业少女心杂货店520情人节送女友</v>
+        <v>中秋节日生活用品礼盒套装员工福利夏季防暑降温慰问活动庆典工会</v>
       </c>
       <c r="B274" t="str">
-        <v>¥19.80¥39.60</v>
+        <v>¥24.00¥24.00</v>
       </c>
       <c r="C274" t="str">
-        <v>Forever 18  :)</v>
+        <v>念 亲 恩</v>
       </c>
       <c r="D274" t="str">
-        <v>月销 2057</v>
+        <v>月销 5</v>
       </c>
       <c r="E274" t="str">
         <v/>
@@ -5040,16 +5040,16 @@
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>情人节礼物恋爱情侣100件小事打卡男生走心送男女朋友diy相册浪漫</v>
+        <v>女生生日礼物女杂货店实用创意的走心送女朋友闺蜜母亲节客户妈妈</v>
       </c>
       <c r="B275" t="str">
-        <v>¥59.00¥118.00</v>
+        <v>¥48.00¥148.00</v>
       </c>
       <c r="C275" t="str">
-        <v>知卿创意礼品店</v>
+        <v>四月诗约旗舰店</v>
       </c>
       <c r="D275" t="str">
-        <v>月销 497</v>
+        <v>月销 25</v>
       </c>
       <c r="E275" t="str">
         <v/>
@@ -5057,16 +5057,16 @@
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>猫的天空之城御守挂饰平安福挂件祝福学业发财健康爱情招财猫祈福</v>
+        <v>欧式复古伴手礼女伴娘婚礼实用小礼品高档闺蜜森系套装结婚回礼盒</v>
       </c>
       <c r="B276" t="str">
-        <v>¥19.00¥19.00</v>
+        <v>¥16.80¥30.00</v>
       </c>
       <c r="C276" t="str">
-        <v>momicafe天空之城旗舰店</v>
+        <v>缘二家原创礼品</v>
       </c>
       <c r="D276" t="str">
-        <v>月销 164</v>
+        <v>月销 58</v>
       </c>
       <c r="E276" t="str">
         <v/>
@@ -5074,16 +5074,16 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>520情人节礼物送女友diy手工制作生日礼物男友浪漫古风灯盒小夜灯</v>
+        <v>国产盲盒盲袋卡通动漫周边小丸子蓝胖子玩偶手办日本二次元小摆件</v>
       </c>
       <c r="B277" t="str">
-        <v>¥11.90¥25.80</v>
+        <v>¥0.80¥2.86</v>
       </c>
       <c r="C277" t="str">
-        <v>巧之匠旗舰店</v>
+        <v>轩霖物语</v>
       </c>
       <c r="D277" t="str">
-        <v>月销 184</v>
+        <v>月销 635</v>
       </c>
       <c r="E277" t="str">
         <v/>
@@ -5091,16 +5091,16 @@
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>结婚压床早生贵子篮子礼盒喜事摆件婚房模具提篮婚礼用品竹篮婚庆</v>
+        <v>家居日用品创意实用生活小百货大全店居家用新家卫生间清洁用具</v>
       </c>
       <c r="B278" t="str">
-        <v>¥29.90¥79.60</v>
+        <v>¥13.20¥26.40</v>
       </c>
       <c r="C278" t="str">
-        <v>感触自然</v>
+        <v>添合百货店</v>
       </c>
       <c r="D278" t="str">
-        <v>月销 1563</v>
+        <v>月销 0</v>
       </c>
       <c r="E278" t="str">
         <v/>
@@ -5108,16 +5108,16 @@
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>挤牙膏神器自动生活创意家居卫生间生活日用品家用小物件实用日</v>
+        <v>生日礼物 高级感闺蜜520女友高档创意的女生女孩实用送六一儿童节</v>
       </c>
       <c r="B279" t="str">
-        <v>¥33.72¥34.41</v>
+        <v>¥179.00¥379.00</v>
       </c>
       <c r="C279" t="str">
-        <v>伍仔工厂店</v>
+        <v>喜礼礼物  Attbuss</v>
       </c>
       <c r="D279" t="str">
-        <v>月销 4</v>
+        <v>月销 134</v>
       </c>
       <c r="E279" t="str">
         <v/>
@@ -5125,16 +5125,16 @@
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>情人节DIY手工生日礼物女生送女友男友朋友520情侣一对小玩意好物</v>
+        <v>520情人节diy手工生日礼物送男生给男友朋友的创意实用男孩有意义</v>
       </c>
       <c r="B280" t="str">
-        <v>¥29.90¥29.90</v>
+        <v>¥48.00¥137.60</v>
       </c>
       <c r="C280" t="str">
-        <v>爱米猪旗舰店</v>
+        <v>纸器时代的礼物店</v>
       </c>
       <c r="D280" t="str">
-        <v>月销 21</v>
+        <v>月销 11</v>
       </c>
       <c r="E280" t="str">
         <v/>
@@ -5142,16 +5142,16 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>糖果零食休闲食品礼物包装盒方形礼品盒精美卡通礼盒手提收纳</v>
+        <v>微商地推小礼品公司开业小商品1元以下幼儿园六一儿童小礼物奖品</v>
       </c>
       <c r="B281" t="str">
-        <v>¥1.80¥1.80</v>
+        <v>¥0.28¥0.30</v>
       </c>
       <c r="C281" t="str">
-        <v>创意礼盒批发</v>
+        <v>好印象百货礼品</v>
       </c>
       <c r="D281" t="str">
-        <v>月销 293</v>
+        <v>月销 15</v>
       </c>
       <c r="E281" t="str">
         <v/>
@@ -5159,16 +5159,16 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>国产盲盒盲袋卡通动漫周边小丸子蓝胖子玩偶手办日本二次元小摆件</v>
+        <v>520情人节实用生日礼物女送闺蜜的创意女生女友伴手礼给特别小众</v>
       </c>
       <c r="B282" t="str">
-        <v>¥0.80¥2.86</v>
+        <v>¥39.90¥79.80</v>
       </c>
       <c r="C282" t="str">
-        <v>轩霖物语</v>
+        <v>纸器时代的礼物店</v>
       </c>
       <c r="D282" t="str">
-        <v>月销 576</v>
+        <v>月销 16</v>
       </c>
       <c r="E282" t="str">
         <v/>
@@ -5176,16 +5176,16 @@
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>520情人节生日礼物女生送给女友朋友老婆暖心闺蜜高级感实用毕业</v>
+        <v>懒人家居生活日常用品百货家用小东西杂货铺宿舍商品义乌创意挂钩</v>
       </c>
       <c r="B283" t="str">
-        <v>¥27.80¥55.60</v>
+        <v>¥19.89¥41.43</v>
       </c>
       <c r="C283" t="str">
-        <v>可爱可杯礼品店</v>
+        <v>安园五金专营店</v>
       </c>
       <c r="D283" t="str">
-        <v>月销 36</v>
+        <v>月销 0</v>
       </c>
       <c r="E283" t="str">
         <v/>
@@ -5193,16 +5193,16 @@
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>女生生日礼物女杂货店实用创意的走心送女朋友闺蜜母亲节客户妈妈</v>
+        <v>厨房用品用具小百货抖音同款神器淘米器洗米筛家用小东西生活用品</v>
       </c>
       <c r="B284" t="str">
-        <v>¥48.00¥148.00</v>
+        <v>¥7.00¥7.00</v>
       </c>
       <c r="C284" t="str">
-        <v>四月诗约旗舰店</v>
+        <v>千货居家千万好货尽在千货</v>
       </c>
       <c r="D284" t="str">
-        <v>月销 21</v>
+        <v>月销 4</v>
       </c>
       <c r="E284" t="str">
         <v/>
@@ -5210,16 +5210,16 @@
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>生日礼物女生女朋友闺蜜送女友实用520情人节老婆浪漫高级感创意</v>
+        <v>抖音居家居厨房用品用具小百货家用大全挤蚝油神器生活实用日用品</v>
       </c>
       <c r="B285" t="str">
-        <v>¥83.00¥199.00</v>
+        <v>¥14.11¥29.40</v>
       </c>
       <c r="C285" t="str">
-        <v>巧礼屋旗舰店</v>
+        <v>朱掌柜旗舰店</v>
       </c>
       <c r="D285" t="str">
-        <v>月销 286</v>
+        <v>月销 1</v>
       </c>
       <c r="E285" t="str">
         <v/>
@@ -5227,16 +5227,16 @@
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>商务礼品定制logo创意活动奖品套装年会送员工创意实用高档纪念品</v>
+        <v>复古蓝牙留声机音箱LOGO定制女朋友闺蜜生日礼物实用精致音响礼品</v>
       </c>
       <c r="B286" t="str">
-        <v>¥23.92¥52.00</v>
+        <v>¥108.00¥118.00</v>
       </c>
       <c r="C286" t="str">
-        <v>噢维斯数码科技</v>
+        <v>爱迪生数码专柜店</v>
       </c>
       <c r="D286" t="str">
-        <v>月销 195</v>
+        <v>月销 30</v>
       </c>
       <c r="E286" t="str">
         <v/>
@@ -5244,16 +5244,16 @@
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>珍藏登记证件收纳结婚证盒证书套放本的盒子新婚礼物婚庆用品纪念</v>
+        <v>婚房装饰早生贵子模具模板压床摆件婚礼布置喜字贴结婚庆用品大全</v>
       </c>
       <c r="B287" t="str">
-        <v>¥12.80¥93.60</v>
+        <v>¥8.60¥8.60</v>
       </c>
       <c r="C287" t="str">
-        <v>无独有偶旗舰店</v>
+        <v>盛缘婚庆用品批发</v>
       </c>
       <c r="D287" t="str">
-        <v>月销 89</v>
+        <v>月销 78</v>
       </c>
       <c r="E287" t="str">
         <v/>
@@ -5261,16 +5261,16 @@
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>家居日用品创意实用生活小百货大全店居家用新家卫生间清洁用具</v>
+        <v>女生生日礼物女创意闺蜜实用的婚礼伴手礼女伴娘520情人节送女友</v>
       </c>
       <c r="B288" t="str">
-        <v>¥13.20¥26.40</v>
+        <v>¥26.80¥137.00</v>
       </c>
       <c r="C288" t="str">
-        <v>添合百货店</v>
+        <v>四月诗约ins礼品</v>
       </c>
       <c r="D288" t="str">
-        <v>月销 0</v>
+        <v>月销 290</v>
       </c>
       <c r="E288" t="str">
         <v/>
@@ -5278,16 +5278,16 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>纸吹龙口哨卡通助威喇叭儿童节玩具生日派对用品发光奖励礼物品61</v>
+        <v>拉芙里手作礼品INS结婚实用清新伴手礼女伴娘欧舒丹礼物520情人节</v>
       </c>
       <c r="B289" t="str">
-        <v>¥9.90¥9.90</v>
+        <v>¥38.00¥38.00</v>
       </c>
       <c r="C289" t="str">
-        <v>大小姐迷糊娃娃</v>
+        <v>拉芙里手作礼品</v>
       </c>
       <c r="D289" t="str">
-        <v>月销 1746</v>
+        <v>月销 204</v>
       </c>
       <c r="E289" t="str">
         <v/>
@@ -5295,16 +5295,16 @@
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>2至3元包邮小商品4-5元以下的小东西小礼品百货两三块钱的垃圾袋</v>
+        <v>创意无纺布绒棉布艺开关贴套喜字婚庆喜庆系列开关套婚房装饰用品</v>
       </c>
       <c r="B290" t="str">
-        <v>¥5.00¥5.00</v>
+        <v>¥3.20¥3.75</v>
       </c>
       <c r="C290" t="str">
-        <v>居家优选购</v>
+        <v>我家喜坊weddinghouse</v>
       </c>
       <c r="D290" t="str">
-        <v>月销 2073</v>
+        <v>月销 0</v>
       </c>
       <c r="E290" t="str">
         <v/>
@@ -5312,16 +5312,16 @@
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>厨房用品大全用具家用家居百货清洁小物件居家庭生活日用品杂货铺</v>
+        <v>中国风送领导客户员工礼物高档企业公司商务礼品定制logo创意实用</v>
       </c>
       <c r="B291" t="str">
-        <v>¥3.52¥7.03</v>
+        <v>¥35.00¥70.00</v>
       </c>
       <c r="C291" t="str">
-        <v>墨百家</v>
+        <v>品卓好礼创卓专卖店</v>
       </c>
       <c r="D291" t="str">
-        <v>月销 19</v>
+        <v>月销 18</v>
       </c>
       <c r="E291" t="str">
         <v/>
@@ -5329,16 +5329,16 @@
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>戴珍珠耳环少女摆件创意家居客厅装饰品玄关进门放钥匙收纳托盘</v>
+        <v>彩跑粉专用瓶专用粉瓶彩色跑玉米粉壶彩跑淀粉工具彩虹跑物料</v>
       </c>
       <c r="B292" t="str">
-        <v>¥47.52¥196.00</v>
+        <v>¥1.20¥2.20</v>
       </c>
       <c r="C292" t="str">
-        <v>happybear小乐熊旗舰店</v>
+        <v>彩色跑粉工厂直销店</v>
       </c>
       <c r="D292" t="str">
-        <v>月销 280</v>
+        <v>月销 201</v>
       </c>
       <c r="E292" t="str">
         <v/>
@@ -5346,16 +5346,16 @@
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>家用辅食刀具套装厨房全套婴儿用菜刀菜板二合一宿舍砧板菜刀套装</v>
+        <v>高中英语单词卷纸高考英文单词厕纸学霸背英语纸巾带单词的卫生纸</v>
       </c>
       <c r="B293" t="str">
-        <v>¥15.80¥79.00</v>
+        <v>¥11.97¥27.84</v>
       </c>
       <c r="C293" t="str">
-        <v>靠谱郎旗舰店</v>
+        <v>百纶木千旗舰店</v>
       </c>
       <c r="D293" t="str">
-        <v>月销 844</v>
+        <v>月销 34</v>
       </c>
       <c r="E293" t="str">
         <v/>
@@ -5363,16 +5363,16 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>垃圾桶ins风家用客厅创意纸篓卧室轻奢办公室无盖商用厨房大容量</v>
+        <v>母亲节实用送妈妈企业员工生日精致小礼物女生伴手礼创意定制礼盒</v>
       </c>
       <c r="B294" t="str">
-        <v>¥8.40¥22.00</v>
+        <v>¥29.80¥59.60</v>
       </c>
       <c r="C294" t="str">
-        <v>汇骏旗舰店</v>
+        <v>西府旗舰店</v>
       </c>
       <c r="D294" t="str">
-        <v>月销 2628</v>
+        <v>月销 16</v>
       </c>
       <c r="E294" t="str">
         <v/>
@@ -5380,16 +5380,16 @@
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>20片木牌雕刻刻字手写心愿吊牌景区寺庙旅游用品学校幼儿园许愿牌</v>
+        <v>天气预报风暴瓶创意生日礼物女生实用礼品送女朋友走心520情人节</v>
       </c>
       <c r="B295" t="str">
-        <v>¥19.90¥39.80</v>
+        <v>¥14.00¥28.00</v>
       </c>
       <c r="C295" t="str">
-        <v>柳瑞轩旗舰店</v>
+        <v>岁月的童话礼品</v>
       </c>
       <c r="D295" t="str">
-        <v>月销 87</v>
+        <v>月销 14</v>
       </c>
       <c r="E295" t="str">
         <v/>
@@ -5397,16 +5397,16 @@
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>LOGO定制创意小音响送女友生日走心可爱少女礼物闺蜜精致实用音箱</v>
+        <v>生日礼物女生创意闺蜜精致特别实用送学生小众特别diy走心小礼品</v>
       </c>
       <c r="B296" t="str">
-        <v>¥43.00¥91.00</v>
+        <v>¥75.00¥150.00</v>
       </c>
       <c r="C296" t="str">
-        <v>二宅家数码专柜店</v>
+        <v>西府旗舰店</v>
       </c>
       <c r="D296" t="str">
-        <v>月销 158</v>
+        <v>月销 17</v>
       </c>
       <c r="E296" t="str">
         <v/>
@@ -5414,16 +5414,16 @@
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>生日礼物 高级感闺蜜520女友高档创意的女生女孩实用送六一儿童节</v>
+        <v>阳光罐子520礼物生日送女友男生朋友闺蜜老婆儿童小夜灯实用礼品</v>
       </c>
       <c r="B297" t="str">
-        <v>¥179.00¥379.00</v>
+        <v>¥39.00¥49.00</v>
       </c>
       <c r="C297" t="str">
-        <v>喜礼礼物  Attbuss</v>
+        <v>时光盒子旗舰店</v>
       </c>
       <c r="D297" t="str">
-        <v>月销 136</v>
+        <v>月销 12</v>
       </c>
       <c r="E297" t="str">
         <v/>
@@ -5431,16 +5431,16 @@
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>生日快乐拉旗装饰拉花室内场景现场布置 ins网红求婚布置创意用品</v>
+        <v>wishmore六一儿童节生日礼物送男女学生朋友闺蜜实用毕业伴手礼品</v>
       </c>
       <c r="B298" t="str">
-        <v>¥4.50¥22.00</v>
+        <v>¥28.00¥56.00</v>
       </c>
       <c r="C298" t="str">
-        <v>为您好事家居旗舰店</v>
+        <v>wishmore旗舰店</v>
       </c>
       <c r="D298" t="str">
-        <v>月销 239</v>
+        <v>月销 3806</v>
       </c>
       <c r="E298" t="str">
         <v/>
@@ -5448,16 +5448,16 @@
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>微商地推小礼品公司开业小商品1元以下幼儿园六一儿童小礼物奖品</v>
+        <v>老师奖励学生开学奖品创意牛奶便签盒礼品儿童生日分享全班纪念品</v>
       </c>
       <c r="B299" t="str">
-        <v>¥0.28¥0.30</v>
+        <v>¥3.50¥4.20</v>
       </c>
       <c r="C299" t="str">
-        <v>好印象百货礼品</v>
+        <v>臻好礼品屋</v>
       </c>
       <c r="D299" t="str">
-        <v>月销 20</v>
+        <v>月销 25</v>
       </c>
       <c r="E299" t="str">
         <v/>
@@ -5465,16 +5465,16 @@
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>口哨玩具卡通助威吹吹卷喇叭宝宝白天宴儿童周岁生日派对用品吹龙</v>
+        <v>创意幼儿园毕业纪念品老师奖励学生实用小礼品小朋友生日分享礼物</v>
       </c>
       <c r="B300" t="str">
-        <v>¥1.50¥1.50</v>
+        <v>¥8.80¥11.92</v>
       </c>
       <c r="C300" t="str">
-        <v>玲珑节庆装饰</v>
+        <v>臻好礼品屋</v>
       </c>
       <c r="D300" t="str">
-        <v>月销 10</v>
+        <v>月销 48</v>
       </c>
       <c r="E300" t="str">
         <v/>
@@ -5482,16 +5482,16 @@
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>拜格家用土豆丝切丝器厨房用品五刀片切片菜擦丝刨丝水果切菜神器</v>
+        <v>结婚用品中式红色亚克力瓜子花生水果烟糖果盘干果盘喜庆布置道具</v>
       </c>
       <c r="B301" t="str">
-        <v>¥14.90¥39.00</v>
+        <v>¥2.60¥5.20</v>
       </c>
       <c r="C301" t="str">
-        <v>天猫超市</v>
+        <v>麦麦家居专营</v>
       </c>
       <c r="D301" t="str">
-        <v>月销 4294</v>
+        <v>月销 7</v>
       </c>
       <c r="E301" t="str">
         <v/>
@@ -5499,16 +5499,16 @@
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>韩国创意家居生活日用品实用懒人百货漱口杯杂货义乌小商品杂货铺</v>
+        <v>有爱伴手礼女伴娘婚礼节庆结婚实用活动定制小礼品回礼ins风礼盒</v>
       </c>
       <c r="B302" t="str">
-        <v>¥1.30¥2.00</v>
+        <v>¥19.90¥19.90</v>
       </c>
       <c r="C302" t="str">
-        <v>欢乐多家居工厂直销</v>
+        <v>LOVEVERY花礼季</v>
       </c>
       <c r="D302" t="str">
-        <v>月销 2</v>
+        <v>月销 6</v>
       </c>
       <c r="E302" t="str">
         <v/>
@@ -5516,16 +5516,16 @@
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>厨房用品用具小百货抖音同款神器淘米器洗米筛家用小东西生活用品</v>
+        <v>家居用品居家杂粮收纳神器创小东西生活用品厨房用具日用品小百货</v>
       </c>
       <c r="B303" t="str">
-        <v>¥7.00¥7.00</v>
+        <v>¥15.35¥30.70</v>
       </c>
       <c r="C303" t="str">
-        <v>千货居家千万好货尽在千货</v>
+        <v>暖华百货店</v>
       </c>
       <c r="D303" t="str">
-        <v>月销 4</v>
+        <v>月销 0</v>
       </c>
       <c r="E303" t="str">
         <v/>
@@ -5533,16 +5533,16 @@
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>网红干花小花篮藤编草绳编织花瓶插花客厅卧室简约装饰摆件包邮</v>
+        <v>520情人节生日礼物男生送男友朋友老公暖心老婆实用高级感毕业女</v>
       </c>
       <c r="B304" t="str">
-        <v>¥9.90¥9.90</v>
+        <v>¥29.80¥59.60</v>
       </c>
       <c r="C304" t="str">
-        <v>花芜水</v>
+        <v>可爱可杯礼品店</v>
       </c>
       <c r="D304" t="str">
-        <v>月销 68</v>
+        <v>月销 53</v>
       </c>
       <c r="E304" t="str">
         <v/>
@@ -5550,16 +5550,16 @@
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>结婚回礼高档实用伴手礼盒元旦年会活动礼品开业店庆赠送客户礼物</v>
+        <v>生日礼物女生精致闺蜜实用的创意特别少女心送女友朋友情人节520</v>
       </c>
       <c r="B305" t="str">
-        <v>¥18.60¥37.20</v>
+        <v>¥36.80¥171.00</v>
       </c>
       <c r="C305" t="str">
-        <v>今式缘婚庆喜铺</v>
+        <v>四月诗约ins礼品</v>
       </c>
       <c r="D305" t="str">
-        <v>月销 22</v>
+        <v>月销 20</v>
       </c>
       <c r="E305" t="str">
         <v/>
@@ -5567,16 +5567,16 @@
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>伸缩厨房用品置物架下水槽橱柜碗碟架分层架子家用大全厨具收纳架</v>
+        <v>LOGO定制创意小音响送女友生日走心可爱少女礼物闺蜜精致实用音箱</v>
       </c>
       <c r="B306" t="str">
-        <v>¥59.85¥133.00</v>
+        <v>¥43.00¥91.00</v>
       </c>
       <c r="C306" t="str">
-        <v>玺泽卫浴旗舰店</v>
+        <v>二宅家数码专柜店</v>
       </c>
       <c r="D306" t="str">
-        <v>月销 0</v>
+        <v>月销 147</v>
       </c>
       <c r="E306" t="str">
         <v/>
@@ -5584,16 +5584,16 @@
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>中国风送领导客户员工礼物高档企业公司商务礼品定制logo创意实用</v>
+        <v>创意生日礼物灯送女生男朋友闺蜜特别节日小惊喜ins实用走心礼品</v>
       </c>
       <c r="B307" t="str">
-        <v>¥35.00¥70.00</v>
+        <v>¥24.90¥67.00</v>
       </c>
       <c r="C307" t="str">
-        <v>品卓好礼创卓专卖店</v>
+        <v>鸿达电子数码</v>
       </c>
       <c r="D307" t="str">
-        <v>月销 17</v>
+        <v>月销 37</v>
       </c>
       <c r="E307" t="str">
         <v/>
@@ -5601,16 +5601,16 @@
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>厨房置物架落地多层碗碟收纳架微波炉架放锅烤箱调料家用用品大全</v>
+        <v>杂啊This is full是福【喜乐学霸】福袋文具手帐杂货小电器类礼袋</v>
       </c>
       <c r="B308" t="str">
-        <v>¥45.68¥101.50</v>
+        <v>¥29.80¥108.00</v>
       </c>
       <c r="C308" t="str">
-        <v>玺泽卫浴旗舰店</v>
+        <v>杂啊 怦然心动杂货拥有者</v>
       </c>
       <c r="D308" t="str">
-        <v>月销 0</v>
+        <v>月销 60</v>
       </c>
       <c r="E308" t="str">
         <v/>
@@ -5618,16 +5618,16 @@
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>六一儿童节可爱太阳花啪啪圈创意毛绒卡通公仔毕业礼物少女心手环</v>
+        <v>一件代发小礼品2元包邮代发真包指定中通快递电商专用ab礼品代发</v>
       </c>
       <c r="B309" t="str">
-        <v>¥6.80¥12.80</v>
+        <v>¥1.00¥1.00</v>
       </c>
       <c r="C309" t="str">
-        <v>犀城旗舰店</v>
+        <v>芭芭农场1元小礼品</v>
       </c>
       <c r="D309" t="str">
-        <v>月销 166</v>
+        <v>月销 124</v>
       </c>
       <c r="E309" t="str">
         <v/>
@@ -5635,16 +5635,16 @@
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>香薰礼盒生日礼物送女生闺蜜实用精致仪式感小众高级感礼品伴手礼</v>
+        <v>结婚早生贵子模板婚房装饰布置卧室男方压床摆放镂空模具婚庆用品</v>
       </c>
       <c r="B310" t="str">
-        <v>¥78.00¥156.00</v>
+        <v>¥8.50¥16.33</v>
       </c>
       <c r="C310" t="str">
-        <v>THE BESTS 本色</v>
+        <v>映喜婚庆</v>
       </c>
       <c r="D310" t="str">
-        <v>月销 3282</v>
+        <v>月销 0</v>
       </c>
       <c r="E310" t="str">
         <v/>
@@ -5652,16 +5652,16 @@
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>彩跑粉专用瓶专用粉瓶彩色跑玉米粉壶彩跑淀粉工具彩虹跑物料</v>
+        <v>FOMODAY原创流苏蕾丝刺绣戒枕 婚礼静物拍摄戒指托创意婚品</v>
       </c>
       <c r="B311" t="str">
-        <v>¥1.20¥2.20</v>
+        <v>¥55.00¥55.00</v>
       </c>
       <c r="C311" t="str">
-        <v>彩色跑粉工厂直销店</v>
+        <v>FOMODAY蜂蜜婚品</v>
       </c>
       <c r="D311" t="str">
-        <v>月销 156</v>
+        <v>月销 56</v>
       </c>
       <c r="E311" t="str">
         <v/>
@@ -5669,16 +5669,16 @@
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>苏州博物馆 木质小夜灯卧室充电式伴睡灯圣诞小夜灯送女友礼物</v>
+        <v>学生文具幸运盲盒小学生福袋手账本文具用品初中生惊喜盒子大礼包</v>
       </c>
       <c r="B312" t="str">
-        <v>¥98.00¥98.00</v>
+        <v>¥10.90¥10.90</v>
       </c>
       <c r="C312" t="str">
-        <v>苏州博物馆旗舰店</v>
+        <v>兔嗯嗯有颜值的文具</v>
       </c>
       <c r="D312" t="str">
-        <v>月销 1098</v>
+        <v>月销 30</v>
       </c>
       <c r="E312" t="str">
         <v/>
@@ -5686,16 +5686,16 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>沙漏计时器儿童防摔10/20/30分钟半一小时学生吃饭时间礼物流沙瓶</v>
+        <v>一件包邮创意居家居厨房用品用具小商品小百货削皮刀日用百货家用</v>
       </c>
       <c r="B313" t="str">
-        <v>¥6.80¥8.00</v>
+        <v>¥3.18¥6.36</v>
       </c>
       <c r="C313" t="str">
-        <v>圣麟堂旗舰店</v>
+        <v>日用时尚百货</v>
       </c>
       <c r="D313" t="str">
-        <v>月销 1.51万</v>
+        <v>月销 7</v>
       </c>
       <c r="E313" t="str">
         <v/>
@@ -5703,16 +5703,16 @@
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>家居家义乌小商品批小百货生活2日用品3家用店9.9元用具批礼品</v>
+        <v>高考礼物中国风创意实用送老师学生加油励志纪念品商务小礼品定制</v>
       </c>
       <c r="B314" t="str">
-        <v>¥0.02¥0.02</v>
+        <v>¥28.00¥58.00</v>
       </c>
       <c r="C314" t="str">
-        <v>球球家居用品创意百货小商品批发</v>
+        <v>品卓好礼家居旗舰店</v>
       </c>
       <c r="D314" t="str">
-        <v>月销 28</v>
+        <v>月销 12</v>
       </c>
       <c r="E314" t="str">
         <v/>
@@ -5720,16 +5720,16 @@
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>早生贵子压床摆件婚床布置装饰婚礼婚庆用品大全结婚模具子孙桶</v>
+        <v>520情人节六一儿童零食大礼包生日礼物送男生女生朋友闺蜜情侣实</v>
       </c>
       <c r="B315" t="str">
-        <v>¥7.42¥36.00</v>
+        <v>¥36.90¥39.90</v>
       </c>
       <c r="C315" t="str">
-        <v>一世缘家居旗舰店</v>
+        <v>嘻哈创意礼品工作室</v>
       </c>
       <c r="D315" t="str">
-        <v>月销 920</v>
+        <v>月销 2107</v>
       </c>
       <c r="E315" t="str">
         <v/>
@@ -5737,16 +5737,16 @@
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>女生生日礼物女创意闺蜜实用的婚礼伴手礼女伴娘520情人节送女友</v>
+        <v>黑科技毕业生日礼物初中高中生同学送男生兄弟朋友实用六一儿童节</v>
       </c>
       <c r="B316" t="str">
-        <v>¥26.80¥137.00</v>
+        <v>¥74.00¥158.00</v>
       </c>
       <c r="C316" t="str">
-        <v>四月诗约ins礼品</v>
+        <v>年华似锦旗舰店</v>
       </c>
       <c r="D316" t="str">
-        <v>月销 274</v>
+        <v>月销 55</v>
       </c>
       <c r="E316" t="str">
         <v/>
@@ -5754,16 +5754,16 @@
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>微商地推线下活动圣诞节学生小礼品地摊吹龙扫码创意1元以下气球</v>
+        <v>520情人节生日礼物送女朋友同学生走心可爱闺蜜ins少女心小物毕业</v>
       </c>
       <c r="B317" t="str">
-        <v>¥7.80¥12.80</v>
+        <v>¥16.81¥17.69</v>
       </c>
       <c r="C317" t="str">
-        <v>缤彩气球</v>
+        <v>云之熙商贸</v>
       </c>
       <c r="D317" t="str">
-        <v>月销 350</v>
+        <v>月销 85</v>
       </c>
       <c r="E317" t="str">
         <v/>
@@ -5771,16 +5771,16 @@
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>创意大钻石结婚求婚道具圣诞情人节表白神器送女友老婆生日小礼物</v>
+        <v>两块钱包邮2-4块钱的东西一元店百货一块钱包邮专区一元包邮韵达</v>
       </c>
       <c r="B318" t="str">
-        <v>¥11.04¥24.00</v>
+        <v>¥1.00¥1.00</v>
       </c>
       <c r="C318" t="str">
-        <v>御宸水晶礼物坊</v>
+        <v>芭芭农场1元小礼品</v>
       </c>
       <c r="D318" t="str">
-        <v>月销 931</v>
+        <v>月销 39</v>
       </c>
       <c r="E318" t="str">
         <v/>
@@ -5788,16 +5788,16 @@
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>简约圆形垃圾桶家用创意厨房垃圾收纳桶卧室卫生间办公室客厅纸篓</v>
+        <v>2021年新款空气唇釉丝绒哑光雾面口红女持久显白学生平价小众品牌</v>
       </c>
       <c r="B319" t="str">
-        <v>¥4.50¥5.50</v>
+        <v>¥19.80¥39.60</v>
       </c>
       <c r="C319" t="str">
-        <v>思思家居生活馆</v>
+        <v>田客旗舰店</v>
       </c>
       <c r="D319" t="str">
-        <v>月销 4386</v>
+        <v>月销 6</v>
       </c>
       <c r="E319" t="str">
         <v/>
@@ -5805,16 +5805,16 @@
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>天气预报瓶风暴气象创意小摆件桌面装饰品工艺客厅生日礼物女生男</v>
+        <v>厨房锅铲置物架可旋转式壁挂免打孔墙壁挂钩勺子神器用品收纳架类</v>
       </c>
       <c r="B320" t="str">
-        <v>¥14.00¥48.00</v>
+        <v>¥26.00¥59.60</v>
       </c>
       <c r="C320" t="str">
-        <v>岁月的童话礼品</v>
+        <v>多想我旗舰店</v>
       </c>
       <c r="D320" t="str">
-        <v>月销 850</v>
+        <v>月销 47</v>
       </c>
       <c r="E320" t="str">
         <v/>
@@ -5822,16 +5822,16 @@
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>LED电子蜡烛灯浪漫求婚创意布置用品生日惊喜心形蜡烛520情人节</v>
+        <v>高考创意实用礼物送客户学生加油励志奖品纪念品商务礼品定制logo</v>
       </c>
       <c r="B321" t="str">
-        <v>¥13.00¥13.00</v>
+        <v>¥12.50¥46.00</v>
       </c>
       <c r="C321" t="str">
-        <v>嘻哈创意礼品工作室</v>
+        <v>品卓好礼家居旗舰店</v>
       </c>
       <c r="D321" t="str">
-        <v>月销 4</v>
+        <v>月销 28</v>
       </c>
       <c r="E321" t="str">
         <v/>
@@ -5839,16 +5839,16 @@
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>婚庆道具新铁艺精灵网纱蝴蝶翅膀小精灵吊顶摆件橱窗装饰舞台布置</v>
+        <v>zakka杂货复古仿木小缝纫机模型音乐盒艺中式礼品生日新年礼物</v>
       </c>
       <c r="B322" t="str">
-        <v>¥100.00¥100.00</v>
+        <v>¥31.40¥62.80</v>
       </c>
       <c r="C322" t="str">
-        <v>鼎尚婚庆道具加工厂</v>
+        <v>数源家居专营店</v>
       </c>
       <c r="D322" t="str">
-        <v>月销 12</v>
+        <v>月销 0</v>
       </c>
       <c r="E322" t="str">
         <v/>
@@ -5856,16 +5856,16 @@
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>复古实木小柜子墙面置物架格子壁挂茶杯陈列架家居装饰品壁饰挂墙</v>
+        <v>员工生日礼物定制logo礼品实用高档送客户公司纪念品活动开业赠品</v>
       </c>
       <c r="B323" t="str">
-        <v>¥45.00¥38.00</v>
+        <v>¥53.00¥136.00</v>
       </c>
       <c r="C323" t="str">
-        <v>吉米家饰</v>
+        <v>爱奢尔旗舰店</v>
       </c>
       <c r="D323" t="str">
-        <v>月销 0</v>
+        <v>月销 21</v>
       </c>
       <c r="E323" t="str">
         <v/>
@@ -5873,16 +5873,16 @@
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>抹布架厨房毛巾架立式台面沥水卫生间旋转懒人家居厨房用品清洁</v>
+        <v>扎染染料学校手工DIY材料活性染色剂冷水免煮颜料扎幼儿园染套装</v>
       </c>
       <c r="B324" t="str">
-        <v>¥32.50¥76.00</v>
+        <v>¥3.00¥3.00</v>
       </c>
       <c r="C324" t="str">
-        <v>智慧屋旗舰店</v>
+        <v>扎染用品直销处</v>
       </c>
       <c r="D324" t="str">
-        <v>月销 19</v>
+        <v>月销 229</v>
       </c>
       <c r="E324" t="str">
         <v/>
@@ -5890,16 +5890,16 @@
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>轻奢风垃圾桶不锈钢带盖家用大号厨房厕所高档卫生间客厅北欧创意</v>
+        <v>。,新奇特创意家居家厨房韩庭生活日常日用品百货实用义乌小</v>
       </c>
       <c r="B325" t="str">
-        <v>¥69.90¥180.00</v>
+        <v>¥2.70¥2.70</v>
       </c>
       <c r="C325" t="str">
-        <v>牧洁居家日用旗舰店</v>
+        <v>尚品优选百货铺子</v>
       </c>
       <c r="D325" t="str">
-        <v>月销 1813</v>
+        <v>月销 0</v>
       </c>
       <c r="E325" t="str">
         <v/>
@@ -5907,16 +5907,16 @@
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>送闺蜜生日礼物女生实用的创意满月伴手礼女伴娘520情人节送女友</v>
+        <v>欧舒丹香皂礼盒生日礼物送女生闺蜜伴手礼实用精致创意特别礼品</v>
       </c>
       <c r="B326" t="str">
-        <v>¥26.60¥81.80</v>
+        <v>¥88.00¥176.00</v>
       </c>
       <c r="C326" t="str">
-        <v>四月诗约ins礼品</v>
+        <v>THE BESTS 本色</v>
       </c>
       <c r="D326" t="str">
-        <v>月销 31</v>
+        <v>月销 718</v>
       </c>
       <c r="E326" t="str">
         <v/>
@@ -5924,16 +5924,16 @@
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>创意居家居用品厨房用品用具小百货家用大全生活实用日用品小商品</v>
+        <v>圣诞节送小女孩雪花公主水晶球发光音乐盒八音盒儿童生日礼物享新</v>
       </c>
       <c r="B327" t="str">
-        <v>¥17.70¥35.40</v>
+        <v>¥41.28¥57.33</v>
       </c>
       <c r="C327" t="str">
-        <v>倍特斯旗舰店</v>
+        <v>建花品牌商贸</v>
       </c>
       <c r="D327" t="str">
-        <v>月销 1</v>
+        <v>月销 0</v>
       </c>
       <c r="E327" t="str">
         <v/>
@@ -5941,16 +5941,16 @@
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>染衣服染料黑色棉麻服装翻新改色剂家用鞋染料不褪色的衣服染色剂</v>
+        <v>恋爱100挑战|520情人节情侣礼物一对纪念送男朋友仪式感生日礼物</v>
       </c>
       <c r="B328" t="str">
-        <v>¥22.80¥22.80</v>
+        <v>¥58.00¥78.75</v>
       </c>
       <c r="C328" t="str">
-        <v>九棵松旗舰店</v>
+        <v>马克图布的礼物店</v>
       </c>
       <c r="D328" t="str">
-        <v>月销 230</v>
+        <v>月销 102</v>
       </c>
       <c r="E328" t="str">
         <v/>
@@ -5958,16 +5958,16 @@
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>韩版生日眼镜搞怪蛋糕毕业拍照道具儿童派对装扮用品造型小红书</v>
+        <v>创意家居家生活厨房批發日用品百货收纳实用新奇特懒人义乌小商品</v>
       </c>
       <c r="B329" t="str">
-        <v>¥8.00¥8.00</v>
+        <v>¥17.00¥17.00</v>
       </c>
       <c r="C329" t="str">
-        <v>嘻哈创意礼品工作室</v>
+        <v>时尚潮牌百货麒舰店</v>
       </c>
       <c r="D329" t="str">
-        <v>月销 6</v>
+        <v>月销 0</v>
       </c>
       <c r="E329" t="str">
         <v/>
@@ -5975,16 +5975,16 @@
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>创意家居家生活日用品百货9.9元义乌小商品批2店杂货铺5全场满</v>
+        <v>创意居家日用品用具小百货大全家用实用物件厨房生活神器保鲜礼品</v>
       </c>
       <c r="B330" t="str">
-        <v>¥0.78¥0.78</v>
+        <v>¥4.80¥9.80</v>
       </c>
       <c r="C330" t="str">
-        <v>福建家居家日用百货小商品</v>
+        <v>集优创意家居城</v>
       </c>
       <c r="D330" t="str">
-        <v>月销 7</v>
+        <v>月销 624</v>
       </c>
       <c r="E330" t="str">
         <v/>
@@ -5992,16 +5992,16 @@
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>优思居家用按压垃圾桶客厅厨房分类垃圾箱卫生间带盖厕所马桶纸篓</v>
+        <v>小学生奖励小礼品奖品文具创意幼儿园小朋友实用儿童生日圣诞礼物</v>
       </c>
       <c r="B331" t="str">
-        <v>¥6.00¥7.50</v>
+        <v>¥18.33¥18.33</v>
       </c>
       <c r="C331" t="str">
-        <v>优思居爱家惠生活</v>
+        <v>新奇特学生礼品批发</v>
       </c>
       <c r="D331" t="str">
-        <v>月销 1798</v>
+        <v>月销 35</v>
       </c>
       <c r="E331" t="str">
         <v/>
@@ -6009,16 +6009,16 @@
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>创意生日礼物女生送女朋友男生闺蜜特别走心高级感实用情侣小玩意</v>
+        <v>可爱微商地推实用学生小礼物 儿童节活动钥匙扣创意小礼品六一</v>
       </c>
       <c r="B332" t="str">
-        <v>¥26.60¥53.60</v>
+        <v>¥0.09¥0.09</v>
       </c>
       <c r="C332" t="str">
-        <v>集甜社</v>
+        <v>梓墨文具批发9块9包邮</v>
       </c>
       <c r="D332" t="str">
-        <v>月销 3</v>
+        <v>月销 141</v>
       </c>
       <c r="E332" t="str">
         <v/>
@@ -6026,16 +6026,16 @@
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>wishmore情人节520生日礼物送男女学生朋友闺蜜实用毕业伴手礼品</v>
+        <v>儿童奖品幼儿园小学生奖品生日朋友实用礼物奖励全班玩具礼品</v>
       </c>
       <c r="B333" t="str">
-        <v>¥28.00¥56.00</v>
+        <v>¥0.28¥0.28</v>
       </c>
       <c r="C333" t="str">
-        <v>wishmore旗舰店</v>
+        <v>新奇特学生礼品批发</v>
       </c>
       <c r="D333" t="str">
-        <v>月销 3855</v>
+        <v>月销 23</v>
       </c>
       <c r="E333" t="str">
         <v/>
@@ -6043,16 +6043,16 @@
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>黑裤子上色染料黑色补色剂给衣服染色家用色彩还原修复去除剂灰色</v>
+        <v>小学生男女孩开学礼品活动送奖励奖品创意实用伴手礼生日礼物批發</v>
       </c>
       <c r="B334" t="str">
-        <v>¥8.51¥21.00</v>
+        <v>¥4.80¥6.80</v>
       </c>
       <c r="C334" t="str">
-        <v>福来我家到你家</v>
+        <v>希睿文具精品店10元包邮</v>
       </c>
       <c r="D334" t="str">
-        <v>月销 1</v>
+        <v>月销 732</v>
       </c>
       <c r="E334" t="str">
         <v/>
@@ -6060,13 +6060,13 @@
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>家居日用品生活小百货家用大全大学生男女住校生宿舍寝室神器衣架</v>
+        <v>春节商场布置年年有余中国结福鱼礼品挂件 新房喜庆装饰品促销</v>
       </c>
       <c r="B335" t="str">
-        <v>¥23.70¥23.70</v>
+        <v>¥6.80¥6.80</v>
       </c>
       <c r="C335" t="str">
-        <v>朱掌柜旗舰店</v>
+        <v>秀铺喜庆装饰用品店</v>
       </c>
       <c r="D335" t="str">
         <v>月销 0</v>
@@ -6077,16 +6077,16 @@
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>毕业礼物未来可期手账本套装礼盒日记本礼品送同学闺蜜生日礼物</v>
+        <v>未及积木真好小店小颗粒拼装街景系列小屋玩具女孩生日礼物潮玩</v>
       </c>
       <c r="B336" t="str">
-        <v>¥38.50¥38.50</v>
+        <v>¥89.00¥178.00</v>
       </c>
       <c r="C336" t="str">
-        <v>时光记温暖文具量贩店</v>
+        <v>未及旗舰店</v>
       </c>
       <c r="D336" t="str">
-        <v>月销 254</v>
+        <v>月销 1903</v>
       </c>
       <c r="E336" t="str">
         <v/>
@@ -6094,16 +6094,16 @@
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>ins北欧风格独角兽壁挂家居饰品立体墙面卧室温馨背景墙装饰挂件</v>
+        <v>卡通记事本小本子幼儿园小学生奖品礼物随身迷你笔记本文具批发</v>
       </c>
       <c r="B337" t="str">
-        <v>¥58.00¥116.00</v>
+        <v>¥9.90¥14.00</v>
       </c>
       <c r="C337" t="str">
-        <v>原创设计师的店</v>
+        <v>优奇文具10元包邮</v>
       </c>
       <c r="D337" t="str">
-        <v>月销 189</v>
+        <v>月销 37</v>
       </c>
       <c r="E337" t="str">
         <v/>
@@ -6111,16 +6111,16 @@
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>美国Kikkerland彩虹制造机学生奖励创意儿童精品礼品生日礼物女生</v>
+        <v>小马公主橡皮擦可爱可超萌创意可爱的卡通像皮擦小学生立体造型拼装奖品象皮儿童礼品幼儿园礼物文具用品套装</v>
       </c>
       <c r="B338" t="str">
-        <v>¥308.00¥308.00</v>
+        <v>¥8.80¥21.80</v>
       </c>
       <c r="C338" t="str">
-        <v>kikkerland家居旗舰店</v>
+        <v>尚致办公专营店</v>
       </c>
       <c r="D338" t="str">
-        <v>月销 51</v>
+        <v>月销 57</v>
       </c>
       <c r="E338" t="str">
         <v/>
@@ -6128,16 +6128,16 @@
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>墙上置物架免打孔厨房创意浴室卫生间旋转挂钩壁挂式厨具用品</v>
+        <v>开业活动礼品创意实用定制logo随手礼送客户员工纪念品毕业季礼物</v>
       </c>
       <c r="B339" t="str">
-        <v>¥5.85¥5.85</v>
+        <v>¥25.00¥35.00</v>
       </c>
       <c r="C339" t="str">
-        <v>壹思企业店</v>
+        <v>礼优工厂店</v>
       </c>
       <c r="D339" t="str">
-        <v>月销 0</v>
+        <v>月销 11</v>
       </c>
       <c r="E339" t="str">
         <v/>
@@ -6145,16 +6145,16 @@
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>黑色不锈钢厨房置物架壁挂式墙上免打孔调味调料架子用品收纳家用</v>
+        <v>义乌新奇特儿童玩具批发拉线飞机热卖地摊货源厂家礼物小礼品</v>
       </c>
       <c r="B340" t="str">
-        <v>¥22.78¥40.68</v>
+        <v>¥2.85¥2.85</v>
       </c>
       <c r="C340" t="str">
-        <v>征恋家居专营店</v>
+        <v>好妈妈儿童玩具批发</v>
       </c>
       <c r="D340" t="str">
-        <v>月销 0</v>
+        <v>月销 13</v>
       </c>
       <c r="E340" t="str">
         <v/>
@@ -6162,16 +6162,16 @@
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>家居家义乌小商品批小百货生活2日用品3家用店9.9元用具批礼品</v>
+        <v>飞行棋斗兽棋五子棋儿童早教益智力棋类游戏玩具幼儿园小礼品</v>
       </c>
       <c r="B341" t="str">
-        <v>¥0.02¥0.02</v>
+        <v>¥2.80¥3.80</v>
       </c>
       <c r="C341" t="str">
-        <v>福建家居创意家居日用生活百货小商品批发</v>
+        <v>优奇文具10元包邮</v>
       </c>
       <c r="D341" t="str">
-        <v>月销 5</v>
+        <v>月销 1106</v>
       </c>
       <c r="E341" t="str">
         <v/>
@@ -6179,16 +6179,16 @@
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>厨房锅铲置物架旋转壁挂免打孔挂钩勺子用品家用大全各种收纳神器</v>
+        <v>实用皮卡包 金融行业宣传定制小礼品 美容业宣传赠品 2元内印LOGO</v>
       </c>
       <c r="B342" t="str">
-        <v>¥20.00¥59.60</v>
+        <v>¥0.88¥0.88</v>
       </c>
       <c r="C342" t="str">
-        <v>多想我旗舰店</v>
+        <v>浠涵礼品</v>
       </c>
       <c r="D342" t="str">
-        <v>月销 122</v>
+        <v>月销 37</v>
       </c>
       <c r="E342" t="str">
         <v/>
@@ -6196,16 +6196,16 @@
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>一两块钱包邮小礼品2-3块钱的东西一元包邮专区圆申中通韵达百世</v>
+        <v>幼儿园毕业纪念品实用小学生奖励小礼品10元以下定制logo六一礼物</v>
       </c>
       <c r="B343" t="str">
-        <v>¥1.00¥1.00</v>
+        <v>¥7.80¥8.80</v>
       </c>
       <c r="C343" t="str">
-        <v>芭芭农场2元小礼品</v>
+        <v>辰礼商贸礼品定制</v>
       </c>
       <c r="D343" t="str">
-        <v>月销 3299</v>
+        <v>月销 150</v>
       </c>
       <c r="E343" t="str">
         <v/>
@@ -6213,16 +6213,16 @@
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>家居家日用品生活店小百货义乌小商品批地推厨房2活动礼品元两</v>
+        <v>义乌玩具批发摊热卖创意儿童发光弹力球新奇特夜市货源小孩礼品</v>
       </c>
       <c r="B344" t="str">
-        <v>¥0.31¥0.31</v>
+        <v>¥0.80¥0.80</v>
       </c>
       <c r="C344" t="str">
-        <v>福建家居创意家居日用生活百货小商品批发</v>
+        <v>楠姐玩具批发</v>
       </c>
       <c r="D344" t="str">
-        <v>月销 0</v>
+        <v>月销 102</v>
       </c>
       <c r="E344" t="str">
         <v/>
@@ -6230,16 +6230,16 @@
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>六一儿童节生日礼物创意小送男生朋友网红特别的桌面篮球机奖品</v>
+        <v>创意婚庆回礼扫码地推活动六一儿童节礼品5元以下学生奖励小礼品</v>
       </c>
       <c r="B345" t="str">
-        <v>¥16.80¥33.60</v>
+        <v>¥1.45¥1.45</v>
       </c>
       <c r="C345" t="str">
-        <v>傲联创意礼品家居店</v>
+        <v>礼潮家居专营店</v>
       </c>
       <c r="D345" t="str">
-        <v>月销 272</v>
+        <v>月销 55</v>
       </c>
       <c r="E345" t="str">
         <v/>
@@ -6247,16 +6247,16 @@
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>早生贵子结婚压床摆件模具含干果心形创意婚床上装饰婚房婚庆用品</v>
+        <v>儿童六一节巴比娃娃玩具小朋友5女童3公主2岁宝宝4女孩生日礼物芭</v>
       </c>
       <c r="B346" t="str">
-        <v>¥8.50¥16.90</v>
+        <v>¥59.00¥176.00</v>
       </c>
       <c r="C346" t="str">
-        <v>狄瑞斯旗舰店</v>
+        <v>乐影旗舰店</v>
       </c>
       <c r="D346" t="str">
-        <v>月销 695</v>
+        <v>月销 1252</v>
       </c>
       <c r="E346" t="str">
         <v/>
@@ -6264,16 +6264,16 @@
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>2元代发小礼品一元包邮圆通中通申通韵达百世真实物流快递员评价</v>
+        <v>幼儿童画画板磁性无尘支架式小黑板家用宝宝写字白板涂鸦可擦画架</v>
       </c>
       <c r="B347" t="str">
-        <v>¥1.00¥1.00</v>
+        <v>¥29.00¥58.00</v>
       </c>
       <c r="C347" t="str">
-        <v>芭芭农场1元小礼品</v>
+        <v>蒂克莱母婴专营店</v>
       </c>
       <c r="D347" t="str">
-        <v>月销 1.35万</v>
+        <v>月销 1.13万</v>
       </c>
       <c r="E347" t="str">
         <v/>
@@ -6281,16 +6281,16 @@
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>空间方式蜻蜓平衡精油扩香器轻奢摆件家居装饰创意木制装饰品客厅</v>
+        <v>实用伴手礼开业小礼品定制公司LOGO年会活动会展宣传广告赠送客户</v>
       </c>
       <c r="B348" t="str">
-        <v>¥18.05¥198.00</v>
+        <v>¥33.00¥38.00</v>
       </c>
       <c r="C348" t="str">
-        <v>空间方式</v>
+        <v>创富礼品定制</v>
       </c>
       <c r="D348" t="str">
-        <v>月销 33</v>
+        <v>月销 0</v>
       </c>
       <c r="E348" t="str">
         <v/>
@@ -6298,16 +6298,16 @@
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>杂啊This is full是福【喜乐学霸】福袋文具手帐杂货小电器类礼袋</v>
+        <v>微商地推开业学生奖品赠品1元购六一幼儿园儿童礼物2元以内小礼品</v>
       </c>
       <c r="B349" t="str">
-        <v>¥29.80¥108.00</v>
+        <v>¥0.12¥0.12</v>
       </c>
       <c r="C349" t="str">
-        <v>杂啊 怦然心动杂货拥有者</v>
+        <v>新奇特学生礼品批发</v>
       </c>
       <c r="D349" t="str">
-        <v>月销 67</v>
+        <v>月销 44</v>
       </c>
       <c r="E349" t="str">
         <v/>
@@ -6315,16 +6315,16 @@
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>高考礼物中国风创意实用送老师学生加油励志纪念品商务小礼品定制</v>
+        <v>日本Pacherie女孩子儿童玩具4-5公主618益智7—9生日礼物10岁以上</v>
       </c>
       <c r="B350" t="str">
-        <v>¥27.40¥58.00</v>
+        <v>¥180.00¥210.00</v>
       </c>
       <c r="C350" t="str">
-        <v>品卓好礼家居旗舰店</v>
+        <v>日本Pacherie官方自营店</v>
       </c>
       <c r="D350" t="str">
-        <v>月销 14</v>
+        <v>月销 106</v>
       </c>
       <c r="E350" t="str">
         <v/>
@@ -6332,16 +6332,16 @@
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>实用礼品公司周年庆活动赠品送客户单位福利员工生日礼物定制logo</v>
+        <v>WWF进口可爱熊猫老虎背包幼儿园小学生小书包儿童毛绒背包2-5-8岁</v>
       </c>
       <c r="B351" t="str">
-        <v>¥65.00¥65.00</v>
+        <v>¥300.00¥300.00</v>
       </c>
       <c r="C351" t="str">
-        <v>小三礼品商店</v>
+        <v>WWF海外旗舰店</v>
       </c>
       <c r="D351" t="str">
-        <v>月销 65</v>
+        <v>月销 27</v>
       </c>
       <c r="E351" t="str">
         <v/>
@@ -6349,16 +6349,16 @@
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>牛年本命年创意实用生日礼物送男生女生闺蜜朋友爱人新年礼品定制</v>
+        <v>得力汪汪队文具礼盒套装创意六一儿童节生日礼物回礼男孩女孩子学生学习小礼品幼儿园宝宝6-12岁开学大礼包</v>
       </c>
       <c r="B352" t="str">
-        <v>¥27.20¥64.00</v>
+        <v>¥58.00¥116.00</v>
       </c>
       <c r="C352" t="str">
-        <v>品卓好礼家居旗舰店</v>
+        <v>得力霸捌专卖店</v>
       </c>
       <c r="D352" t="str">
-        <v>月销 2</v>
+        <v>月销 1</v>
       </c>
       <c r="E352" t="str">
         <v/>
@@ -6366,16 +6366,16 @@
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>zakka杂货复古仿木小缝纫机模型音乐盒艺中式礼品生日新年礼物</v>
+        <v>牛年儿童节礼物创意实用活动小礼品棒棒糖毛巾定制幼儿园开业赠品</v>
       </c>
       <c r="B353" t="str">
-        <v>¥31.40¥62.80</v>
+        <v>¥0.95¥1.92</v>
       </c>
       <c r="C353" t="str">
-        <v>数源家居专营店</v>
+        <v>伊伊丫礼品毛巾创意家纺</v>
       </c>
       <c r="D353" t="str">
-        <v>月销 0</v>
+        <v>月销 52</v>
       </c>
       <c r="E353" t="str">
         <v/>
@@ -6383,16 +6383,16 @@
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>两块钱包邮2-4块钱的东西一元店百货一块钱包邮专区一元包邮韵达</v>
+        <v>百变魔尺创意益智玩具小号魔方幼儿园小学生儿童节日小礼品奖品</v>
       </c>
       <c r="B354" t="str">
-        <v>¥1.00¥1.00</v>
+        <v>¥0.25¥0.85</v>
       </c>
       <c r="C354" t="str">
-        <v>芭芭农场1元小礼品</v>
+        <v>秃秃玩具批发 满8元包邮</v>
       </c>
       <c r="D354" t="str">
-        <v>月销 39</v>
+        <v>月销 51</v>
       </c>
       <c r="E354" t="str">
         <v/>
@@ -6400,16 +6400,16 @@
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>厨具套装全套家用菜刀菜板二合一厨房不锈钢刀具砧板宿舍案板组合</v>
+        <v>520情人节送女友欧舒丹伴手礼伴郎女伴娘小礼品礼盒结婚实用婚礼</v>
       </c>
       <c r="B355" t="str">
-        <v>¥9.80¥29.80</v>
+        <v>¥16.30¥32.60</v>
       </c>
       <c r="C355" t="str">
-        <v>小天籁居家日用旗舰店</v>
+        <v>INFETY旗舰店</v>
       </c>
       <c r="D355" t="str">
-        <v>月销 2355</v>
+        <v>月销 1354</v>
       </c>
       <c r="E355" t="str">
         <v/>
@@ -6417,13 +6417,13 @@
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>。,新奇特创意家居家厨房韩庭生活日常日用品百货实用义乌小</v>
+        <v>生日礼物女生送男生朋友闺蜜特别实用的精致创意可爱纪念小玩意</v>
       </c>
       <c r="B356" t="str">
-        <v>¥2.70¥2.70</v>
+        <v>¥58.80¥58.80</v>
       </c>
       <c r="C356" t="str">
-        <v>尚品优选百货铺子</v>
+        <v>艾萌小玩意</v>
       </c>
       <c r="D356" t="str">
         <v>月销 0</v>
@@ -6434,16 +6434,16 @@
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>密度家居现代简约咖色仿真鼠尾草吊钟绿叶配草花束假花餐桌花艺</v>
+        <v>公司活动小礼物商务礼品实用创意毛巾礼盒定制奖品员工生日伴手礼</v>
       </c>
       <c r="B357" t="str">
-        <v>¥25.00¥25.00</v>
+        <v>¥19.80¥39.60</v>
       </c>
       <c r="C357" t="str">
-        <v>密度家居</v>
+        <v>彩雲姑娘创意礼品屋</v>
       </c>
       <c r="D357" t="str">
-        <v>月销 134</v>
+        <v>月销 58</v>
       </c>
       <c r="E357" t="str">
         <v/>
@@ -6451,16 +6451,16 @@
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>实用小商品 小老鼠开橙器剥橙器家庭日用百货家用厨房 6178</v>
+        <v>生日礼物实用马克杯礼盒情侣杯开业店庆活动回礼伴手礼赠送小礼品</v>
       </c>
       <c r="B358" t="str">
-        <v>¥1.20¥1.20</v>
+        <v>¥9.90¥19.80</v>
       </c>
       <c r="C358" t="str">
-        <v>阿梁良品</v>
+        <v>今式缘婚庆喜铺</v>
       </c>
       <c r="D358" t="str">
-        <v>月销 0</v>
+        <v>月销 2</v>
       </c>
       <c r="E358" t="str">
         <v/>
@@ -6468,16 +6468,16 @@
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>幼儿园区教活动中国传统国学文化蒙氏早教益智玩具教具模型12生肖</v>
+        <v>春色婚礼定制伴手礼盒简约INS风礼物盒新娘结婚回礼盒节日礼品盒</v>
       </c>
       <c r="B359" t="str">
-        <v>¥6.80¥6.80</v>
+        <v>¥45.00¥72.00</v>
       </c>
       <c r="C359" t="str">
-        <v>善学心言 蒙氏教具与环创 研究社</v>
+        <v>Springkle春色婚礼定制</v>
       </c>
       <c r="D359" t="str">
-        <v>月销 32</v>
+        <v>月销 50</v>
       </c>
       <c r="E359" t="str">
         <v/>
@@ -6485,16 +6485,16 @@
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>结婚庆用品加厚喜字坐垫坐福垫新娘踩喜垫改口敬茶拜天地婚礼跪垫</v>
+        <v>家居家义乌小商品批小百货生活2日用品3家用店9.9元用具批礼品</v>
       </c>
       <c r="B360" t="str">
-        <v>¥6.00¥12.00</v>
+        <v>¥0.02¥0.02</v>
       </c>
       <c r="C360" t="str">
-        <v>婚礼纪爱上爱婚嫁喜铺</v>
+        <v>球球家居用品创意百货小商品批发</v>
       </c>
       <c r="D360" t="str">
-        <v>月销 41</v>
+        <v>月销 28</v>
       </c>
       <c r="E360" t="str">
         <v/>
@@ -6502,16 +6502,16 @@
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>创意家居家生活厨房批發日用品百货收纳实用新奇特懒人义乌小商品</v>
+        <v>六一儿童节女孩子10岁生日礼物送12小学生男童女童十11实用13女儿</v>
       </c>
       <c r="B361" t="str">
-        <v>¥17.00¥17.00</v>
+        <v>¥39.80¥39.80</v>
       </c>
       <c r="C361" t="str">
-        <v>时尚潮牌百货麒舰店</v>
+        <v>嘻哈创意礼品工作室</v>
       </c>
       <c r="D361" t="str">
-        <v>月销 0</v>
+        <v>月销 270</v>
       </c>
       <c r="E361" t="str">
         <v/>
@@ -6519,16 +6519,16 @@
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>520情人节恶搞怪零食大礼包生日礼物送男生女生朋友闺蜜情侣实用</v>
+        <v>创意家居家生活日用品百货9.9元义乌小商品批2店杂货铺5全场满</v>
       </c>
       <c r="B362" t="str">
-        <v>¥36.90¥39.90</v>
+        <v>¥0.78¥0.78</v>
       </c>
       <c r="C362" t="str">
-        <v>嘻哈创意礼品工作室</v>
+        <v>福建家居家日用百货小商品</v>
       </c>
       <c r="D362" t="str">
-        <v>月销 1236</v>
+        <v>月销 7</v>
       </c>
       <c r="E362" t="str">
         <v/>
@@ -6536,16 +6536,16 @@
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>新款厨房用品小百货用具家居大全家用小物件居家庭生活创意日用品</v>
+        <v>日本樱花蜜 天然樱花蜂蜜百花蜜125g/玻璃瓶装 鲜花酱礼盒装包邮</v>
       </c>
       <c r="B363" t="str">
-        <v>¥20.44¥20.44</v>
+        <v>¥22.20¥35.00</v>
       </c>
       <c r="C363" t="str">
-        <v>中新厂家直销店</v>
+        <v>萨丽咔小屋</v>
       </c>
       <c r="D363" t="str">
-        <v>月销 0</v>
+        <v>月销 249</v>
       </c>
       <c r="E363" t="str">
         <v/>
@@ -6553,16 +6553,16 @@
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>520情人节生日礼物送女朋友实用创意小礼品纪念意义情侣间小玩意</v>
+        <v>送闺蜜生日礼物女生实用的创意满月伴手礼女伴娘520情人节送女友</v>
       </c>
       <c r="B364" t="str">
-        <v>¥133.00¥173.00</v>
+        <v>¥26.60¥81.80</v>
       </c>
       <c r="C364" t="str">
-        <v>黛茗旗舰店</v>
+        <v>四月诗约ins礼品</v>
       </c>
       <c r="D364" t="str">
-        <v>月销 14</v>
+        <v>月销 38</v>
       </c>
       <c r="E364" t="str">
         <v/>
@@ -6570,16 +6570,16 @@
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>创意实用小玩意家居生活日用品家用百货商品送人礼品礼物化妆镜子</v>
+        <v>家居家日用品生活店小百货义乌小商品批地推厨房2活动礼品元两</v>
       </c>
       <c r="B365" t="str">
-        <v>¥3.50¥3.50</v>
+        <v>¥0.31¥0.31</v>
       </c>
       <c r="C365" t="str">
-        <v>集优创意家居城</v>
+        <v>福建家居创意家居日用生活百货小商品批发</v>
       </c>
       <c r="D365" t="str">
-        <v>月销 10</v>
+        <v>月销 0</v>
       </c>
       <c r="E365" t="str">
         <v/>
@@ -6587,16 +6587,16 @@
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>厨房置物架壁挂式免打孔刀架刀具调料架挂钩收纳架子用品家用大全</v>
+        <v>实用年会公司活动礼品定制logo送员工客户商务伴手礼创意开业赠品</v>
       </c>
       <c r="B366" t="str">
-        <v>¥28.00¥76.00</v>
+        <v>¥40.00¥42.00</v>
       </c>
       <c r="C366" t="str">
-        <v>居家帮旗舰店</v>
+        <v>莲花礼品</v>
       </c>
       <c r="D366" t="str">
-        <v>月销 105</v>
+        <v>月销 0</v>
       </c>
       <c r="E366" t="str">
         <v/>
@@ -6604,16 +6604,16 @@
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>家居创意日用品家用小百货生活实用小商品抖音宿舍收纳衣架神器</v>
+        <v>创意实用小学生幼儿园小朋友开学奖励礼物儿童文具奖品卷笔刀</v>
       </c>
       <c r="B367" t="str">
-        <v>¥2.90¥5.80</v>
+        <v>¥0.10¥0.10</v>
       </c>
       <c r="C367" t="str">
-        <v>集优创意家居城</v>
+        <v>新奇特学生礼品批发</v>
       </c>
       <c r="D367" t="str">
-        <v>月销 106</v>
+        <v>月销 11</v>
       </c>
       <c r="E367" t="str">
         <v/>
@@ -6621,16 +6621,16 @@
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>小学生奖品奖励小礼物创意幼儿园小朋友礼品实用儿童奖品全班文具</v>
+        <v>微商地推儿童开业小礼品1元以下节日小学生幼儿园奖品1元商品赠品</v>
       </c>
       <c r="B368" t="str">
-        <v>¥9.90¥9.90</v>
+        <v>¥0.12¥0.12</v>
       </c>
       <c r="C368" t="str">
-        <v>乐三岁文具礼品店</v>
+        <v>新奇特学生礼品批发</v>
       </c>
       <c r="D368" t="str">
-        <v>月销 299</v>
+        <v>月销 46</v>
       </c>
       <c r="E368" t="str">
         <v/>
@@ -6638,16 +6638,16 @@
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>创意实用幼儿园儿童小学生奖品奖励礼品文具课堂六一活动全班回礼</v>
+        <v>义乌儿童玩具批发地摊热卖女孩娃娃玩具公主礼品创意小玩具1-2元</v>
       </c>
       <c r="B369" t="str">
-        <v>¥9.90¥13.00</v>
+        <v>¥1.98¥1.98</v>
       </c>
       <c r="C369" t="str">
-        <v>好再来礼品店</v>
+        <v>好妈妈儿童玩具批发</v>
       </c>
       <c r="D369" t="str">
-        <v>月销 3508</v>
+        <v>月销 61</v>
       </c>
       <c r="E369" t="str">
         <v/>
@@ -6655,16 +6655,16 @@
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>家用创意精细天然一次性便携随身超细双头竹牙签袋装家居厨房用品</v>
+        <v>六一活动礼品送客户实用赠品定制logo夏季实用小礼品送客户伴手礼</v>
       </c>
       <c r="B370" t="str">
-        <v>¥0.45¥0.90</v>
+        <v>¥3.50¥3.50</v>
       </c>
       <c r="C370" t="str">
-        <v>饰全饰美家居萌物一号店</v>
+        <v>易悟礼品定制</v>
       </c>
       <c r="D370" t="str">
-        <v>月销 14</v>
+        <v>月销 15</v>
       </c>
       <c r="E370" t="str">
         <v/>
@@ -6672,16 +6672,16 @@
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>商务礼品定制logo企业伴手礼公司员工实用活动小奖品随手礼送客户</v>
+        <v>六一节幼儿园儿童手工diy制作粘贴材料包 唐诗古诗词不织布贴画</v>
       </c>
       <c r="B371" t="str">
-        <v>¥45.00¥62.00</v>
+        <v>¥1.60¥3.20</v>
       </c>
       <c r="C371" t="str">
-        <v>鹏林旗舰店</v>
+        <v>聪明小屋DIY手工坊</v>
       </c>
       <c r="D371" t="str">
-        <v>月销 8</v>
+        <v>月销 117</v>
       </c>
       <c r="E371" t="str">
         <v/>
@@ -6689,16 +6689,16 @@
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>公司员工生日礼物创意礼品定制小奖品520情人节送男友男生游戏机</v>
+        <v>幼儿园六一儿童节礼物小礼品定制儿童玩具全班学生奖品活动赠送</v>
       </c>
       <c r="B372" t="str">
-        <v>¥68.00¥118.00</v>
+        <v>¥1.60¥2.10</v>
       </c>
       <c r="C372" t="str">
-        <v>爱奢尔旗舰店</v>
+        <v>墨图礼品六一礼物幼儿园儿童小礼品存钱罐定制批发</v>
       </c>
       <c r="D372" t="str">
-        <v>月销 22</v>
+        <v>月销 233</v>
       </c>
       <c r="E372" t="str">
         <v/>
@@ -6706,449 +6706,24 @@
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>洗碗布抹布不沾油家务清洁吸水不掉毛家用厨房用品竹纤维去油毛巾</v>
+        <v>儿童存钱罐复古百宝箱不可取大人家用存钱箱只进不出大容量储蓄罐</v>
       </c>
       <c r="B373" t="str">
-        <v>¥2.90¥7.80</v>
+        <v>¥17.00¥34.00</v>
       </c>
       <c r="C373" t="str">
-        <v>西城家居生活馆</v>
+        <v>子时骨朵</v>
       </c>
       <c r="D373" t="str">
-        <v>月销 403</v>
+        <v>月销 25</v>
       </c>
       <c r="E373" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="str">
-        <v>Findin懿物桃子原创设计森系小清新婚礼誓言卡vows网红花束誓言本</v>
-      </c>
-      <c r="B374" t="str">
-        <v>¥32.80¥32.80</v>
-      </c>
-      <c r="C374" t="str">
-        <v>BUESSI卜鲽系</v>
-      </c>
-      <c r="D374" t="str">
-        <v>月销 28</v>
-      </c>
-      <c r="E374" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="str">
-        <v>厨房置物架壁挂式304不锈钢多功能收纳刀架调料用品家用大全挂架</v>
-      </c>
-      <c r="B375" t="str">
-        <v>¥328.00¥596.00</v>
-      </c>
-      <c r="C375" t="str">
-        <v>loke旗舰店</v>
-      </c>
-      <c r="D375" t="str">
-        <v>月销 28</v>
-      </c>
-      <c r="E375" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="str">
-        <v>电动打气筒吹气球机充气泵工具便携式自动打气机双孔出气结婚用品</v>
-      </c>
-      <c r="B376" t="str">
-        <v>¥121.00¥189.00</v>
-      </c>
-      <c r="C376" t="str">
-        <v>谜耀旗舰店</v>
-      </c>
-      <c r="D376" t="str">
-        <v>月销 53</v>
-      </c>
-      <c r="E376" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="str">
-        <v>创意卡通新奇特实用小礼品男女学生日小朋友儿童礼物活动奖品批發</v>
-      </c>
-      <c r="B377" t="str">
-        <v>¥0.95¥1.35</v>
-      </c>
-      <c r="C377" t="str">
-        <v>枫落礼品</v>
-      </c>
-      <c r="D377" t="str">
-        <v>月销 58</v>
-      </c>
-      <c r="E377" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="str">
-        <v>向日葵的秘密｜梦幻水彩画美式田园风纯棉四件套1.5米单人三件套</v>
-      </c>
-      <c r="B378" t="str">
-        <v>¥276.00¥276.00</v>
-      </c>
-      <c r="C378" t="str">
-        <v>南木床品 room设计实验室</v>
-      </c>
-      <c r="D378" t="str">
-        <v>月销 974</v>
-      </c>
-      <c r="E378" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="str">
-        <v>不锈钢切芒果器 水果分割器芒果刀切果器去核工具 厨房用品</v>
-      </c>
-      <c r="B379" t="str">
-        <v>¥15.80¥31.60</v>
-      </c>
-      <c r="C379" t="str">
-        <v>moes家居旗舰店</v>
-      </c>
-      <c r="D379" t="str">
-        <v>月销 2</v>
-      </c>
-      <c r="E379" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="str">
-        <v>琉璃八吉祥供水杯供佛杯佛教用品佛前圣水杯供奉财神观音大号供碗</v>
-      </c>
-      <c r="B380" t="str">
-        <v>¥12.00¥24.00</v>
-      </c>
-      <c r="C380" t="str">
-        <v>博福佛具</v>
-      </c>
-      <c r="D380" t="str">
-        <v>月销 5</v>
-      </c>
-      <c r="E380" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="str">
-        <v>活动套装单位福利洗浴日化慰问送清凉防暑降温年会奖品实用大礼包</v>
-      </c>
-      <c r="B381" t="str">
-        <v>¥19.99¥19.99</v>
-      </c>
-      <c r="C381" t="str">
-        <v>上海正东福利团购中心</v>
-      </c>
-      <c r="D381" t="str">
-        <v>月销 24</v>
-      </c>
-      <c r="E381" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="str">
-        <v>若态若客diy手工仪式感时钟日历创意520情人节生日礼物男女益智</v>
-      </c>
-      <c r="B382" t="str">
-        <v>¥118.00¥499.00</v>
-      </c>
-      <c r="C382" t="str">
-        <v>若态旗舰店</v>
-      </c>
-      <c r="D382" t="str">
-        <v>月销 37</v>
-      </c>
-      <c r="E382" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="str">
-        <v>家用塑料组合套装调料盒厨房用品带盖调料瓶盐罐手动调味品收纳盒</v>
-      </c>
-      <c r="B383" t="str">
-        <v>¥10.70¥21.40</v>
-      </c>
-      <c r="C383" t="str">
-        <v>小优百货店</v>
-      </c>
-      <c r="D383" t="str">
-        <v>月销 0</v>
-      </c>
-      <c r="E383" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="str">
-        <v>中国国家博物馆百鹿真丝双面印花大方巾窄丝巾防晒520礼物送女士</v>
-      </c>
-      <c r="B384" t="str">
-        <v>¥145.00¥145.00</v>
-      </c>
-      <c r="C384" t="str">
-        <v>中国国家博物馆旗舰店</v>
-      </c>
-      <c r="D384" t="str">
-        <v>月销 48</v>
-      </c>
-      <c r="E384" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="str">
-        <v>家居日用百货小商品创意小礼品实用百货居家生活用品杂物日常杂货</v>
-      </c>
-      <c r="B385" t="str">
-        <v>¥0.39¥0.49</v>
-      </c>
-      <c r="C385" t="str">
-        <v>清清玉露百货商城</v>
-      </c>
-      <c r="D385" t="str">
-        <v>月销 153</v>
-      </c>
-      <c r="E385" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="str">
-        <v>硅胶压薯器 硅胶厨具用品 土豆压泥器 厨房工具 一体式柠檬榨汁器</v>
-      </c>
-      <c r="B386" t="str">
-        <v>¥48.00¥48.00</v>
-      </c>
-      <c r="C386" t="str">
-        <v>moes家居旗舰店</v>
-      </c>
-      <c r="D386" t="str">
-        <v>月销 14</v>
-      </c>
-      <c r="E386" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="str">
-        <v>北欧创意家居摆件可爱泡泡蝴蝶结女孩客厅房间摆设装饰品生日礼物</v>
-      </c>
-      <c r="B387" t="str">
-        <v>¥352.00¥352.00</v>
-      </c>
-      <c r="C387" t="str">
-        <v>正想旗舰店</v>
-      </c>
-      <c r="D387" t="str">
-        <v>月销 396</v>
-      </c>
-      <c r="E387" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="str">
-        <v>幼儿园小小班儿童节日礼物生日伴手礼回礼开学礼创意小奖品玩具</v>
-      </c>
-      <c r="B388" t="str">
-        <v>¥50.00¥50.00</v>
-      </c>
-      <c r="C388" t="str">
-        <v>赞赞家 益智早教玩具铺</v>
-      </c>
-      <c r="D388" t="str">
-        <v>月销 1</v>
-      </c>
-      <c r="E388" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="str">
-        <v>创意时尚家用大号卫生间客厅厨房卧室办公室带压圈无盖垃圾桶纸篓</v>
-      </c>
-      <c r="B389" t="str">
-        <v>¥3.90¥3.90</v>
-      </c>
-      <c r="C389" t="str">
-        <v>还不晚 家居日用百货超市</v>
-      </c>
-      <c r="D389" t="str">
-        <v>月销 10.09万</v>
-      </c>
-      <c r="E389" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="str">
-        <v>利威零食茶叶奶粉保鲜封口夹调味品密封夹塑料袋防潮密封棒盒装</v>
-      </c>
-      <c r="B390" t="str">
-        <v>¥12.90¥12.90</v>
-      </c>
-      <c r="C390" t="str">
-        <v>wiselive利威旗舰店</v>
-      </c>
-      <c r="D390" t="str">
-        <v>月销 10</v>
-      </c>
-      <c r="E390" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="str">
-        <v>麦麦结婚庆用品一次性水杯纸杯子喜庆婚宴敬茶杯婚礼红色纸杯加厚</v>
-      </c>
-      <c r="B391" t="str">
-        <v>¥27.00¥27.00</v>
-      </c>
-      <c r="C391" t="str">
-        <v>麦麦家居专营</v>
-      </c>
-      <c r="D391" t="str">
-        <v>月销 27</v>
-      </c>
-      <c r="E391" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="str">
-        <v>不锈钢刀架厨房用品置物架家用大全多功能筷子笼砧板菜刀具收纳架</v>
-      </c>
-      <c r="B392" t="str">
-        <v>¥28.00¥28.00</v>
-      </c>
-      <c r="C392" t="str">
-        <v>永诚家居店</v>
-      </c>
-      <c r="D392" t="str">
-        <v>月销 4337</v>
-      </c>
-      <c r="E392" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="str">
-        <v>女友生日礼物女生朋友闺蜜实用送老婆媳妇特别高档伴手浪漫小礼品</v>
-      </c>
-      <c r="B393" t="str">
-        <v>¥36.00¥136.00</v>
-      </c>
-      <c r="C393" t="str">
-        <v>玖晨旗舰店</v>
-      </c>
-      <c r="D393" t="str">
-        <v>月销 36</v>
-      </c>
-      <c r="E393" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="str">
-        <v>520情人节生日礼物女生送给女友朋友老婆闺蜜老师妈妈实用高级感</v>
-      </c>
-      <c r="B394" t="str">
-        <v>¥49.80¥99.60</v>
-      </c>
-      <c r="C394" t="str">
-        <v>可爱可杯礼品店</v>
-      </c>
-      <c r="D394" t="str">
-        <v>月销 0</v>
-      </c>
-      <c r="E394" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="str">
-        <v>抖音同款家居用品厨房用品用具小百货防风扣神器家用小东西日用品</v>
-      </c>
-      <c r="B395" t="str">
-        <v>¥12.90¥12.90</v>
-      </c>
-      <c r="C395" t="str">
-        <v>千货居家千万好货尽在千货</v>
-      </c>
-      <c r="D395" t="str">
-        <v>月销 7</v>
-      </c>
-      <c r="E395" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="str">
-        <v>【特价绝版】国风京剧戏剧猫礼品礼物摆件故宫猫-超值微瑕疵特价</v>
-      </c>
-      <c r="B396" t="str">
-        <v>¥50.00¥50.00</v>
-      </c>
-      <c r="C396" t="str">
-        <v>故宫淘宝 来自故宫的礼物 故宫博物院网店 原创设计店铺</v>
-      </c>
-      <c r="D396" t="str">
-        <v>月销 1468</v>
-      </c>
-      <c r="E396" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="str">
-        <v>幼儿园六一分享礼物生日伴手礼小学生奖励全班奖品儿童可爱小礼品</v>
-      </c>
-      <c r="B397" t="str">
-        <v>¥8.40¥11.90</v>
-      </c>
-      <c r="C397" t="str">
-        <v>逗芽小猪礼品定制</v>
-      </c>
-      <c r="D397" t="str">
-        <v>月销 159</v>
-      </c>
-      <c r="E397" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="str">
-        <v>情人节礼物恋爱情侣100件小事打卡男生走心送男女朋友diy相册浪漫</v>
-      </c>
-      <c r="B398" t="str">
-        <v>¥118.00¥118.00</v>
-      </c>
-      <c r="C398" t="str">
-        <v>知卿创意礼品店</v>
-      </c>
-      <c r="D398" t="str">
-        <v>月销 497</v>
-      </c>
-      <c r="E398" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E398"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E373"/>
   </ignoredErrors>
 </worksheet>
 </file>